--- a/TS Jatai Working/prAtiSAkyam Rules.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sethu\Veda Class\TS Jatai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="936">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -800,9 +800,6 @@
     <t>tapasI</t>
   </si>
   <si>
-    <t>rodas</t>
-  </si>
-  <si>
     <t>4.18 As also, the following word</t>
   </si>
   <si>
@@ -1545,12 +1542,6 @@
   </si>
   <si>
     <t>an original n, followed by a t, becomes s, when the t is a constant one</t>
-  </si>
-  <si>
-    <t>shu</t>
-  </si>
-  <si>
-    <t>shU</t>
   </si>
   <si>
     <t>kRudhi suvaH</t>
@@ -2995,6 +2986,21 @@
   </si>
   <si>
     <t>vA(gm) eShaH</t>
+  </si>
+  <si>
+    <t>Shu</t>
+  </si>
+  <si>
+    <t>ShU</t>
+  </si>
+  <si>
+    <t>rodasI</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>Not in the following</t>
   </si>
 </sst>
 </file>
@@ -3177,7 +3183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3240,6 +3246,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3522,7 +3529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L192"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -5531,7 +5538,7 @@
         <v>112</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E112" s="15" t="s">
         <v>113</v>
@@ -6078,7 +6085,7 @@
         <v>140</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="E141" s="15" t="s">
         <v>141</v>
@@ -6928,8 +6935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L218"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I142" sqref="I142"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7502,7 +7509,7 @@
     </row>
     <row r="60" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C60" s="4" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>242</v>
@@ -7510,7 +7517,7 @@
     </row>
     <row r="61" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C61" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>242</v>
@@ -7534,7 +7541,7 @@
     </row>
     <row r="64" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C64" s="4" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>242</v>
@@ -7578,7 +7585,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>249</v>
@@ -7633,7 +7640,7 @@
         <v>250</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7641,15 +7648,15 @@
         <v>251</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C79" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -7658,17 +7665,17 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C82" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C83" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -7677,40 +7684,40 @@
         <v>4.2</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C86" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C87" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C88" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C89" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C90" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C91" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -7719,16 +7726,16 @@
         <v>4.22</v>
       </c>
       <c r="C93" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="I93" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="I93" s="4" t="s">
+      <c r="J93" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="94" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7739,13 +7746,13 @@
         <v>227</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="95" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7753,13 +7760,13 @@
         <v>4.24</v>
       </c>
       <c r="C95" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E95" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="I95" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7767,13 +7774,13 @@
         <v>4.24</v>
       </c>
       <c r="C96" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E96" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="I96" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7781,13 +7788,13 @@
         <v>4.24</v>
       </c>
       <c r="C97" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E97" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="I97" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7795,10 +7802,10 @@
         <v>4.25</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7806,10 +7813,10 @@
         <v>4.25</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7817,10 +7824,10 @@
         <v>4.25</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7828,10 +7835,10 @@
         <v>4.25</v>
       </c>
       <c r="C101" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7839,7 +7846,7 @@
         <v>4.26</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7847,7 +7854,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7855,13 +7862,13 @@
         <v>4.28</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E104" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I104" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7869,13 +7876,13 @@
         <v>4.28</v>
       </c>
       <c r="C105" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E105" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="I105" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7883,13 +7890,13 @@
         <v>4.29</v>
       </c>
       <c r="C106" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E106" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E106" s="4" t="s">
-        <v>286</v>
-      </c>
       <c r="I106" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="107" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7897,13 +7904,13 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="C107" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E107" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="I107" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="108" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7911,16 +7918,16 @@
         <v>4.33</v>
       </c>
       <c r="C108" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E108" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="I108" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="I108" s="4" t="s">
-        <v>292</v>
-      </c>
       <c r="J108" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7928,16 +7935,16 @@
         <v>4.33</v>
       </c>
       <c r="C109" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E109" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E109" s="4" t="s">
-        <v>291</v>
-      </c>
       <c r="I109" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="J109" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="J109" s="4" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="110" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7945,10 +7952,10 @@
         <v>4.34</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="111" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7956,7 +7963,7 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="112" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7964,13 +7971,13 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="113" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7978,57 +7985,57 @@
         <v>4.38</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C114" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C115" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="116" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C116" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="117" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C117" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="118" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8036,57 +8043,57 @@
         <v>4.38</v>
       </c>
       <c r="C118" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I118" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="119" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C119" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="120" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C120" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="121" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C121" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="122" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C122" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="123" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8094,30 +8101,30 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E123" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I123" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="I123" s="4" t="s">
+      <c r="J123" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="J123" s="4" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="124" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C124" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E124" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E124" s="4" t="s">
+      <c r="I124" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="I124" s="4" t="s">
+      <c r="J124" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="J124" s="4" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="125" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -8129,13 +8136,13 @@
         <v>1</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="127" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8147,13 +8154,13 @@
         <v>2</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="128" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8165,13 +8172,13 @@
         <v>3</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="129" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8183,13 +8190,13 @@
         <v>4</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="130" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8201,13 +8208,13 @@
         <v>5</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="131" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8219,13 +8226,13 @@
         <v>6</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="132" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8237,13 +8244,13 @@
         <v>7</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="133" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8255,13 +8262,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="134" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -8270,13 +8277,13 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="C135" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I135" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="I135" s="4" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="136" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8284,13 +8291,13 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E136" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I136" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="I136" s="4" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="137" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8298,10 +8305,10 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I137" s="4" t="s">
         <v>54</v>
@@ -8312,13 +8319,13 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="139" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8326,13 +8333,13 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="140" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8340,13 +8347,13 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="141" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8354,13 +8361,13 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -8369,7 +8376,7 @@
         <v>4.45</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="144" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -8378,10 +8385,10 @@
         <v>4.46</v>
       </c>
       <c r="C145" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E145" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="146" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8389,7 +8396,7 @@
         <v>4.47</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="147" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8397,10 +8404,10 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="C147" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E147" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="148" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8408,7 +8415,7 @@
         <v>4.49</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="149" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8416,7 +8423,7 @@
         <v>4.5</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="150" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8424,7 +8431,7 @@
         <v>4.51</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="151" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -8433,13 +8440,13 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="153" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="154" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B154" s="34" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C154" s="34"/>
       <c r="D154" s="34"/>
@@ -8450,7 +8457,7 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="157" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8458,7 +8465,7 @@
         <v>4.21</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="158" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8466,7 +8473,7 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="159" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8474,7 +8481,7 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="160" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8482,7 +8489,7 @@
         <v>4.41</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="161" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8493,7 +8500,7 @@
         <v>1</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="162" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8502,7 +8509,7 @@
         <v>2</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="163" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8511,7 +8518,7 @@
         <v>3</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="164" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8520,7 +8527,7 @@
         <v>4</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="165" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8529,7 +8536,7 @@
         <v>5</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="166" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8538,7 +8545,7 @@
         <v>6</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="167" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8546,10 +8553,10 @@
         <v>4.54</v>
       </c>
       <c r="C167" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D167" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="168" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8557,10 +8564,10 @@
         <v>4.54</v>
       </c>
       <c r="C168" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D168" s="4" t="s">
         <v>348</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="169" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -8624,10 +8631,10 @@
   <dimension ref="A2:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8643,30 +8650,30 @@
   <sheetData>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="C2" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C3" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>355</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8674,16 +8681,16 @@
         <v>5.4</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8691,16 +8698,16 @@
         <v>5.4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8708,16 +8715,16 @@
         <v>5.5</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>363</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8725,16 +8732,16 @@
         <v>5.6</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8742,13 +8749,13 @@
         <v>5.7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8756,16 +8763,16 @@
         <v>5.8</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8773,16 +8780,16 @@
         <v>5.9</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8790,22 +8797,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8813,22 +8820,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="H14" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8836,22 +8843,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>377</v>
-      </c>
       <c r="F15" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8859,7 +8866,7 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8867,13 +8874,13 @@
         <v>5.12</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8881,10 +8888,10 @@
         <v>5.13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>29</v>
@@ -8893,7 +8900,7 @@
         <v>29</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8901,10 +8908,10 @@
         <v>5.13</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>386</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>29</v>
@@ -8913,7 +8920,7 @@
         <v>29</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8921,19 +8928,19 @@
         <v>5.14</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>389</v>
-      </c>
       <c r="F20" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8941,13 +8948,13 @@
         <v>5.15</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8955,13 +8962,13 @@
         <v>5.15</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8969,13 +8976,13 @@
         <v>5.15</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8983,10 +8990,10 @@
         <v>5.16</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>393</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8994,10 +9001,10 @@
         <v>5.17</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9005,10 +9012,10 @@
         <v>5.17</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9016,10 +9023,10 @@
         <v>5.17</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9027,10 +9034,10 @@
         <v>5.17</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9038,10 +9045,10 @@
         <v>5.17</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9049,10 +9056,10 @@
         <v>5.18</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>400</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9060,10 +9067,10 @@
         <v>5.19</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9071,13 +9078,13 @@
         <v>5.2</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="F32" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>359</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9085,79 +9092,79 @@
         <v>5.21</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>411</v>
+        <v>403</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>410</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C34" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C35" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C37" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C38" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C39" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>411</v>
-      </c>
       <c r="F39" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9165,13 +9172,13 @@
         <v>5.24</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F40" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>412</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -9190,10 +9197,10 @@
   <dimension ref="A2:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C104" sqref="C104"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9211,7 +9218,7 @@
     </row>
     <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -9226,13 +9233,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9240,128 +9247,128 @@
         <v>6.2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C15" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C17" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -9370,12 +9377,12 @@
         <v>6.3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -9390,16 +9397,16 @@
         <v>6.5</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="E24" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9407,16 +9414,16 @@
         <v>6.5</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9424,13 +9431,13 @@
         <v>6.5</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9438,13 +9445,13 @@
         <v>6.5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9452,13 +9459,13 @@
         <v>6.5</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9466,13 +9473,13 @@
         <v>6.5</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9480,13 +9487,13 @@
         <v>6.5</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9494,13 +9501,13 @@
         <v>6.5</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9508,13 +9515,13 @@
         <v>6.5</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9522,13 +9529,13 @@
         <v>6.5</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9536,13 +9543,13 @@
         <v>6.5</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9550,13 +9557,13 @@
         <v>6.5</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9564,13 +9571,13 @@
         <v>6.5</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9578,13 +9585,13 @@
         <v>6.5</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -9593,61 +9600,61 @@
         <v>6.13</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C40" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C41" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C42" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C43" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C44" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C45" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C46" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C47" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C48" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -9660,7 +9667,7 @@
       </c>
       <c r="B53" s="28"/>
       <c r="C53" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -9669,42 +9676,42 @@
         <v>6.7</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C57" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C58" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C59" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C60" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C61" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="4" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9712,7 +9719,7 @@
         <v>6.8</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9720,7 +9727,7 @@
         <v>6.8</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -9729,7 +9736,7 @@
         <v>6.9</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -9738,12 +9745,12 @@
         <v>6.1</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C69" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9751,10 +9758,10 @@
         <v>6.11</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -9763,67 +9770,67 @@
         <v>6.12</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C73" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C74" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C75" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C76" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C77" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C78" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C79" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="80" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C80" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C81" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C82" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C83" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C84" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -9832,95 +9839,95 @@
         <v>6.14</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C87" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C88" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C89" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="90" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C90" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C91" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C92" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C93" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C94" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C95" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C96" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="97" spans="3:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C97" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="98" spans="3:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C98" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="99" spans="3:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C99" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="100" spans="3:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C100" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="101" spans="3:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C101" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="103" spans="3:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C103" s="25" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="104" spans="3:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C104" s="25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -9933,10 +9940,10 @@
   <dimension ref="A3:H294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F93" sqref="F93"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9959,13 +9966,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -9974,93 +9981,123 @@
         <v>7.2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>501</v>
+        <v>931</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
-        <v>502</v>
+        <v>932</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
-        <v>503</v>
+        <v>500</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
-        <v>505</v>
+        <v>502</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
-        <v>506</v>
+        <v>503</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
-        <v>507</v>
+        <v>504</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
-        <v>508</v>
+        <v>505</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C15" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
-        <v>510</v>
+        <v>507</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C17" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10069,12 +10106,12 @@
         <v>7.3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10086,15 +10123,15 @@
         <v>74</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10102,15 +10139,15 @@
         <v>72</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C25" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10118,7 +10155,7 @@
         <v>7.5</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10127,27 +10164,27 @@
         <v>7.6</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C29" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C30" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C31" s="4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C32" s="4" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10169,18 +10206,18 @@
         <v>7.8</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C37" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10189,52 +10226,52 @@
         <v>7.9</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C40" s="4" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C43" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C44" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C45" s="4" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C46" s="4" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C47" s="4" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10243,50 +10280,50 @@
         <v>7.11</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C50" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C51" s="4" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C52" s="4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C53" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C54" s="4" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10295,18 +10332,18 @@
         <v>7.12</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C57" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10315,24 +10352,24 @@
         <v>7.13</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C60" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10341,24 +10378,24 @@
         <v>7.14</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>539</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C63" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10367,13 +10404,13 @@
         <v>7.15</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D65" s="28"/>
     </row>
     <row r="66" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C66" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10381,10 +10418,10 @@
         <v>7.16</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10392,10 +10429,10 @@
         <v>7.16</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10403,10 +10440,10 @@
         <v>7.16</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10414,10 +10451,10 @@
         <v>7.16</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10425,10 +10462,10 @@
         <v>7.16</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10436,16 +10473,16 @@
         <v>7.16</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="74" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C74" s="28" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D74" s="28"/>
     </row>
@@ -10455,50 +10492,50 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="78" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C78" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D78" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>633</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C79" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C80" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>175</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10507,58 +10544,58 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C83" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="G83" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>641</v>
-      </c>
       <c r="H83" s="4" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C84" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="H84" s="4" t="s">
         <v>639</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C85" s="4" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10567,157 +10604,157 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C88" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C89" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="90" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C90" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>649</v>
-      </c>
       <c r="F90" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="91" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C91" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="92" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C92" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="94" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C94" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C95" s="4" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C96" s="4" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C97" s="4" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C98" s="4" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C99" s="4" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C100" s="4" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C101" s="4" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C102" s="4" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C103" s="4" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C104" s="4" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10726,90 +10763,90 @@
         <v>9.2200000000000006</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C107" s="4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C108" s="4" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C109" s="4" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C110" s="4" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C111" s="4" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C112" s="4" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C113" s="4" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C114" s="4" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C115" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C116" s="4" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C117" s="4" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C118" s="4" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C119" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C120" s="4" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C121" s="4" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C122" s="4" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10818,61 +10855,61 @@
         <v>9.23</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C125" s="4" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C126" s="4" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C127" s="4" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C128" s="4" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="129" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C129" s="4" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="130" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C130" s="4" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="131" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10881,24 +10918,24 @@
         <v>9.24</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="133" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C133" s="4" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="134" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10907,37 +10944,37 @@
         <v>13.6</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="136" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E136" s="4" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="137" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E137" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="138" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E138" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="139" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10945,40 +10982,40 @@
         <v>13.5</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="140" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G140" s="4" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="141" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G141" s="4" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="142" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G142" s="4" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="143" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G143" s="4" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="144" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G144" s="4" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="145" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G145" s="4" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="146" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11138,13 +11175,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G108"/>
+  <dimension ref="A2:G109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C102" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E100" sqref="E100"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11163,7 +11200,7 @@
     </row>
     <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -11177,13 +11214,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11194,10 +11231,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11206,10 +11243,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11218,10 +11255,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11230,10 +11267,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11242,10 +11279,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11254,10 +11291,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11266,10 +11303,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11278,10 +11315,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11290,10 +11327,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11302,10 +11339,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11314,10 +11351,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11326,10 +11363,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11338,10 +11375,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11350,10 +11387,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11362,10 +11399,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11374,10 +11411,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11386,10 +11423,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11398,10 +11435,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11410,10 +11447,10 @@
         <v>19</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11422,10 +11459,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11434,10 +11471,10 @@
         <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11446,10 +11483,10 @@
         <v>22</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11458,10 +11495,10 @@
         <v>23</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11470,10 +11507,10 @@
         <v>24</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11482,10 +11519,10 @@
         <v>25</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11494,10 +11531,10 @@
         <v>26</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11506,10 +11543,10 @@
         <v>27</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11518,13 +11555,13 @@
         <v>8.9</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11532,13 +11569,13 @@
         <v>8.9</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11547,13 +11584,13 @@
         <v>8.1</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11562,13 +11599,13 @@
         <v>8.11</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11577,13 +11614,13 @@
         <v>8.1199999999999992</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11592,35 +11629,35 @@
         <v>8.1300000000000008</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C44" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C45" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11629,24 +11666,24 @@
         <v>8.14</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C48" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>592</v>
-      </c>
       <c r="F48" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11655,10 +11692,10 @@
         <v>8.15</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11668,29 +11705,29 @@
         <v>8.23</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>593</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E54" s="4" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E55" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11699,292 +11736,355 @@
         <v>8.24</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C58" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C59" s="4" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C60" s="4" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C61" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C62" s="4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C63" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C64" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C65" s="4" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C66" s="4" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C65" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C66" s="4" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C67" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>8.25</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E70" s="4" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E71" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>607</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>8.26</v>
       </c>
       <c r="E72" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E73" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E74" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E75" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E76" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E77" s="4" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E73" s="4" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E74" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E75" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E76" s="4" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E77" s="4" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="F77" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>8.27</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C80" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>8.2799999999999994</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>8.2899999999999991</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A84" s="27">
         <v>8.3000000000000007</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>8.31</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C87" s="38" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>8.32</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C89" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C90" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C91" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="E85" s="4" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A87" s="4">
-        <v>8.32</v>
-      </c>
-      <c r="C87" s="4" t="s">
+      <c r="F91" s="4" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C92" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>8.33</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C88" s="4" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C89" s="4" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C90" s="4" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C91" s="4" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A92" s="4">
-        <v>8.33</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E93" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A95" s="4">
+    <row r="94" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E94" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
         <v>8.34</v>
       </c>
-      <c r="E95" s="4" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E96" s="4" t="s">
-        <v>293</v>
+        <v>510</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A97" s="27">
+      <c r="E97" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A98" s="27">
         <v>8.35</v>
       </c>
-      <c r="E97" s="4" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A99" s="4">
-        <v>9.16</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
+      <c r="E98" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="100" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
+        <v>9.16</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
         <v>9.17</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C101" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="E100" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C101" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>630</v>
-      </c>
       <c r="G101" s="4" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C102" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
     <row r="103" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="104" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="105" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="106" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="107" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="108" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11992,11 +12092,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D167" sqref="D167"/>
+      <selection pane="bottomRight" activeCell="E196" sqref="E196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12016,7 +12116,7 @@
     </row>
     <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12025,19 +12125,19 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12045,10 +12145,10 @@
         <v>12.2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12056,46 +12156,46 @@
         <v>12.3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>691</v>
-      </c>
       <c r="G9" s="29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -12104,46 +12204,46 @@
         <v>12.4</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C13" s="29" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C14" s="29" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C15" s="29" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -12152,24 +12252,24 @@
         <v>12.5</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C18" s="29" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -12178,25 +12278,25 @@
         <v>12.6</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D21" s="4" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D22" s="4" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D23" s="4" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12204,245 +12304,245 @@
         <v>12.7</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E25" s="4" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E26" s="4" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E27" s="4" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E28" s="4" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E29" s="4" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E30" s="4" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E31" s="4" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E32" s="4" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="33" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E33" s="4" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="34" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E34" s="4" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="35" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E35" s="4" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="36" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E36" s="4" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="37" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E37" s="4" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="38" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E38" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="39" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E39" s="4" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="40" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E40" s="4" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="41" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E41" s="4" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="42" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E42" s="4" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="43" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E43" s="4" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="44" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E44" s="4" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="45" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E45" s="4" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="46" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E46" s="4" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="47" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E47" s="4" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="48" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E48" s="4" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E49" s="4" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E50" s="4" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E51" s="4" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E52" s="4" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E53" s="4" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.35">
@@ -12450,120 +12550,120 @@
         <v>12.8</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D55" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D56" s="4" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D57" s="4" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G57" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D58" s="4" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D59" s="4" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="G59" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D60" s="4" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D61" s="4" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G61" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D62" s="4" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D63" s="4" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G63" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D64" s="4" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G64" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D65" s="4" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="G65" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D66" s="4" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="G66" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D67" s="4" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="G67" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B69" s="30"/>
       <c r="C69" s="30">
@@ -12576,122 +12676,122 @@
         <v>11.3</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F71" s="29" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C72" s="29" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C73" s="29" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C74" s="29" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F74" s="29" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C75" s="29" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C76" s="29" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F76" s="29" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C77" s="29" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F77" s="29" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C78" s="29" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C79" s="29" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C80" s="29" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="F80" s="29" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C81" s="29" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C82" s="29" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C83" s="29" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C84" s="29" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C85" s="29" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -12700,32 +12800,32 @@
         <v>11.4</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E88" s="4" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E89" s="4" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E90" s="4" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E91" s="4" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E92" s="4" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12733,58 +12833,58 @@
         <v>11.5</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="C94" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C95" s="4" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C96" s="4" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="97" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C97" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="98" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C98" s="4" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="99" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C99" s="4" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -12793,18 +12893,18 @@
         <v>11.6</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="102" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C102" s="4" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -12813,18 +12913,18 @@
         <v>11.7</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="105" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C105" s="4" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12836,26 +12936,26 @@
         <v>11.8</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="108" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C108" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="109" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C109" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="110" spans="1:4" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -12864,26 +12964,26 @@
         <v>11.9</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="112" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C112" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="113" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C113" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="114" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12899,34 +12999,34 @@
         <v>11.1</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="117" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C117" s="4" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="118" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C118" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>794</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="119" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C119" s="4" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="120" spans="1:4" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -12935,10 +13035,10 @@
         <v>11.11</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="122" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12946,26 +13046,26 @@
         <v>11.12</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="123" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C123" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="D123" s="4" t="s">
         <v>799</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="124" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C124" s="4" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -12974,58 +13074,58 @@
         <v>11.13</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="127" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C127" s="4" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="128" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C128" s="4" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="129" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C129" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="D129" s="4" t="s">
         <v>803</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="130" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C130" s="4" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="131" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C131" s="4" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="132" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C132" s="4" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="133" spans="1:4" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -13034,22 +13134,22 @@
         <v>11.14</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="135" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="136" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="137" spans="1:4" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -13058,18 +13158,18 @@
         <v>11.15</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="139" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C139" s="4" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="140" spans="1:4" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -13078,137 +13178,137 @@
         <v>11.16</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="142" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D142" s="4" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="143" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D143" s="4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="144" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D144" s="4" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="145" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D145" s="4" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="146" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D146" s="4" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="147" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D147" s="4" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="148" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D148" s="4" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="149" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D149" s="4" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="150" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D150" s="4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="151" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D151" s="4" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="152" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D152" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="153" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D153" s="4" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="154" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D154" s="4" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="155" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D155" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="156" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D156" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="157" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D157" s="4" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="158" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D158" s="4" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="159" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D159" s="4" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="160" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D160" s="4" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="161" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D161" s="4" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="162" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D162" s="4" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="163" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D163" s="4" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="164" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D164" s="4" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="165" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D165" s="4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="166" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D166" s="4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D167" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="169" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13216,127 +13316,127 @@
         <v>11.17</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="170" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E170" s="4" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="171" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E171" s="4" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="172" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E172" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="173" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E173" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="174" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E174" s="4" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="175" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E175" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="176" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E176" s="4" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="177" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E177" s="4" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="178" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E178" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="179" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E179" s="4" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="180" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E180" s="4" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="181" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E181" s="4" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="182" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E182" s="4" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="183" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E183" s="4" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="184" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E184" s="4" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="185" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E185" s="4" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="186" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E186" s="4" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="187" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E187" s="4" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="188" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E188" s="4" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="189" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E189" s="4" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="190" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E190" s="4" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="191" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E191" s="4" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="192" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E192" s="4" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="193" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E193" s="4" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="194" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13344,10 +13444,10 @@
         <v>11.18</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="195" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13366,8 +13466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13386,10 +13486,10 @@
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -13400,19 +13500,19 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13420,58 +13520,58 @@
         <v>16.2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>876</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>874</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13480,7 +13580,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13489,10 +13589,10 @@
         <v>16.5</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13500,7 +13600,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13509,18 +13609,18 @@
         <v>16.7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13529,10 +13629,10 @@
         <v>16.8</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13540,10 +13640,10 @@
         <v>16.899999999999999</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13551,10 +13651,10 @@
         <v>16.899999999999999</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>885</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13562,7 +13662,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13570,7 +13670,7 @@
         <v>16.11</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13578,34 +13678,34 @@
         <v>16.12</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C26" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>892</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C28" s="4" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13614,26 +13714,26 @@
         <v>16.25</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C31" s="4" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C32" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13642,35 +13742,35 @@
         <v>16.27</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>902</v>
-      </c>
       <c r="G34" s="4" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C35" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>900</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13679,24 +13779,24 @@
         <v>13.4</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C39" s="4" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>

--- a/TS Jatai Working/prAtiSAkyam Rules.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="1142">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -2571,9 +2571,6 @@
     <t>yuvayOr yaH</t>
   </si>
   <si>
-    <t>pRuShThE,</t>
-  </si>
-  <si>
     <t>patir vaH</t>
   </si>
   <si>
@@ -3307,6 +3304,321 @@
   </si>
   <si>
     <t>retains 's'</t>
+  </si>
+  <si>
+    <t>1.2.10.1</t>
+  </si>
+  <si>
+    <t>3.2.8.1</t>
+  </si>
+  <si>
+    <t>6.2.1.3</t>
+  </si>
+  <si>
+    <t>1.4.13.1</t>
+  </si>
+  <si>
+    <t>4.7.14</t>
+  </si>
+  <si>
+    <t>4.3.11.1</t>
+  </si>
+  <si>
+    <t>1.5.5.1</t>
+  </si>
+  <si>
+    <t>1.5.7.1</t>
+  </si>
+  <si>
+    <t>1.5.11.4</t>
+  </si>
+  <si>
+    <t>4.1.11.1</t>
+  </si>
+  <si>
+    <t>1.2.4.1</t>
+  </si>
+  <si>
+    <t>4.6.7.5</t>
+  </si>
+  <si>
+    <t>6.1.7.2</t>
+  </si>
+  <si>
+    <t>3.2?</t>
+  </si>
+  <si>
+    <t>1.5.10.1</t>
+  </si>
+  <si>
+    <t>1.6.2.2</t>
+  </si>
+  <si>
+    <t>2.2.3.3</t>
+  </si>
+  <si>
+    <t>2.2.3.4</t>
+  </si>
+  <si>
+    <t>2.2.4.4</t>
+  </si>
+  <si>
+    <t>2.2.9.3</t>
+  </si>
+  <si>
+    <t>2.3.3.3</t>
+  </si>
+  <si>
+    <t>3.2.11.1</t>
+  </si>
+  <si>
+    <t>4.1.3.4</t>
+  </si>
+  <si>
+    <t>4.1.3.1</t>
+  </si>
+  <si>
+    <t>1.4.45.3</t>
+  </si>
+  <si>
+    <t>4.6.7.3</t>
+  </si>
+  <si>
+    <t>4.4.3.3</t>
+  </si>
+  <si>
+    <t>5.5.7.3</t>
+  </si>
+  <si>
+    <t>5.5.7.4</t>
+  </si>
+  <si>
+    <t>7.4.17.1</t>
+  </si>
+  <si>
+    <t>7.4.20.1</t>
+  </si>
+  <si>
+    <t>1.2.3.3</t>
+  </si>
+  <si>
+    <t>1.3.13.2</t>
+  </si>
+  <si>
+    <t>6.1.4.9</t>
+  </si>
+  <si>
+    <t>6.4.3.3</t>
+  </si>
+  <si>
+    <t>1.2.1.1</t>
+  </si>
+  <si>
+    <t>3.1.9.2</t>
+  </si>
+  <si>
+    <t>1.4.43.1</t>
+  </si>
+  <si>
+    <t>3.1.4.1</t>
+  </si>
+  <si>
+    <t>4.2.2.3</t>
+  </si>
+  <si>
+    <t>4.3.13.5</t>
+  </si>
+  <si>
+    <t>4.4.4.7</t>
+  </si>
+  <si>
+    <t>2.2.12.5</t>
+  </si>
+  <si>
+    <t>1.4.4.1</t>
+  </si>
+  <si>
+    <t>3.4.2.1</t>
+  </si>
+  <si>
+    <t>1.2.6.1</t>
+  </si>
+  <si>
+    <t>1.2.11.2</t>
+  </si>
+  <si>
+    <t>1.2.14.5</t>
+  </si>
+  <si>
+    <t>1.2.14.6</t>
+  </si>
+  <si>
+    <t>1.4.43.2</t>
+  </si>
+  <si>
+    <t>1.5.2.4</t>
+  </si>
+  <si>
+    <t>1.5.3.2</t>
+  </si>
+  <si>
+    <t>1.5.4.3</t>
+  </si>
+  <si>
+    <t>1.6.6.2</t>
+  </si>
+  <si>
+    <t>1.7.6.4</t>
+  </si>
+  <si>
+    <t>3.2.11.2</t>
+  </si>
+  <si>
+    <t>3.4.10.5</t>
+  </si>
+  <si>
+    <t>3.5.3.2</t>
+  </si>
+  <si>
+    <t>4.1.7.1</t>
+  </si>
+  <si>
+    <t>4.2.2.1</t>
+  </si>
+  <si>
+    <t>4.2.9.4</t>
+  </si>
+  <si>
+    <t>4.3.13.1</t>
+  </si>
+  <si>
+    <t>4.4.4.6</t>
+  </si>
+  <si>
+    <t>4.6.5.5</t>
+  </si>
+  <si>
+    <t>5.4.7.5</t>
+  </si>
+  <si>
+    <t>5.7.4.1</t>
+  </si>
+  <si>
+    <t>5.7.6.3</t>
+  </si>
+  <si>
+    <t>5.7.8.1</t>
+  </si>
+  <si>
+    <t>6.2.2.7</t>
+  </si>
+  <si>
+    <t>6.6.1.2</t>
+  </si>
+  <si>
+    <t>1.6.2.1</t>
+  </si>
+  <si>
+    <t>1.6.10.2</t>
+  </si>
+  <si>
+    <t>4.4.11.3</t>
+  </si>
+  <si>
+    <t>4.4.11.4</t>
+  </si>
+  <si>
+    <t>5.4.2.4</t>
+  </si>
+  <si>
+    <t>3.2.5.4</t>
+  </si>
+  <si>
+    <t>4.7.6.2</t>
+  </si>
+  <si>
+    <t>4.7.7.1</t>
+  </si>
+  <si>
+    <t>1.5.10.3</t>
+  </si>
+  <si>
+    <t>6.6.7.2</t>
+  </si>
+  <si>
+    <t>1.2.3.1</t>
+  </si>
+  <si>
+    <t>6.1.4.4</t>
+  </si>
+  <si>
+    <t>1.3.4.1</t>
+  </si>
+  <si>
+    <t>1.4.46.3</t>
+  </si>
+  <si>
+    <t>1.5.5.3</t>
+  </si>
+  <si>
+    <t>1.4.24.1</t>
+  </si>
+  <si>
+    <t>4.6.6.4</t>
+  </si>
+  <si>
+    <t>1.5.6.3</t>
+  </si>
+  <si>
+    <t>3.1.10.3</t>
+  </si>
+  <si>
+    <t>4.4.4.8</t>
+  </si>
+  <si>
+    <t>4.1.7.2</t>
+  </si>
+  <si>
+    <t>7.5.7.4</t>
+  </si>
+  <si>
+    <t>1.3.14.2</t>
+  </si>
+  <si>
+    <t>3.3.11.3</t>
+  </si>
+  <si>
+    <t>3.3.11.5</t>
+  </si>
+  <si>
+    <t>4.3.13.3</t>
+  </si>
+  <si>
+    <t>4.7.15.5</t>
+  </si>
+  <si>
+    <t>7.5.24.1</t>
+  </si>
+  <si>
+    <t>1.8.12.2</t>
+  </si>
+  <si>
+    <t>3.2.4.1</t>
+  </si>
+  <si>
+    <t>pRuShThE</t>
+  </si>
+  <si>
+    <t>4.2.7.2</t>
+  </si>
+  <si>
+    <t>asME</t>
+  </si>
+  <si>
+    <t>amartya</t>
+  </si>
+  <si>
+    <t>No elision</t>
   </si>
 </sst>
 </file>
@@ -3430,7 +3742,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3467,6 +3779,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3495,7 +3819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3564,6 +3888,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4472,7 +4801,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
@@ -5435,7 +5764,7 @@
         <v>9</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
@@ -5454,7 +5783,7 @@
         <v>10</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
@@ -5855,7 +6184,7 @@
         <v>109</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E112" s="15" t="s">
         <v>110</v>
@@ -6365,7 +6694,7 @@
         <v>26</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
@@ -6402,7 +6731,7 @@
         <v>136</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E141" s="15" t="s">
         <v>137</v>
@@ -6456,7 +6785,7 @@
         <v>2</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="15"/>
@@ -6885,7 +7214,7 @@
     <row r="167" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A167" s="15"/>
       <c r="B167" s="15">
-        <f t="shared" ref="B167:B170" si="6">+B166+1</f>
+        <f>+B166+1</f>
         <v>2</v>
       </c>
       <c r="C167" s="15" t="s">
@@ -6904,7 +7233,7 @@
     <row r="168" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A168" s="15"/>
       <c r="B168" s="15">
-        <f t="shared" si="6"/>
+        <f>+B167+1</f>
         <v>3</v>
       </c>
       <c r="C168" s="15" t="s">
@@ -6923,7 +7252,7 @@
     <row r="169" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A169" s="15"/>
       <c r="B169" s="15">
-        <f t="shared" si="6"/>
+        <f>+B168+1</f>
         <v>4</v>
       </c>
       <c r="C169" s="15" t="s">
@@ -6942,7 +7271,7 @@
     <row r="170" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A170" s="15"/>
       <c r="B170" s="15">
-        <f t="shared" si="6"/>
+        <f>+B169+1</f>
         <v>5</v>
       </c>
       <c r="C170" s="15" t="s">
@@ -6995,7 +7324,7 @@
     <row r="173" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A173" s="15"/>
       <c r="B173" s="15">
-        <f t="shared" ref="B173:B177" si="7">+B172+1</f>
+        <f>+B172+1</f>
         <v>2</v>
       </c>
       <c r="C173" s="15" t="s">
@@ -7014,7 +7343,7 @@
     <row r="174" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A174" s="15"/>
       <c r="B174" s="15">
-        <f t="shared" si="7"/>
+        <f>+B173+1</f>
         <v>3</v>
       </c>
       <c r="C174" s="15" t="s">
@@ -7033,7 +7362,7 @@
     <row r="175" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A175" s="15"/>
       <c r="B175" s="15">
-        <f t="shared" si="7"/>
+        <f>+B174+1</f>
         <v>4</v>
       </c>
       <c r="C175" s="15" t="s">
@@ -7052,7 +7381,7 @@
     <row r="176" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A176" s="15"/>
       <c r="B176" s="15">
-        <f t="shared" si="7"/>
+        <f>+B175+1</f>
         <v>5</v>
       </c>
       <c r="C176" s="15" t="s">
@@ -7071,7 +7400,7 @@
     <row r="177" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A177" s="15"/>
       <c r="B177" s="15">
-        <f t="shared" si="7"/>
+        <f>+B176+1</f>
         <v>6</v>
       </c>
       <c r="C177" s="15" t="s">
@@ -7250,10 +7579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L218"/>
+  <dimension ref="A2:N218"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I98" sqref="I98"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7264,13 +7593,13 @@
     <col min="10" max="10" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
         <v>173</v>
       </c>
@@ -7281,7 +7610,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="25" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="25" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B4" s="25" t="s">
         <v>175</v>
       </c>
@@ -7292,7 +7621,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C5" s="25">
         <v>4.2</v>
       </c>
@@ -7308,7 +7637,7 @@
       <c r="K5" s="25"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C6" s="25">
         <v>4.3</v>
       </c>
@@ -7324,7 +7653,7 @@
       <c r="K6" s="25"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C7" s="25">
         <v>4.4000000000000004</v>
       </c>
@@ -7340,7 +7669,7 @@
       <c r="K7" s="25"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="25">
         <v>4.5</v>
       </c>
@@ -7356,7 +7685,7 @@
       <c r="K8" s="25"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="25">
         <v>4.5999999999999996</v>
       </c>
@@ -7372,7 +7701,7 @@
       <c r="K9" s="25"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="25"/>
       <c r="D10" s="25" t="s">
         <v>184</v>
@@ -7386,7 +7715,7 @@
       <c r="K10" s="25"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C11" s="25">
         <v>4.7</v>
       </c>
@@ -7402,7 +7731,7 @@
       <c r="K11" s="25"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="C12" s="25">
         <v>4.8</v>
       </c>
@@ -7418,7 +7747,7 @@
       <c r="K12" s="25"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="35">
         <v>4.9000000000000004</v>
       </c>
@@ -7426,8 +7755,23 @@
       <c r="C14" s="15" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="J14" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="37">
         <v>4.0999999999999996</v>
       </c>
@@ -7438,7 +7782,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="36">
         <v>4.1100000000000003</v>
       </c>
@@ -7689,7 +8033,7 @@
         <v>28</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="44" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7725,7 +8069,7 @@
         <v>32</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="48" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7770,7 +8114,7 @@
         <v>4.12</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>235</v>
@@ -7826,7 +8170,7 @@
     </row>
     <row r="60" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C60" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>234</v>
@@ -7834,7 +8178,7 @@
     </row>
     <row r="61" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C61" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>234</v>
@@ -7858,7 +8202,7 @@
     </row>
     <row r="64" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C64" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>234</v>
@@ -7902,7 +8246,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>241</v>
@@ -7970,7 +8314,7 @@
     </row>
     <row r="79" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C79" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>244</v>
@@ -8111,7 +8455,7 @@
         <v>262</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="98" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8119,7 +8463,7 @@
         <v>4.25</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>268</v>
@@ -8495,7 +8839,7 @@
         <v>308</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="129" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8763,7 +9107,7 @@
     <row r="153" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="154" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B154" s="34" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C154" s="34"/>
       <c r="D154" s="34"/>
@@ -8831,7 +9175,7 @@
     </row>
     <row r="163" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B163" s="4">
-        <f t="shared" ref="B163:B166" si="2">+B162+1</f>
+        <f>+B162+1</f>
         <v>3</v>
       </c>
       <c r="C163" s="4" t="s">
@@ -8840,7 +9184,7 @@
     </row>
     <row r="164" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B164" s="4">
-        <f t="shared" si="2"/>
+        <f>+B163+1</f>
         <v>4</v>
       </c>
       <c r="C164" s="4" t="s">
@@ -8849,7 +9193,7 @@
     </row>
     <row r="165" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B165" s="4">
-        <f t="shared" si="2"/>
+        <f>+B164+1</f>
         <v>5</v>
       </c>
       <c r="C165" s="4" t="s">
@@ -8858,7 +9202,7 @@
     </row>
     <row r="166" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B166" s="4">
-        <f t="shared" si="2"/>
+        <f>+B165+1</f>
         <v>6</v>
       </c>
       <c r="C166" s="4" t="s">
@@ -8948,7 +9292,7 @@
   <dimension ref="A2:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
@@ -9268,7 +9612,7 @@
         <v>380</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>377</v>
@@ -9282,7 +9626,7 @@
         <v>381</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>377</v>
@@ -9296,7 +9640,7 @@
         <v>382</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>377</v>
@@ -9418,13 +9762,13 @@
         <v>279</v>
       </c>
       <c r="H33" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>1021</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9438,7 +9782,7 @@
         <v>279</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9452,10 +9796,10 @@
         <v>279</v>
       </c>
       <c r="H35" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>1024</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9469,7 +9813,7 @@
         <v>279</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9483,12 +9827,12 @@
         <v>279</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C38" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>400</v>
@@ -9497,7 +9841,7 @@
         <v>279</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9541,10 +9885,10 @@
   <dimension ref="A2:Q104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9605,7 +9949,7 @@
         <v>370</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9619,7 +9963,7 @@
         <v>370</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9633,7 +9977,7 @@
         <v>370</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9647,7 +9991,7 @@
         <v>370</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9696,7 +10040,7 @@
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>356</v>
@@ -9705,7 +10049,7 @@
         <v>370</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9719,7 +10063,7 @@
         <v>370</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9733,7 +10077,7 @@
         <v>370</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9750,7 +10094,7 @@
         <v>417</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9758,7 +10102,7 @@
         <v>418</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -9767,7 +10111,7 @@
         <v>6.4</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10115,7 +10459,7 @@
         <v>6.9</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E66" s="41"/>
     </row>
@@ -10153,7 +10497,7 @@
         <v>448</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10161,7 +10505,7 @@
         <v>449</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10169,7 +10513,7 @@
         <v>450</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10177,7 +10521,7 @@
         <v>445</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10185,7 +10529,7 @@
         <v>451</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10193,7 +10537,7 @@
         <v>452</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10201,7 +10545,7 @@
         <v>453</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10209,7 +10553,7 @@
         <v>454</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10217,7 +10561,7 @@
         <v>455</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="81" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10225,7 +10569,7 @@
         <v>456</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="82" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10233,7 +10577,7 @@
         <v>457</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="83" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10241,7 +10585,7 @@
         <v>458</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="84" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10249,7 +10593,7 @@
         <v>459</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="85" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10264,16 +10608,16 @@
         <v>414</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>484</v>
       </c>
       <c r="K86" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="L86" s="4" t="s">
         <v>982</v>
-      </c>
-      <c r="L86" s="4" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="87" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10284,13 +10628,13 @@
         <v>414</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H87" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="I87" s="4" t="s">
         <v>984</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="88" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10301,10 +10645,10 @@
         <v>414</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="89" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10315,31 +10659,31 @@
         <v>414</v>
       </c>
       <c r="F89" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="H89" s="4" t="s">
         <v>965</v>
       </c>
-      <c r="H89" s="4" t="s">
-        <v>966</v>
-      </c>
       <c r="I89" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="L89" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="M89" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="N89" s="4" t="s">
         <v>999</v>
       </c>
-      <c r="M89" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="N89" s="4" t="s">
+      <c r="O89" s="4" t="s">
         <v>1000</v>
       </c>
-      <c r="O89" s="4" t="s">
+      <c r="P89" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="P89" s="4" t="s">
+      <c r="Q89" s="4" t="s">
         <v>1002</v>
-      </c>
-      <c r="Q89" s="4" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="90" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10350,25 +10694,25 @@
         <v>414</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H90" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="I90" s="4" t="s">
         <v>968</v>
       </c>
-      <c r="I90" s="4" t="s">
+      <c r="J90" s="4" t="s">
         <v>969</v>
       </c>
-      <c r="J90" s="4" t="s">
+      <c r="K90" s="4" t="s">
         <v>970</v>
       </c>
-      <c r="K90" s="4" t="s">
+      <c r="L90" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="L90" s="4" t="s">
-        <v>972</v>
-      </c>
       <c r="M90" s="4" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10380,10 +10724,10 @@
         <v>414</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10395,28 +10739,28 @@
         <v>414</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C93" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
         <v>414</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10428,31 +10772,31 @@
         <v>414</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C95" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
         <v>414</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10464,28 +10808,28 @@
         <v>414</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I96" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="K96" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="J96" s="4" t="s">
-        <v>847</v>
-      </c>
-      <c r="K96" s="4" t="s">
+      <c r="L96" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="L96" s="4" t="s">
+      <c r="M96" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="M96" s="4" t="s">
+      <c r="N96" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="N96" s="4" t="s">
-        <v>996</v>
-      </c>
       <c r="O96" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="97" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10497,10 +10841,10 @@
         <v>414</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="98" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10512,10 +10856,10 @@
         <v>414</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="99" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10527,10 +10871,10 @@
         <v>414</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="100" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10542,10 +10886,10 @@
         <v>414</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="101" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10557,10 +10901,10 @@
         <v>414</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="102" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10570,7 +10914,7 @@
     </row>
     <row r="103" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C103" s="25" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -10592,10 +10936,10 @@
   <dimension ref="A3:L294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10636,7 +10980,7 @@
         <v>7.2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>279</v>
@@ -10647,7 +10991,7 @@
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>279</v>
@@ -10667,7 +11011,7 @@
         <v>402</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10681,7 +11025,7 @@
         <v>402</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10695,7 +11039,7 @@
         <v>402</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10709,13 +11053,13 @@
         <v>402</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>961</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10729,7 +11073,7 @@
         <v>402</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10754,7 +11098,7 @@
         <v>402</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10793,7 +11137,7 @@
         <v>495</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10849,10 +11193,10 @@
         <v>498</v>
       </c>
       <c r="G28" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>1014</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10860,13 +11204,13 @@
         <v>499</v>
       </c>
       <c r="G29" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>1016</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>1017</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>443</v>
@@ -10877,7 +11221,7 @@
         <v>500</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10915,10 +11259,10 @@
         <v>505</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>1007</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10929,10 +11273,10 @@
         <v>506</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10947,10 +11291,10 @@
         <v>507</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10961,10 +11305,10 @@
         <v>509</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11274,7 +11618,7 @@
         <v>620</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>624</v>
@@ -11288,7 +11632,7 @@
         <v>621</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>624</v>
@@ -11302,7 +11646,7 @@
         <v>622</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>624</v>
@@ -11316,7 +11660,7 @@
         <v>623</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>624</v>
@@ -11337,7 +11681,7 @@
         <v>632</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11348,7 +11692,7 @@
         <v>632</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11359,7 +11703,7 @@
         <v>632</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="90" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11370,7 +11714,7 @@
         <v>632</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="91" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11381,7 +11725,7 @@
         <v>632</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="92" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11392,7 +11736,7 @@
         <v>632</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11401,7 +11745,7 @@
         <v>633</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11409,7 +11753,7 @@
         <v>634</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11417,7 +11761,7 @@
         <v>635</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11425,7 +11769,7 @@
         <v>636</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11433,7 +11777,7 @@
         <v>637</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11441,7 +11785,7 @@
         <v>638</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11449,7 +11793,7 @@
         <v>639</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11457,7 +11801,7 @@
         <v>640</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11465,7 +11809,7 @@
         <v>641</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11473,7 +11817,7 @@
         <v>642</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11481,7 +11825,7 @@
         <v>643</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="105" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11490,7 +11834,7 @@
         <v>9.2200000000000006</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>644</v>
@@ -11499,15 +11843,15 @@
         <v>279</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>542</v>
@@ -11516,12 +11860,12 @@
         <v>279</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B108" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>645</v>
@@ -11530,12 +11874,12 @@
         <v>279</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>646</v>
@@ -11544,15 +11888,15 @@
         <v>279</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>935</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>936</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>647</v>
@@ -11561,12 +11905,12 @@
         <v>279</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B111" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>648</v>
@@ -11575,7 +11919,7 @@
         <v>279</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11586,15 +11930,15 @@
         <v>279</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="113" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>650</v>
@@ -11603,15 +11947,15 @@
         <v>279</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="114" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>937</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>938</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>651</v>
@@ -11620,15 +11964,15 @@
         <v>279</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="115" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>939</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>940</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>439</v>
@@ -11637,27 +11981,27 @@
         <v>279</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G115" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="H115" s="4" t="s">
         <v>941</v>
       </c>
-      <c r="H115" s="4" t="s">
+      <c r="I115" s="4" t="s">
         <v>942</v>
       </c>
-      <c r="I115" s="4" t="s">
+      <c r="J115" s="4" t="s">
         <v>943</v>
       </c>
-      <c r="J115" s="4" t="s">
+      <c r="K115" s="4" t="s">
         <v>944</v>
-      </c>
-      <c r="K115" s="4" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="116" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>652</v>
@@ -11666,12 +12010,12 @@
         <v>279</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="117" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>653</v>
@@ -11680,15 +12024,15 @@
         <v>279</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="118" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>948</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>949</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>654</v>
@@ -11697,12 +12041,12 @@
         <v>279</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="119" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>655</v>
@@ -11711,23 +12055,23 @@
         <v>279</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="120" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C120" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>279</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="121" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>656</v>
@@ -11736,24 +12080,24 @@
         <v>279</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="J121" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="K121" s="4" t="s">
-        <v>1005</v>
-      </c>
       <c r="L121" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="122" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>657</v>
@@ -11762,7 +12106,7 @@
         <v>279</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="123" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11889,7 +12233,7 @@
     </row>
     <row r="136" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E136" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>402</v>
@@ -11916,40 +12260,40 @@
         <v>13.5</v>
       </c>
       <c r="C139" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="G139" s="4" t="s">
         <v>889</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="140" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G140" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="141" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G141" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="142" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G142" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="143" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G143" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="144" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G144" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="145" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G145" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="146" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12885,7 +13229,7 @@
     <row r="86" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="87" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C87" s="38" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12896,7 +13240,7 @@
         <v>605</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12904,7 +13248,7 @@
         <v>563</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12912,7 +13256,7 @@
         <v>606</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12920,7 +13264,7 @@
         <v>607</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12928,7 +13272,7 @@
         <v>544</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13024,13 +13368,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G201"/>
+  <dimension ref="A2:P203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C114" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
+      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13181,7 +13525,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>12.5</v>
       </c>
@@ -13195,7 +13539,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C18" s="29" t="s">
         <v>686</v>
       </c>
@@ -13206,8 +13550,8 @@
         <v>618</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="29">
         <v>12.6</v>
       </c>
@@ -13217,23 +13561,56 @@
       <c r="D20" s="4" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H20" s="44" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J20" s="44" t="s">
+        <v>1053</v>
+      </c>
+      <c r="K20" s="44" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L20" s="44" t="s">
+        <v>1055</v>
+      </c>
+      <c r="M20" s="44" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N20" s="44" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D21" s="4" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H21" s="44" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D22" s="4" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H22" s="44" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D23" s="4" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H23" s="44" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I23" s="44" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="29">
         <v>12.7</v>
       </c>
@@ -13247,7 +13624,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E25" s="4" t="s">
         <v>692</v>
       </c>
@@ -13255,7 +13632,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E26" s="4" t="s">
         <v>693</v>
       </c>
@@ -13263,15 +13640,15 @@
         <v>618</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E27" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E28" s="4" t="s">
         <v>694</v>
       </c>
@@ -13279,7 +13656,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E29" s="4" t="s">
         <v>695</v>
       </c>
@@ -13287,7 +13664,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E30" s="4" t="s">
         <v>696</v>
       </c>
@@ -13295,7 +13672,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E31" s="4" t="s">
         <v>697</v>
       </c>
@@ -13303,7 +13680,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E32" s="4" t="s">
         <v>698</v>
       </c>
@@ -13570,7 +13947,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D65" s="4" t="s">
         <v>730</v>
       </c>
@@ -13578,15 +13955,15 @@
         <v>618</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D66" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G66" s="29" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D67" s="4" t="s">
         <v>731</v>
       </c>
@@ -13594,8 +13971,8 @@
         <v>618</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
         <v>734</v>
       </c>
@@ -13604,8 +13981,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="29">
         <v>11.3</v>
       </c>
@@ -13615,16 +13992,25 @@
       <c r="F71" s="29" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H71" s="29" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C72" s="29" t="s">
         <v>735</v>
       </c>
       <c r="F72" s="29" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H72" s="29">
+        <v>5.6</v>
+      </c>
+      <c r="I72" s="29">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C73" s="29" t="s">
         <v>737</v>
       </c>
@@ -13632,55 +14018,97 @@
         <v>738</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C74" s="29" t="s">
         <v>739</v>
       </c>
       <c r="F74" s="29" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H74" s="42" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I74" s="42" t="s">
+        <v>935</v>
+      </c>
+      <c r="J74" s="42" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K74" s="42" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C75" s="29" t="s">
         <v>739</v>
       </c>
       <c r="F75" s="29" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H75" s="42" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I75" s="44" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J75" s="42" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C76" s="29" t="s">
         <v>742</v>
       </c>
       <c r="F76" s="29" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H76" s="29">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C77" s="29" t="s">
         <v>739</v>
       </c>
       <c r="F77" s="29" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H77" s="42" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C78" s="29" t="s">
         <v>739</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H78" s="44" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C79" s="29" t="s">
         <v>739</v>
       </c>
       <c r="F79" s="29" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H79" s="44" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I79" s="42" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J79" s="43" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K79" s="43" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C80" s="29" t="s">
         <v>747</v>
       </c>
@@ -13688,7 +14116,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C81" s="29" t="s">
         <v>737</v>
       </c>
@@ -13696,23 +14124,29 @@
         <v>749</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C82" s="29" t="s">
         <v>737</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I82" s="29" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C83" s="29" t="s">
         <v>737</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H83" s="29" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C84" s="29" t="s">
         <v>737</v>
       </c>
@@ -13720,7 +14154,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C85" s="29" t="s">
         <v>737</v>
       </c>
@@ -13728,8 +14162,8 @@
         <v>751</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A87" s="29">
         <v>11.4</v>
       </c>
@@ -13737,32 +14171,32 @@
         <v>759</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E88" s="4" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E89" s="4" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E90" s="4" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E91" s="4" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E92" s="4" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A93" s="29">
         <v>11.5</v>
       </c>
@@ -13772,57 +14206,96 @@
       <c r="D93" s="4" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="G93" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="H93" s="45" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="C94" s="4" t="s">
         <v>765</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H94" s="45" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C95" s="4" t="s">
         <v>762</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G95" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="H95" s="45" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C96" s="4" t="s">
         <v>763</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C97" s="4" t="s">
-        <v>912</v>
-      </c>
-      <c r="D97" s="4" t="s">
+      <c r="G96" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="H96" s="45" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C97" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C98" s="4" t="s">
         <v>764</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G98" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="H98" s="45" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C99" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G99" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="H99" s="45" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I99" s="45" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J99" s="45" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A101" s="29">
         <v>11.6</v>
       </c>
@@ -13832,17 +14305,29 @@
       <c r="D101" s="4" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G101" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="H101" s="45" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C102" s="4" t="s">
         <v>766</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G102" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="H102" s="45" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A104" s="29">
         <v>11.7</v>
       </c>
@@ -13852,48 +14337,81 @@
       <c r="D104" s="4" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G104" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="H104" s="45" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C105" s="4" t="s">
         <v>768</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G105" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="H105" s="45" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A107" s="29">
         <v>11.8</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="6" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C108" s="4" t="s">
         <v>265</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G108" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="H108" s="45" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I108" s="45" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J108" s="45" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K108" s="45" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C109" s="4" t="s">
         <v>265</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G109" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="H109" s="45" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A111" s="29">
         <v>11.9</v>
       </c>
@@ -13903,8 +14421,14 @@
       <c r="D111" s="4" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G111" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="H111" s="45" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C112" s="4" t="s">
         <v>381</v>
       </c>
@@ -13912,23 +14436,29 @@
         <v>774</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C113" s="3" t="s">
         <v>505</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G113" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="H113" s="45" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
     </row>
-    <row r="115" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:4" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:16" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A116" s="31">
         <v>11.1</v>
       </c>
@@ -13938,459 +14468,670 @@
       <c r="D116" s="4" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H116" s="44" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I116" s="44" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J116" s="44" t="s">
+        <v>1076</v>
+      </c>
+      <c r="K116" s="44" t="s">
+        <v>1077</v>
+      </c>
+      <c r="L116" s="44" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C117" s="4" t="s">
         <v>775</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H117" s="44" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I117" s="44" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C118" s="4" t="s">
         <v>775</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H118" s="44" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C119" s="4" t="s">
         <v>775</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A121" s="29">
+      <c r="H119" s="44" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I119" s="44" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J119" s="44" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K119" s="44" t="s">
+        <v>1086</v>
+      </c>
+      <c r="L119" s="44" t="s">
+        <v>1087</v>
+      </c>
+      <c r="M119" s="44" t="s">
+        <v>1088</v>
+      </c>
+      <c r="N119" s="44" t="s">
+        <v>1089</v>
+      </c>
+      <c r="O119" s="44" t="s">
+        <v>1090</v>
+      </c>
+      <c r="P119" s="44" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H120" s="44" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I120" s="44" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J120" s="44" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K120" s="44" t="s">
+        <v>1094</v>
+      </c>
+      <c r="L120" s="44" t="s">
+        <v>1095</v>
+      </c>
+      <c r="M120" s="44" t="s">
+        <v>967</v>
+      </c>
+      <c r="N120" s="44" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O120" s="44" t="s">
+        <v>1097</v>
+      </c>
+      <c r="P120" s="44" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H121" s="44" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I121" s="44" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J121" s="44" t="s">
+        <v>1101</v>
+      </c>
+      <c r="K121" s="44" t="s">
+        <v>1102</v>
+      </c>
+      <c r="L121" s="44" t="s">
+        <v>1103</v>
+      </c>
+      <c r="M121" s="44" t="s">
+        <v>1104</v>
+      </c>
+      <c r="N121" s="44" t="s">
+        <v>1105</v>
+      </c>
+      <c r="O121" s="44" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A123" s="29">
         <v>11.11</v>
       </c>
-      <c r="C121" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A122" s="29">
-        <v>11.12</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C123" s="4" t="s">
         <v>780</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+      <c r="H123" s="44" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I123" s="44" t="s">
+        <v>1108</v>
+      </c>
+      <c r="J123" s="44" t="s">
+        <v>1109</v>
+      </c>
+      <c r="K123" s="44" t="s">
+        <v>1110</v>
+      </c>
+      <c r="L123" s="44" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A124" s="29">
+        <v>11.12</v>
+      </c>
       <c r="C124" s="4" t="s">
         <v>780</v>
       </c>
       <c r="D124" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="H124" s="44" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C125" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="H125" s="44" t="s">
+        <v>1112</v>
+      </c>
+      <c r="I125" s="43" t="s">
+        <v>1113</v>
+      </c>
+      <c r="J125" s="43" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C126" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="D126" s="4" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A126" s="29">
+      <c r="H126" s="44" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A128" s="29">
         <v>11.13</v>
       </c>
-      <c r="C126" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C127" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C128" s="4" t="s">
         <v>784</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+      <c r="H128" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I128" s="44" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C129" s="4" t="s">
         <v>784</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+      <c r="H129" s="44" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I129" s="43" t="s">
+        <v>930</v>
+      </c>
+      <c r="J129" s="44" t="s">
+        <v>956</v>
+      </c>
+      <c r="K129" s="44" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L129" s="43" t="s">
+        <v>1121</v>
+      </c>
+      <c r="M129" s="29" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C130" s="4" t="s">
         <v>784</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>786</v>
+      </c>
+      <c r="H130" s="44" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I130" s="44" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C131" s="4" t="s">
         <v>784</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+      <c r="H131" s="44" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I131" s="44" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J131" s="44" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C132" s="4" t="s">
         <v>784</v>
       </c>
       <c r="D132" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="H132" s="44" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I132" s="44" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C133" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="H133" s="44" t="s">
+        <v>958</v>
+      </c>
+      <c r="I133" s="44" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C134" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="D134" s="4" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A134" s="29">
+      <c r="H134" s="46" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I134" s="46" t="s">
+        <v>1130</v>
+      </c>
+      <c r="J134" s="46" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K134" s="46" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L134" s="43" t="s">
+        <v>1133</v>
+      </c>
+      <c r="M134" s="46" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A136" s="29">
         <v>11.14</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C136" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="D136" s="4" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="135" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C135" s="4"/>
-      <c r="D135" s="4" t="s">
+    <row r="137" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C137" s="4"/>
+      <c r="D137" s="4" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="136" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C136" s="4"/>
-      <c r="D136" s="4" t="s">
+    <row r="138" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C138" s="4"/>
+      <c r="D138" s="4" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="137" spans="1:4" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A138" s="29">
+    <row r="139" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A140" s="29">
         <v>11.15</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C140" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D140" s="4" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C139" s="4" t="s">
+      <c r="H140" s="44" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C141" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D141" s="4" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A141" s="29">
+      <c r="H141" s="44" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A143" s="29">
         <v>11.16</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D143" s="4" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="142" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="D142" s="4" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="D143" s="4" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D144" s="4" t="s">
-        <v>798</v>
+        <v>817</v>
       </c>
     </row>
     <row r="145" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D145" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="146" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D146" s="4" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="147" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D147" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="148" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D148" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="149" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D149" s="4" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="150" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D150" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="151" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D151" s="4" t="s">
-        <v>914</v>
+        <v>803</v>
       </c>
     </row>
     <row r="152" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D152" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="153" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D153" s="4" t="s">
-        <v>806</v>
+        <v>913</v>
       </c>
     </row>
     <row r="154" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D154" s="4" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="155" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D155" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="156" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D156" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="157" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D157" s="4" t="s">
-        <v>810</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="158" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D158" s="4" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="159" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D159" s="4" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
     </row>
     <row r="160" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D160" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="161" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D161" s="4" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
     </row>
     <row r="162" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D162" s="4" t="s">
-        <v>898</v>
+        <v>811</v>
       </c>
     </row>
     <row r="163" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D163" s="4" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
     </row>
     <row r="164" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D164" s="4" t="s">
-        <v>814</v>
+        <v>897</v>
       </c>
     </row>
     <row r="165" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D165" s="4" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
     </row>
     <row r="166" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D166" s="4" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D167" s="4" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D168" s="4" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D169" s="4" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="D167" s="4" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A169" s="4">
+    <row r="171" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A171" s="4">
         <v>11.17</v>
       </c>
-      <c r="E169" s="4" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E170" s="4" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E171" s="4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="172" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E172" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="173" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E173" s="4" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="174" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E174" s="4" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="175" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E175" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="176" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E176" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="177" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E177" s="4" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="178" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E178" s="4" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="179" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E179" s="4" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="180" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E180" s="4" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="181" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E181" s="4" t="s">
-        <v>899</v>
+        <v>830</v>
       </c>
     </row>
     <row r="182" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E182" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="183" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E183" s="4" t="s">
-        <v>834</v>
+        <v>898</v>
       </c>
     </row>
     <row r="184" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E184" s="4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="185" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E185" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="186" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E186" s="4" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="187" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E187" s="4" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="188" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E188" s="4" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
     </row>
     <row r="189" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E189" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="190" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E190" s="4" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="191" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E191" s="4" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="192" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E192" s="4" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="193" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E193" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="194" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A194" s="4">
+      <c r="E194" s="4" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E195" s="4" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A196" s="4">
         <v>11.18</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="C196" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F196" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="F194" s="4" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="196" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    </row>
     <row r="197" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="198" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="199" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="200" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="201" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="202" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="203" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14400,7 +15141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -14420,10 +15161,10 @@
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>848</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>849</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -14434,7 +15175,7 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>668</v>
@@ -14443,10 +15184,10 @@
         <v>346</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>851</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14454,58 +15195,58 @@
         <v>16.2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>739</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>739</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>739</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>856</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>857</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>739</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -14514,7 +15255,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -14523,10 +15264,10 @@
         <v>16.5</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>860</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14534,7 +15275,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -14543,18 +15284,18 @@
         <v>16.7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>864</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -14563,10 +15304,10 @@
         <v>16.8</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>866</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14574,10 +15315,10 @@
         <v>16.899999999999999</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14585,10 +15326,10 @@
         <v>16.899999999999999</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14596,7 +15337,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14604,7 +15345,7 @@
         <v>16.11</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14612,34 +15353,34 @@
         <v>16.12</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C26" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C28" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>875</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -14648,18 +15389,18 @@
         <v>16.25</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C31" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>878</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14667,7 +15408,7 @@
         <v>492</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -14676,35 +15417,35 @@
         <v>16.27</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>883</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C35" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>883</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>883</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -14716,21 +15457,21 @@
         <v>354</v>
       </c>
       <c r="E38" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>886</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C39" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>886</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>

--- a/TS Jatai Working/prAtiSAkyam Rules.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -10935,11 +10935,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L294"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D108" sqref="D108"/>
+      <selection pane="bottomRight" activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12456,7 +12456,7 @@
   <dimension ref="A2:G109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="L100" sqref="L100"/>
@@ -13370,7 +13370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>

--- a/TS Jatai Working/prAtiSAkyam Rules.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules.xlsx
@@ -9292,7 +9292,7 @@
   <dimension ref="A2:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
@@ -9885,7 +9885,7 @@
   <dimension ref="A2:Q104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
@@ -10936,7 +10936,7 @@
   <dimension ref="A3:L294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="C106" sqref="C106"/>
@@ -13371,7 +13371,7 @@
   <dimension ref="A2:P203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C159" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="D66" sqref="D66"/>

--- a/TS Jatai Working/prAtiSAkyam Rules.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="1143">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -749,9 +749,6 @@
     <t>As also, the preceding word.</t>
   </si>
   <si>
-    <t>4.13 As also, the preceding word.</t>
-  </si>
-  <si>
     <t>sahurI</t>
   </si>
   <si>
@@ -782,9 +779,6 @@
     <t>vyacasvatI</t>
   </si>
   <si>
-    <t>bhariShyantI</t>
-  </si>
-  <si>
     <t>naH pRuthivI</t>
   </si>
   <si>
@@ -966,9 +960,6 @@
   </si>
   <si>
     <t>tu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43 has swaram and  followed by </t>
   </si>
   <si>
     <t>ete</t>
@@ -3619,6 +3610,18 @@
   </si>
   <si>
     <t>No elision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42 has swaram and  followed by </t>
+  </si>
+  <si>
+    <t>4.12 As also, the preceding word.</t>
+  </si>
+  <si>
+    <t>BariShyantI</t>
+  </si>
+  <si>
+    <t>4.43 But not when unaccented, under any circumstances.</t>
   </si>
 </sst>
 </file>
@@ -3819,7 +3822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3893,6 +3896,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4175,8 +4179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L192"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4801,7 +4805,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
@@ -5764,7 +5768,7 @@
         <v>9</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
@@ -5783,7 +5787,7 @@
         <v>10</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
@@ -6184,7 +6188,7 @@
         <v>109</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="E112" s="15" t="s">
         <v>110</v>
@@ -6694,7 +6698,7 @@
         <v>26</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
@@ -6731,7 +6735,7 @@
         <v>136</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="E141" s="15" t="s">
         <v>137</v>
@@ -6785,7 +6789,7 @@
         <v>2</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="15"/>
@@ -7581,14 +7585,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N218"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5546875" customWidth="1"/>
   </cols>
@@ -7751,30 +7756,38 @@
       <c r="A14" s="35">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="4">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="C14" s="15" t="s">
         <v>185</v>
       </c>
+      <c r="E14" s="4">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="J14" s="4" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="37">
         <v>4.0999999999999996</v>
       </c>
+      <c r="B15" s="27">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="C15" s="4" t="s">
         <v>186</v>
       </c>
@@ -7792,8 +7805,11 @@
       <c r="C16" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E16" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <f>+B16+1</f>
         <v>2</v>
@@ -7801,8 +7817,11 @@
       <c r="C17" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <f t="shared" ref="B18:B51" si="0">+B17+1</f>
         <v>3</v>
@@ -7810,8 +7829,11 @@
       <c r="C18" s="4" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E18" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7819,8 +7841,11 @@
       <c r="C19" s="4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E19" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7828,8 +7853,11 @@
       <c r="C20" s="4" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E20" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7837,8 +7865,11 @@
       <c r="C21" s="4" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E21" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7846,8 +7877,11 @@
       <c r="C22" s="4" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E22" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7855,8 +7889,11 @@
       <c r="C23" s="4" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E23" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7864,8 +7901,11 @@
       <c r="C24" s="4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E24" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7873,8 +7913,11 @@
       <c r="C25" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E25" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7882,8 +7925,11 @@
       <c r="C26" s="4" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E26" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7891,8 +7937,11 @@
       <c r="C27" s="4" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E27" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7900,8 +7949,11 @@
       <c r="C28" s="4" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E28" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7909,8 +7961,11 @@
       <c r="C29" s="4" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E29" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7918,8 +7973,11 @@
       <c r="C30" s="4" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E30" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7927,8 +7985,11 @@
       <c r="C31" s="4" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E31" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7936,8 +7997,11 @@
       <c r="C32" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E32" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7945,8 +8009,11 @@
       <c r="C33" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E33" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7954,8 +8021,11 @@
       <c r="C34" s="4" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E34" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B35" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7963,8 +8033,11 @@
       <c r="C35" s="4" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E35" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B36" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7972,8 +8045,11 @@
       <c r="C36" s="4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E36" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B37" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7981,8 +8057,11 @@
       <c r="C37" s="4" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E37" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B38" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7990,8 +8069,11 @@
       <c r="C38" s="4" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E38" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B39" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7999,8 +8081,11 @@
       <c r="C39" s="4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E39" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B40" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -8008,8 +8093,11 @@
       <c r="C40" s="4" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E40" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -8017,8 +8105,11 @@
       <c r="C41" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E41" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B42" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -8026,17 +8117,23 @@
       <c r="C42" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E42" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B43" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>916</v>
+      </c>
+      <c r="E43" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -8044,8 +8141,11 @@
       <c r="C44" s="4" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E44" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B45" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -8053,8 +8153,11 @@
       <c r="C45" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E45" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B46" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -8062,23 +8165,32 @@
       <c r="C46" s="4" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E46" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>917</v>
+      </c>
+      <c r="E47" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>218</v>
+      </c>
+      <c r="E48" s="4">
+        <v>4.1100000000000003</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8089,6 +8201,9 @@
       <c r="C49" s="4" t="s">
         <v>219</v>
       </c>
+      <c r="E49" s="4">
+        <v>4.1100000000000003</v>
+      </c>
     </row>
     <row r="50" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B50" s="4">
@@ -8098,6 +8213,9 @@
       <c r="C50" s="4" t="s">
         <v>220</v>
       </c>
+      <c r="E50" s="4">
+        <v>4.1100000000000003</v>
+      </c>
     </row>
     <row r="51" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
@@ -8107,20 +8225,29 @@
       <c r="C51" s="4" t="s">
         <v>221</v>
       </c>
+      <c r="E51" s="4">
+        <v>4.1100000000000003</v>
+      </c>
     </row>
     <row r="52" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>4.12</v>
       </c>
+      <c r="B53" s="4">
+        <v>4.12</v>
+      </c>
       <c r="C53" s="4" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>235</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B54" s="4">
+        <v>4.12</v>
+      </c>
       <c r="C54" s="4" t="s">
         <v>222</v>
       </c>
@@ -8129,6 +8256,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B55" s="4">
+        <v>4.12</v>
+      </c>
       <c r="C55" s="4" t="s">
         <v>223</v>
       </c>
@@ -8137,6 +8267,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B56" s="4">
+        <v>4.12</v>
+      </c>
       <c r="C56" s="4" t="s">
         <v>224</v>
       </c>
@@ -8145,6 +8278,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B57" s="4">
+        <v>4.12</v>
+      </c>
       <c r="C57" s="4" t="s">
         <v>225</v>
       </c>
@@ -8153,6 +8289,9 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B58" s="4">
+        <v>4.12</v>
+      </c>
       <c r="C58" s="4" t="s">
         <v>226</v>
       </c>
@@ -8161,6 +8300,9 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B59" s="4">
+        <v>4.12</v>
+      </c>
       <c r="C59" s="4" t="s">
         <v>227</v>
       </c>
@@ -8169,22 +8311,31 @@
       </c>
     </row>
     <row r="60" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B60" s="4">
+        <v>4.12</v>
+      </c>
       <c r="C60" s="4" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B61" s="4">
+        <v>4.12</v>
+      </c>
       <c r="C61" s="4" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B62" s="4">
+        <v>4.12</v>
+      </c>
       <c r="C62" s="4" t="s">
         <v>228</v>
       </c>
@@ -8193,6 +8344,9 @@
       </c>
     </row>
     <row r="63" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B63" s="4">
+        <v>4.12</v>
+      </c>
       <c r="C63" s="4" t="s">
         <v>229</v>
       </c>
@@ -8201,14 +8355,20 @@
       </c>
     </row>
     <row r="64" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B64" s="4">
+        <v>4.12</v>
+      </c>
       <c r="C64" s="4" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B65" s="4">
+        <v>4.12</v>
+      </c>
       <c r="C65" s="4" t="s">
         <v>230</v>
       </c>
@@ -8217,6 +8377,9 @@
       </c>
     </row>
     <row r="66" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B66" s="4">
+        <v>4.12</v>
+      </c>
       <c r="C66" s="4" t="s">
         <v>231</v>
       </c>
@@ -8225,6 +8388,9 @@
       </c>
     </row>
     <row r="67" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B67" s="4">
+        <v>4.12</v>
+      </c>
       <c r="C67" s="4" t="s">
         <v>232</v>
       </c>
@@ -8233,6 +8399,9 @@
       </c>
     </row>
     <row r="68" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B68" s="4">
+        <v>4.12</v>
+      </c>
       <c r="C68" s="4" t="s">
         <v>233</v>
       </c>
@@ -8245,51 +8414,69 @@
       <c r="A70" s="4">
         <v>4.1500000000000004</v>
       </c>
+      <c r="B70" s="4">
+        <v>4.1500000000000004</v>
+      </c>
       <c r="C70" s="4" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B71" s="4">
+        <v>4.1500000000000004</v>
+      </c>
       <c r="C71" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B72" s="4">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C72" s="4" t="s">
+      <c r="E72" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B73" s="4">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C73" s="4" t="s">
+      <c r="E73" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B74" s="4">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E73" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C74" s="4" t="s">
+      <c r="E74" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B75" s="4">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C75" s="4" t="s">
+      <c r="E75" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -8297,27 +8484,36 @@
       <c r="A77" s="4">
         <v>4.17</v>
       </c>
+      <c r="B77" s="4">
+        <v>4.17</v>
+      </c>
       <c r="C77" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B78" s="4">
+        <v>4.17</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C78" s="4" t="s">
+      <c r="E78" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E78" s="4" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="79" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B79" s="4">
+        <v>4.17</v>
+      </c>
       <c r="C79" s="4" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -8325,18 +8521,27 @@
       <c r="A81" s="4">
         <v>4.1900000000000004</v>
       </c>
+      <c r="B81" s="4">
+        <v>4.1900000000000004</v>
+      </c>
       <c r="C81" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B82" s="4">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B83" s="3">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C82" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C83" s="4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -8344,41 +8549,62 @@
       <c r="A85" s="27">
         <v>4.2</v>
       </c>
+      <c r="B85" s="27">
+        <v>4.2</v>
+      </c>
       <c r="C85" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B86" s="27">
+        <v>4.2</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B87" s="27">
+        <v>4.2</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E85" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C86" s="4" t="s">
+    </row>
+    <row r="88" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B88" s="27">
+        <v>4.2</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C87" s="4" t="s">
+    <row r="89" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B89" s="27">
+        <v>4.2</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C88" s="4" t="s">
+    <row r="90" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B90" s="27">
+        <v>4.2</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C89" s="4" t="s">
+    <row r="91" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B91" s="27">
+        <v>4.2</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C90" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C91" s="4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="92" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -8386,406 +8612,502 @@
       <c r="A93" s="4">
         <v>4.22</v>
       </c>
+      <c r="B93" s="4">
+        <v>4.22</v>
+      </c>
       <c r="C93" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="I93" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="J93" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="94" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>4.2300000000000004</v>
       </c>
+      <c r="B94" s="4">
+        <v>4.2300000000000004</v>
+      </c>
       <c r="C94" s="4" t="s">
         <v>220</v>
       </c>
       <c r="E94" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="J94" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>4.24</v>
       </c>
+      <c r="B95" s="4">
+        <v>4.24</v>
+      </c>
       <c r="C95" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E95" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I95" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>4.24</v>
       </c>
+      <c r="B96" s="4">
+        <v>4.24</v>
+      </c>
       <c r="C96" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I96" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>4.24</v>
       </c>
+      <c r="B97" s="4">
+        <v>4.24</v>
+      </c>
       <c r="C97" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="98" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>4.25</v>
       </c>
+      <c r="B98" s="4">
+        <v>4.25</v>
+      </c>
       <c r="C98" s="4" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>4.25</v>
       </c>
+      <c r="B99" s="4">
+        <v>4.25</v>
+      </c>
       <c r="C99" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="100" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>4.25</v>
       </c>
+      <c r="B100" s="4">
+        <v>4.25</v>
+      </c>
       <c r="C100" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E100" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>4.25</v>
       </c>
+      <c r="B101" s="4">
+        <v>4.25</v>
+      </c>
       <c r="C101" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>4.26</v>
       </c>
+      <c r="B102" s="4">
+        <v>4.26</v>
+      </c>
       <c r="C102" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>4.2699999999999996</v>
       </c>
+      <c r="B103" s="4">
+        <v>4.2699999999999996</v>
+      </c>
       <c r="C103" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>4.28</v>
       </c>
+      <c r="B104" s="4">
+        <v>4.28</v>
+      </c>
       <c r="C104" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E104" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="E104" s="4" t="s">
-        <v>273</v>
-      </c>
       <c r="I104" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>4.28</v>
       </c>
+      <c r="B105" s="4">
+        <v>4.28</v>
+      </c>
       <c r="C105" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I105" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="106" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>4.29</v>
       </c>
+      <c r="B106" s="4">
+        <v>4.29</v>
+      </c>
       <c r="C106" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="107" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>4.3099999999999996</v>
       </c>
+      <c r="B107" s="4">
+        <v>4.3099999999999996</v>
+      </c>
       <c r="C107" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="I107" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="108" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>4.33</v>
       </c>
+      <c r="B108" s="4">
+        <v>4.33</v>
+      </c>
       <c r="C108" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="I108" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E108" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="I108" s="4" t="s">
+      <c r="J108" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="J108" s="4" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>4.33</v>
       </c>
+      <c r="B109" s="4">
+        <v>4.33</v>
+      </c>
       <c r="C109" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E109" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="I109" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="I109" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="J109" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="110" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>4.34</v>
       </c>
+      <c r="B110" s="4">
+        <v>4.34</v>
+      </c>
       <c r="C110" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="111" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>4.3499999999999996</v>
       </c>
+      <c r="B111" s="4">
+        <v>4.3499999999999996</v>
+      </c>
       <c r="C111" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="112" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>4.3600000000000003</v>
       </c>
+      <c r="B112" s="4">
+        <v>4.3600000000000003</v>
+      </c>
       <c r="C112" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="113" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>4.38</v>
       </c>
+      <c r="B113" s="4">
+        <v>4.38</v>
+      </c>
       <c r="C113" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I113" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="I113" s="4" t="s">
+    </row>
+    <row r="114" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B114" s="4">
+        <v>4.38</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B115" s="4">
+        <v>4.38</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I115" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="114" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C114" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="I114" s="4" t="s">
+    <row r="116" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B116" s="4">
+        <v>4.38</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I116" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="115" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C115" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="I115" s="4" t="s">
+    <row r="117" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B117" s="4">
+        <v>4.38</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I117" s="4" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C116" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C117" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="118" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>4.38</v>
       </c>
+      <c r="B118" s="4">
+        <v>4.38</v>
+      </c>
       <c r="C118" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B119" s="4">
+        <v>4.38</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I119" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E118" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="I118" s="4" t="s">
+    </row>
+    <row r="120" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B120" s="4">
+        <v>4.38</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I120" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C119" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="I119" s="4" t="s">
+    <row r="121" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B121" s="4">
+        <v>4.38</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I121" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C120" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="I120" s="4" t="s">
+    <row r="122" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B122" s="4">
+        <v>4.38</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I122" s="4" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C121" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="I121" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C122" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="I122" s="4" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="123" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A123" s="27">
         <v>4.4000000000000004</v>
       </c>
+      <c r="B123" s="27">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="C123" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E123" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="I123" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="J123" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="I123" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="J123" s="4" t="s">
-        <v>300</v>
-      </c>
     </row>
     <row r="124" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B124" s="27">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="C124" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I124" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="E124" s="4" t="s">
+      <c r="J124" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="I124" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="J124" s="4" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="125" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -8797,13 +9119,13 @@
         <v>1</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>308</v>
+        <v>1139</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="127" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8815,13 +9137,13 @@
         <v>2</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>308</v>
+        <v>1139</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="128" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8833,13 +9155,13 @@
         <v>3</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>308</v>
+        <v>1139</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="129" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8851,13 +9173,13 @@
         <v>4</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>308</v>
+        <v>1139</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="130" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8869,13 +9191,13 @@
         <v>5</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>308</v>
+        <v>1139</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="131" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8887,13 +9209,13 @@
         <v>6</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>308</v>
+        <v>1139</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="132" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8905,13 +9227,13 @@
         <v>7</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>308</v>
+        <v>1139</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="133" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8923,28 +9245,35 @@
         <v>8</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>308</v>
+        <v>1139</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E134" s="4" t="s">
+        <v>1142</v>
+      </c>
+    </row>
     <row r="135" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>4.4400000000000004</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
+      </c>
+      <c r="D135" s="4">
+        <v>4.4400000000000004</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="136" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8952,13 +9281,16 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="C136" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D136" s="4">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I136" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="I136" s="4" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="137" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8966,10 +9298,13 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
+      </c>
+      <c r="D137" s="4">
+        <v>4.4400000000000004</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I137" s="4" t="s">
         <v>53</v>
@@ -8980,13 +9315,16 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
+      </c>
+      <c r="D138" s="4">
+        <v>4.4400000000000004</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="139" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8994,13 +9332,16 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
+      </c>
+      <c r="D139" s="4">
+        <v>4.4400000000000004</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="140" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9008,13 +9349,16 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
+      </c>
+      <c r="D140" s="4">
+        <v>4.4400000000000004</v>
       </c>
       <c r="E140" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I140" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="I140" s="4" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="141" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9022,13 +9366,16 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
+      </c>
+      <c r="D141" s="4">
+        <v>4.4400000000000004</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -9036,8 +9383,11 @@
       <c r="A143" s="4">
         <v>4.45</v>
       </c>
+      <c r="D143" s="4">
+        <v>4.45</v>
+      </c>
       <c r="E143" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="144" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -9046,18 +9396,24 @@
         <v>4.46</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
+      </c>
+      <c r="D145" s="4">
+        <v>4.46</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="146" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>4.47</v>
       </c>
+      <c r="D146" s="4">
+        <v>4.47</v>
+      </c>
       <c r="E146" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="147" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9065,10 +9421,13 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
+      </c>
+      <c r="D147" s="4">
+        <v>4.4800000000000004</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="148" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9076,23 +9435,32 @@
         <v>4.49</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
+      </c>
+      <c r="D148" s="4">
+        <v>4.49</v>
       </c>
     </row>
     <row r="149" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A149" s="27">
         <v>4.5</v>
       </c>
+      <c r="D149" s="27">
+        <v>4.5</v>
+      </c>
       <c r="E149" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="150" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>4.51</v>
       </c>
+      <c r="D150" s="27">
+        <v>4.51</v>
+      </c>
       <c r="E150" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="151" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -9100,14 +9468,17 @@
       <c r="A152" s="4">
         <v>4.5199999999999996</v>
       </c>
-      <c r="E152" s="4" t="s">
-        <v>325</v>
+      <c r="D152" s="47">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="153" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="154" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B154" s="34" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C154" s="34"/>
       <c r="D154" s="34"/>
@@ -9118,7 +9489,10 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
+      </c>
+      <c r="E156" s="4">
+        <v>4.1399999999999997</v>
       </c>
     </row>
     <row r="157" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9126,7 +9500,10 @@
         <v>4.21</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
+      </c>
+      <c r="E157" s="4">
+        <v>4.21</v>
       </c>
     </row>
     <row r="158" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9134,7 +9511,10 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
+      </c>
+      <c r="E158" s="4">
+        <v>4.3899999999999997</v>
       </c>
     </row>
     <row r="159" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9142,7 +9522,10 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
+      </c>
+      <c r="E159" s="4">
+        <v>4.3899999999999997</v>
       </c>
     </row>
     <row r="160" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9150,10 +9533,13 @@
         <v>4.41</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+      <c r="E160" s="4">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>4.53</v>
       </c>
@@ -9161,84 +9547,108 @@
         <v>1</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="E161" s="4">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B162" s="4">
         <f>+B161+1</f>
         <v>2</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+      <c r="E162" s="4">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B163" s="4">
         <f>+B162+1</f>
         <v>3</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+      <c r="E163" s="4">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B164" s="4">
         <f>+B163+1</f>
         <v>4</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="E164" s="4">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B165" s="4">
         <f>+B164+1</f>
         <v>5</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="E165" s="4">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B166" s="4">
         <f>+B165+1</f>
         <v>6</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+      <c r="E166" s="4">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>4.54</v>
       </c>
+      <c r="B167" s="4">
+        <v>4.54</v>
+      </c>
       <c r="C167" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>4.54</v>
       </c>
+      <c r="B168" s="4">
+        <v>4.54</v>
+      </c>
       <c r="C168" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="171" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="172" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="173" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="174" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="175" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="176" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="171" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="172" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="173" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="174" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="175" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="176" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="177" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="178" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="179" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -9292,7 +9702,7 @@
   <dimension ref="A2:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
@@ -9311,30 +9721,30 @@
   <sheetData>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="C2" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C3" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9342,16 +9752,16 @@
         <v>5.4</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9359,16 +9769,16 @@
         <v>5.4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9376,16 +9786,16 @@
         <v>5.5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9393,16 +9803,16 @@
         <v>5.6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9410,13 +9820,13 @@
         <v>5.7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9424,16 +9834,16 @@
         <v>5.8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9441,16 +9851,16 @@
         <v>5.9</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9458,22 +9868,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9481,22 +9891,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9504,22 +9914,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="H15" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9527,7 +9937,7 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9535,13 +9945,13 @@
         <v>5.12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9549,10 +9959,10 @@
         <v>5.13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>29</v>
@@ -9561,7 +9971,7 @@
         <v>29</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9569,10 +9979,10 @@
         <v>5.13</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>29</v>
@@ -9581,7 +9991,7 @@
         <v>29</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9589,19 +9999,19 @@
         <v>5.14</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9609,13 +10019,13 @@
         <v>5.15</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9623,13 +10033,13 @@
         <v>5.15</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9637,13 +10047,13 @@
         <v>5.15</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9651,10 +10061,10 @@
         <v>5.16</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9662,10 +10072,10 @@
         <v>5.17</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9673,10 +10083,10 @@
         <v>5.17</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9684,10 +10094,10 @@
         <v>5.17</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9695,10 +10105,10 @@
         <v>5.17</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9706,10 +10116,10 @@
         <v>5.17</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9717,10 +10127,10 @@
         <v>5.18</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9728,10 +10138,10 @@
         <v>5.19</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9739,13 +10149,13 @@
         <v>5.2</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9753,106 +10163,106 @@
         <v>5.21</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C34" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C35" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>400</v>
-      </c>
       <c r="F36" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C37" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C38" s="4" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C39" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9860,13 +10270,13 @@
         <v>5.24</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -9885,10 +10295,10 @@
   <dimension ref="A2:Q104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D111" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9911,7 +10321,7 @@
     </row>
     <row r="3" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -9926,13 +10336,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9940,149 +10350,149 @@
         <v>6.2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C15" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C17" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10091,18 +10501,18 @@
         <v>6.3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10111,7 +10521,7 @@
         <v>6.4</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10120,16 +10530,16 @@
         <v>6.5</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10137,16 +10547,16 @@
         <v>6.5</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10154,13 +10564,13 @@
         <v>6.5</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10168,13 +10578,13 @@
         <v>6.5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10182,13 +10592,13 @@
         <v>6.5</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10196,13 +10606,13 @@
         <v>6.5</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10210,13 +10620,13 @@
         <v>6.5</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10224,13 +10634,13 @@
         <v>6.5</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10238,13 +10648,13 @@
         <v>6.5</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10252,13 +10662,13 @@
         <v>6.5</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10266,13 +10676,13 @@
         <v>6.5</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10280,13 +10690,13 @@
         <v>6.5</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10294,13 +10704,13 @@
         <v>6.5</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10308,13 +10718,13 @@
         <v>6.5</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10323,61 +10733,61 @@
         <v>6.13</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C40" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C41" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C42" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C43" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C44" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C45" s="4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C46" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C47" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C48" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>467</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10390,7 +10800,7 @@
       </c>
       <c r="B53" s="28"/>
       <c r="C53" s="28" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10399,42 +10809,42 @@
         <v>6.7</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C57" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C58" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C59" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C60" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C61" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="4" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10442,7 +10852,7 @@
         <v>6.8</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10450,7 +10860,7 @@
         <v>6.8</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10459,7 +10869,7 @@
         <v>6.9</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E66" s="41"/>
     </row>
@@ -10469,12 +10879,12 @@
         <v>6.1</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C69" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10482,10 +10892,10 @@
         <v>6.11</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10494,106 +10904,106 @@
         <v>6.12</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C73" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C74" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C75" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C76" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C77" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C78" s="4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C79" s="4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C80" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="81" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C81" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="82" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C82" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="83" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C83" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="84" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C84" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="85" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10602,309 +11012,309 @@
         <v>6.14</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="87" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C87" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="88" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C88" s="39" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="89" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C89" s="4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="L89" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="M89" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="O89" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="P89" s="4" t="s">
         <v>998</v>
       </c>
-      <c r="M89" s="4" t="s">
-        <v>997</v>
-      </c>
-      <c r="N89" s="4" t="s">
+      <c r="Q89" s="4" t="s">
         <v>999</v>
-      </c>
-      <c r="O89" s="4" t="s">
-        <v>1000</v>
-      </c>
-      <c r="P89" s="4" t="s">
-        <v>1001</v>
-      </c>
-      <c r="Q89" s="4" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="90" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C90" s="4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F90" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="H90" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="H90" s="4" t="s">
+      <c r="I90" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="K90" s="4" t="s">
         <v>967</v>
       </c>
-      <c r="I90" s="4" t="s">
+      <c r="L90" s="4" t="s">
         <v>968</v>
       </c>
-      <c r="J90" s="4" t="s">
-        <v>969</v>
-      </c>
-      <c r="K90" s="4" t="s">
-        <v>970</v>
-      </c>
-      <c r="L90" s="4" t="s">
-        <v>971</v>
-      </c>
       <c r="M90" s="4" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C91" s="4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C92" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C93" s="5" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C94" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C95" s="4" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C96" s="5" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="I96" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="L96" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="M96" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="J96" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="K96" s="4" t="s">
+      <c r="N96" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="L96" s="4" t="s">
-        <v>993</v>
-      </c>
-      <c r="M96" s="4" t="s">
-        <v>994</v>
-      </c>
-      <c r="N96" s="4" t="s">
-        <v>995</v>
-      </c>
       <c r="O96" s="4" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="97" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C97" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="98" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C98" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="99" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C99" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="100" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C100" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="101" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C101" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="102" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10914,7 +11324,7 @@
     </row>
     <row r="103" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C103" s="25" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -10922,7 +11332,7 @@
     </row>
     <row r="104" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C104" s="25" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -10935,11 +11345,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D108" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C106" sqref="C106"/>
+      <selection pane="bottomRight" activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10965,13 +11375,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10980,147 +11390,147 @@
         <v>7.2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C15" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C17" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11129,15 +11539,15 @@
         <v>7.3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11149,15 +11559,15 @@
         <v>73</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11165,15 +11575,15 @@
         <v>71</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C25" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11181,7 +11591,7 @@
         <v>7.5</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11190,48 +11600,48 @@
         <v>7.6</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C29" s="4" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C30" s="4" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C31" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C32" s="4" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11253,30 +11663,30 @@
         <v>7.8</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C37" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11285,64 +11695,64 @@
         <v>7.9</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C40" s="4" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C43" s="4" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C44" s="4" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C45" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C46" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C47" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11351,50 +11761,50 @@
         <v>7.11</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C50" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C51" s="4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C52" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C53" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C54" s="4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11403,18 +11813,18 @@
         <v>7.12</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C57" s="4" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11423,24 +11833,24 @@
         <v>7.13</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C60" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11449,24 +11859,24 @@
         <v>7.14</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>522</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C63" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11475,13 +11885,13 @@
         <v>7.15</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D65" s="28"/>
     </row>
     <row r="66" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C66" s="4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11489,10 +11899,10 @@
         <v>7.16</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11500,10 +11910,10 @@
         <v>7.16</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11511,10 +11921,10 @@
         <v>7.16</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11522,10 +11932,10 @@
         <v>7.16</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11533,10 +11943,10 @@
         <v>7.16</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11544,16 +11954,16 @@
         <v>7.16</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="74" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C74" s="28" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D74" s="28"/>
     </row>
@@ -11563,50 +11973,50 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="78" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C78" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D78" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>616</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C79" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C80" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>170</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11615,58 +12025,58 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C83" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="G83" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>624</v>
-      </c>
       <c r="H83" s="4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C84" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="H84" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C85" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11675,157 +12085,157 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C88" s="4" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C89" s="4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="90" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C90" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>632</v>
-      </c>
       <c r="F90" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="91" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C91" s="4" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="92" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C92" s="4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="94" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C94" s="4" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C95" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C96" s="4" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C97" s="4" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C98" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C99" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C100" s="4" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C101" s="4" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C102" s="4" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C103" s="4" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C104" s="4" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="105" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11834,279 +12244,279 @@
         <v>9.2200000000000006</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B108" s="4" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B111" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C112" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="113" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="114" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="115" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="H115" s="4" t="s">
         <v>938</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="I115" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="G115" s="4" t="s">
+      <c r="J115" s="4" t="s">
         <v>940</v>
       </c>
-      <c r="H115" s="4" t="s">
+      <c r="K115" s="4" t="s">
         <v>941</v>
-      </c>
-      <c r="I115" s="4" t="s">
-        <v>942</v>
-      </c>
-      <c r="J115" s="4" t="s">
-        <v>943</v>
-      </c>
-      <c r="K115" s="4" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="116" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="117" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="118" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="119" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="120" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C120" s="5" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="121" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="I121" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L121" s="4" t="s">
         <v>998</v>
-      </c>
-      <c r="J121" s="4" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K121" s="4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="L121" s="4" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="122" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="123" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12115,79 +12525,79 @@
         <v>9.23</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="125" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C125" s="4" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="126" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C126" s="4" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="127" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C127" s="4" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="128" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C128" s="4" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="129" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C129" s="4" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="130" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C130" s="4" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="131" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12196,24 +12606,24 @@
         <v>9.24</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="133" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C133" s="4" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="134" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12222,37 +12632,37 @@
         <v>13.6</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="136" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E136" s="4" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="137" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E137" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E138" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12260,40 +12670,40 @@
         <v>13.5</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="140" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G140" s="4" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="141" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G141" s="4" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="142" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G142" s="4" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="143" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G143" s="4" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="144" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G144" s="4" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="145" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G145" s="4" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="146" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12459,7 +12869,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L100" sqref="L100"/>
+      <selection pane="bottomRight" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12478,7 +12888,7 @@
     </row>
     <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -12492,13 +12902,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12509,10 +12919,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12521,10 +12931,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12533,10 +12943,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12545,10 +12955,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12557,10 +12967,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12569,10 +12979,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12581,10 +12991,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12593,10 +13003,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12605,10 +13015,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12617,10 +13027,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12629,10 +13039,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12641,10 +13051,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12653,10 +13063,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12665,10 +13075,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12677,10 +13087,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12689,10 +13099,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12701,10 +13111,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12713,10 +13123,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12725,10 +13135,10 @@
         <v>19</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12737,10 +13147,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12749,10 +13159,10 @@
         <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12761,10 +13171,10 @@
         <v>22</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12773,10 +13183,10 @@
         <v>23</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12785,10 +13195,10 @@
         <v>24</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12797,10 +13207,10 @@
         <v>25</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12809,10 +13219,10 @@
         <v>26</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12821,10 +13231,10 @@
         <v>27</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12833,13 +13243,13 @@
         <v>8.9</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12847,13 +13257,13 @@
         <v>8.9</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12862,13 +13272,13 @@
         <v>8.1</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12877,13 +13287,13 @@
         <v>8.11</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12892,13 +13302,13 @@
         <v>8.1199999999999992</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12907,35 +13317,35 @@
         <v>8.1300000000000008</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C44" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C45" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12944,24 +13354,24 @@
         <v>8.14</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C48" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>575</v>
-      </c>
       <c r="F48" s="4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12970,10 +13380,10 @@
         <v>8.15</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12983,29 +13393,29 @@
         <v>8.23</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E54" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E55" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13014,57 +13424,57 @@
         <v>8.24</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C58" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C59" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C60" s="4" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C61" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C62" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C63" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C64" s="4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C65" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C66" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C67" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13073,26 +13483,26 @@
         <v>8.25</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E70" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E71" s="4" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13100,50 +13510,50 @@
         <v>8.26</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E73" s="4" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E74" s="4" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E75" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E76" s="4" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E77" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13152,24 +13562,24 @@
         <v>8.27</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C80" s="4" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13178,13 +13588,13 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13192,13 +13602,13 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13206,13 +13616,13 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13220,16 +13630,16 @@
         <v>8.31</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="87" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C87" s="38" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13237,42 +13647,42 @@
         <v>8.32</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C89" s="4" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C90" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C91" s="4" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C92" s="4" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13280,12 +13690,12 @@
         <v>8.33</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E94" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13294,12 +13704,12 @@
         <v>8.34</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E97" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13307,7 +13717,7 @@
         <v>8.35</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13316,16 +13726,16 @@
         <v>9.16</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13333,24 +13743,24 @@
         <v>9.17</v>
       </c>
       <c r="C101" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="E101" s="4" t="s">
-        <v>612</v>
-      </c>
       <c r="G101" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C102" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13370,11 +13780,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C159" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomRight" activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13394,7 +13804,7 @@
     </row>
     <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13403,19 +13813,19 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13423,10 +13833,10 @@
         <v>12.2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13434,46 +13844,46 @@
         <v>12.3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>673</v>
-      </c>
       <c r="G9" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -13482,46 +13892,46 @@
         <v>12.4</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C13" s="29" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C14" s="29" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C15" s="29" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -13530,24 +13940,24 @@
         <v>12.5</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C18" s="29" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -13556,58 +13966,58 @@
         <v>12.6</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="H20" s="44" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J20" s="44" t="s">
+        <v>1050</v>
+      </c>
+      <c r="K20" s="44" t="s">
         <v>1051</v>
       </c>
-      <c r="I20" s="45" t="s">
+      <c r="L20" s="44" t="s">
         <v>1052</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="M20" s="44" t="s">
         <v>1053</v>
       </c>
-      <c r="K20" s="44" t="s">
+      <c r="N20" s="44" t="s">
         <v>1054</v>
-      </c>
-      <c r="L20" s="44" t="s">
-        <v>1055</v>
-      </c>
-      <c r="M20" s="44" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N20" s="44" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D21" s="4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D22" s="4" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D23" s="4" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="I23" s="44" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13615,245 +14025,245 @@
         <v>12.7</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E25" s="4" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E26" s="4" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E27" s="4" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E28" s="4" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E29" s="4" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E30" s="4" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E31" s="4" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E32" s="4" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="33" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E33" s="4" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="34" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E34" s="4" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="35" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E35" s="4" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="36" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E36" s="4" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="37" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E37" s="4" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="38" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E38" s="4" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="39" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E39" s="4" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="40" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E40" s="4" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="41" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E41" s="4" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="42" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E42" s="4" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="43" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E43" s="4" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="44" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E44" s="4" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="45" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E45" s="4" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="46" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E46" s="4" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="47" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E47" s="4" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="48" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E48" s="4" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E49" s="4" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E50" s="4" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E51" s="4" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E52" s="4" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E53" s="4" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.35">
@@ -13861,120 +14271,120 @@
         <v>12.8</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D55" s="4" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D56" s="4" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D57" s="4" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G57" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D58" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D59" s="4" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G59" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D60" s="4" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D61" s="4" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="G61" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D62" s="4" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D63" s="4" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G63" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D64" s="4" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G64" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="65" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D65" s="4" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G65" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D66" s="4" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G66" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D67" s="4" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="G67" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B69" s="30"/>
       <c r="C69" s="30">
@@ -13987,21 +14397,21 @@
         <v>11.3</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F71" s="29" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="H71" s="29" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C72" s="29" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H72" s="29">
         <v>5.6</v>
@@ -14012,55 +14422,55 @@
     </row>
     <row r="73" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C73" s="29" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C74" s="29" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F74" s="29" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H74" s="42" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="I74" s="42" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="J74" s="42" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="K74" s="42" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C75" s="29" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="H75" s="42" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="I75" s="44" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="J75" s="42" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C76" s="29" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="F76" s="29" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="H76" s="29">
         <v>5.0999999999999996</v>
@@ -14068,98 +14478,98 @@
     </row>
     <row r="77" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C77" s="29" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F77" s="29" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="H77" s="42" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C78" s="29" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H78" s="44" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C79" s="29" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="H79" s="44" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I79" s="42" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J79" s="43" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K79" s="43" t="s">
         <v>1043</v>
-      </c>
-      <c r="I79" s="42" t="s">
-        <v>1044</v>
-      </c>
-      <c r="J79" s="43" t="s">
-        <v>1045</v>
-      </c>
-      <c r="K79" s="43" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C80" s="29" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F80" s="29" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C81" s="29" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C82" s="29" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="I82" s="29" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C83" s="29" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="H83" s="29" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C84" s="29" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C85" s="29" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -14168,32 +14578,32 @@
         <v>11.4</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E88" s="4" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E89" s="4" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E90" s="4" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E91" s="4" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E92" s="4" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14201,97 +14611,97 @@
         <v>11.5</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="G93" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H93" s="45" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="C94" s="4" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H94" s="45" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C95" s="4" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="G95" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H95" s="45" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="96" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C96" s="4" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="G96" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H96" s="45" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="97" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C97" s="6" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C98" s="4" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="G98" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H98" s="45" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C99" s="4" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="G99" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H99" s="45" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="I99" s="45" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="J99" s="45" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="100" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -14300,30 +14710,30 @@
         <v>11.6</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="G101" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H101" s="45" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C102" s="4" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G102" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H102" s="45" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -14332,30 +14742,30 @@
         <v>11.7</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="G104" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H104" s="45" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C105" s="4" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="G105" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H105" s="45" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14367,47 +14777,47 @@
         <v>11.8</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="108" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C108" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="G108" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H108" s="45" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I108" s="45" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J108" s="45" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K108" s="45" t="s">
         <v>1068</v>
-      </c>
-      <c r="I108" s="45" t="s">
-        <v>1069</v>
-      </c>
-      <c r="J108" s="45" t="s">
-        <v>1070</v>
-      </c>
-      <c r="K108" s="45" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="109" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C109" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="G109" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H109" s="45" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="110" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -14416,38 +14826,38 @@
         <v>11.9</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="G111" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H111" s="45" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="112" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C112" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="113" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C113" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="G113" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H113" s="45" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="114" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14463,140 +14873,140 @@
         <v>11.1</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="H116" s="44" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="I116" s="44" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J116" s="44" t="s">
+        <v>1073</v>
+      </c>
+      <c r="K116" s="44" t="s">
+        <v>1074</v>
+      </c>
+      <c r="L116" s="44" t="s">
         <v>1075</v>
-      </c>
-      <c r="J116" s="44" t="s">
-        <v>1076</v>
-      </c>
-      <c r="K116" s="44" t="s">
-        <v>1077</v>
-      </c>
-      <c r="L116" s="44" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="117" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C117" s="4" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="H117" s="44" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="I117" s="44" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="118" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C118" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>778</v>
-      </c>
       <c r="H118" s="44" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="119" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C119" s="4" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="H119" s="44" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I119" s="44" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J119" s="44" t="s">
+        <v>1082</v>
+      </c>
+      <c r="K119" s="44" t="s">
         <v>1083</v>
       </c>
-      <c r="I119" s="44" t="s">
+      <c r="L119" s="44" t="s">
         <v>1084</v>
       </c>
-      <c r="J119" s="44" t="s">
+      <c r="M119" s="44" t="s">
         <v>1085</v>
       </c>
-      <c r="K119" s="44" t="s">
+      <c r="N119" s="44" t="s">
         <v>1086</v>
       </c>
-      <c r="L119" s="44" t="s">
+      <c r="O119" s="44" t="s">
         <v>1087</v>
       </c>
-      <c r="M119" s="44" t="s">
+      <c r="P119" s="44" t="s">
         <v>1088</v>
-      </c>
-      <c r="N119" s="44" t="s">
-        <v>1089</v>
-      </c>
-      <c r="O119" s="44" t="s">
-        <v>1090</v>
-      </c>
-      <c r="P119" s="44" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="120" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="H120" s="44" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="I120" s="44" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J120" s="44" t="s">
+        <v>1090</v>
+      </c>
+      <c r="K120" s="44" t="s">
+        <v>1091</v>
+      </c>
+      <c r="L120" s="44" t="s">
         <v>1092</v>
       </c>
-      <c r="J120" s="44" t="s">
+      <c r="M120" s="44" t="s">
+        <v>964</v>
+      </c>
+      <c r="N120" s="44" t="s">
         <v>1093</v>
       </c>
-      <c r="K120" s="44" t="s">
+      <c r="O120" s="44" t="s">
         <v>1094</v>
       </c>
-      <c r="L120" s="44" t="s">
+      <c r="P120" s="44" t="s">
         <v>1095</v>
-      </c>
-      <c r="M120" s="44" t="s">
-        <v>967</v>
-      </c>
-      <c r="N120" s="44" t="s">
-        <v>1096</v>
-      </c>
-      <c r="O120" s="44" t="s">
-        <v>1097</v>
-      </c>
-      <c r="P120" s="44" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="121" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="H121" s="44" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I121" s="44" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J121" s="44" t="s">
+        <v>1098</v>
+      </c>
+      <c r="K121" s="44" t="s">
         <v>1099</v>
       </c>
-      <c r="I121" s="44" t="s">
+      <c r="L121" s="44" t="s">
         <v>1100</v>
       </c>
-      <c r="J121" s="44" t="s">
+      <c r="M121" s="44" t="s">
         <v>1101</v>
       </c>
-      <c r="K121" s="44" t="s">
+      <c r="N121" s="44" t="s">
         <v>1102</v>
       </c>
-      <c r="L121" s="44" t="s">
+      <c r="O121" s="44" t="s">
         <v>1103</v>
-      </c>
-      <c r="M121" s="44" t="s">
-        <v>1104</v>
-      </c>
-      <c r="N121" s="44" t="s">
-        <v>1105</v>
-      </c>
-      <c r="O121" s="44" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="122" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -14605,25 +15015,25 @@
         <v>11.11</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="H123" s="44" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I123" s="44" t="s">
+        <v>1105</v>
+      </c>
+      <c r="J123" s="44" t="s">
+        <v>1106</v>
+      </c>
+      <c r="K123" s="44" t="s">
         <v>1107</v>
       </c>
-      <c r="I123" s="44" t="s">
+      <c r="L123" s="44" t="s">
         <v>1108</v>
-      </c>
-      <c r="J123" s="44" t="s">
-        <v>1109</v>
-      </c>
-      <c r="K123" s="44" t="s">
-        <v>1110</v>
-      </c>
-      <c r="L123" s="44" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="124" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14631,41 +15041,41 @@
         <v>11.12</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="H124" s="44" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="125" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C125" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="D125" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>783</v>
-      </c>
       <c r="H125" s="44" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I125" s="43" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="J125" s="43" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="126" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C126" s="4" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="H126" s="44" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="127" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -14674,127 +15084,127 @@
         <v>11.13</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="H128" s="44" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="I128" s="44" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="129" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C129" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H129" s="44" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="I129" s="43" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="J129" s="44" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="K129" s="44" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="L129" s="43" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="M129" s="29" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="130" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C130" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="H130" s="44" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="I130" s="44" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="131" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C131" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="D131" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="D131" s="4" t="s">
-        <v>787</v>
-      </c>
       <c r="H131" s="44" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="I131" s="44" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="J131" s="44" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="132" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C132" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="H132" s="44" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="I132" s="44" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="133" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C133" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="H133" s="44" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="I133" s="44" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="134" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C134" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="H134" s="46" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I134" s="46" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J134" s="46" t="s">
+        <v>1128</v>
+      </c>
+      <c r="K134" s="46" t="s">
         <v>1129</v>
       </c>
-      <c r="I134" s="46" t="s">
+      <c r="L134" s="43" t="s">
         <v>1130</v>
       </c>
-      <c r="J134" s="46" t="s">
+      <c r="M134" s="46" t="s">
         <v>1131</v>
-      </c>
-      <c r="K134" s="46" t="s">
-        <v>1132</v>
-      </c>
-      <c r="L134" s="43" t="s">
-        <v>1133</v>
-      </c>
-      <c r="M134" s="46" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="135" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -14803,22 +15213,22 @@
         <v>11.14</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="137" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="138" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="139" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -14827,24 +15237,24 @@
         <v>11.15</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H140" s="44" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="141" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C141" s="4" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H141" s="44" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="142" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -14853,137 +15263,137 @@
         <v>11.16</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="144" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D144" s="4" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="145" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D145" s="4" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="146" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D146" s="4" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="147" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D147" s="4" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="148" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D148" s="4" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="149" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D149" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="150" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D150" s="4" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="151" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D151" s="4" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="152" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D152" s="4" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="153" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D153" s="4" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="154" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D154" s="4" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="155" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D155" s="4" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="156" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D156" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="157" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D157" s="4" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="158" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D158" s="4" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="159" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D159" s="4" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="160" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D160" s="4" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="161" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D161" s="4" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="162" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D162" s="4" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="163" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D163" s="4" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="164" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D164" s="4" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="165" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D165" s="4" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="166" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D166" s="4" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="167" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D167" s="4" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="168" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D168" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D169" s="4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="171" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14991,127 +15401,127 @@
         <v>11.17</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="172" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E172" s="4" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="173" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E173" s="4" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="174" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E174" s="4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="175" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E175" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="176" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E176" s="4" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="177" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E177" s="4" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="178" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E178" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="179" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E179" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="180" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E180" s="4" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="181" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E181" s="4" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="182" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E182" s="4" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="183" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E183" s="4" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="184" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E184" s="4" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="185" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E185" s="4" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="186" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E186" s="4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="187" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E187" s="4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="188" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E188" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="189" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E189" s="4" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="190" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E190" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="191" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E191" s="4" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="192" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E192" s="4" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="193" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E193" s="4" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="194" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E194" s="4" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="195" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E195" s="4" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="196" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15119,10 +15529,10 @@
         <v>11.18</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="197" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15141,7 +15551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -15161,10 +15571,10 @@
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -15175,19 +15585,19 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15195,58 +15605,58 @@
         <v>16.2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>856</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>854</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>856</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15255,7 +15665,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15264,10 +15674,10 @@
         <v>16.5</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15275,7 +15685,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15284,18 +15694,18 @@
         <v>16.7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15304,10 +15714,10 @@
         <v>16.8</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15315,10 +15725,10 @@
         <v>16.899999999999999</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15326,10 +15736,10 @@
         <v>16.899999999999999</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>865</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15337,7 +15747,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15345,7 +15755,7 @@
         <v>16.11</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15353,34 +15763,34 @@
         <v>16.12</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C26" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>872</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C28" s="4" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15389,26 +15799,26 @@
         <v>16.25</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C31" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C32" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15417,35 +15827,35 @@
         <v>16.27</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>879</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>882</v>
-      </c>
       <c r="G34" s="4" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C35" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>880</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>882</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15454,24 +15864,24 @@
         <v>13.4</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C39" s="4" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>

--- a/TS Jatai Working/prAtiSAkyam Rules.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -9702,10 +9702,10 @@
   <dimension ref="A2:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10295,10 +10295,10 @@
   <dimension ref="A2:Q104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11345,11 +11345,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L294"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D72" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C118" sqref="C118"/>
+      <selection pane="bottomRight" activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12866,10 +12866,10 @@
   <dimension ref="A2:G109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D65" sqref="D65"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13780,11 +13780,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C186" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C158" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E187" sqref="E187"/>
+      <selection pane="bottomRight" activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TS Jatai Working/prAtiSAkyam Rules.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="1143">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -1959,9 +1959,6 @@
   </si>
   <si>
     <t>arAn</t>
-  </si>
-  <si>
-    <t>posAn</t>
   </si>
   <si>
     <t>mahAn</t>
@@ -2718,9 +2715,6 @@
     </r>
   </si>
   <si>
-    <t>addhvara</t>
-  </si>
-  <si>
     <t>when a vowel follows 'r'</t>
   </si>
   <si>
@@ -3622,6 +3616,12 @@
   </si>
   <si>
     <t>4.43 But not when unaccented, under any circumstances.</t>
+  </si>
+  <si>
+    <t>addhvaraH</t>
+  </si>
+  <si>
+    <t>poShAn</t>
   </si>
 </sst>
 </file>
@@ -3822,7 +3822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3897,6 +3897,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4179,7 +4180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L192"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
@@ -4805,7 +4806,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
@@ -5768,7 +5769,7 @@
         <v>9</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
@@ -5787,7 +5788,7 @@
         <v>10</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
@@ -6188,7 +6189,7 @@
         <v>109</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E112" s="15" t="s">
         <v>110</v>
@@ -6698,7 +6699,7 @@
         <v>26</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
@@ -6735,7 +6736,7 @@
         <v>136</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E141" s="15" t="s">
         <v>137</v>
@@ -6789,7 +6790,7 @@
         <v>2</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="15"/>
@@ -7585,8 +7586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N218"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D152" sqref="D152"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7759,26 +7760,26 @@
       <c r="B14" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="48" t="s">
         <v>185</v>
       </c>
       <c r="E14" s="4">
         <v>4.9000000000000004</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>598</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8127,7 +8128,7 @@
         <v>28</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E43" s="4">
         <v>4.1100000000000003</v>
@@ -8175,7 +8176,7 @@
         <v>32</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E47" s="4">
         <v>4.1100000000000003</v>
@@ -8238,10 +8239,10 @@
         <v>4.12</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8315,7 +8316,7 @@
         <v>4.12</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>234</v>
@@ -8326,7 +8327,7 @@
         <v>4.12</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>234</v>
@@ -8359,7 +8360,7 @@
         <v>4.12</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>234</v>
@@ -8418,7 +8419,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>240</v>
@@ -8510,7 +8511,7 @@
         <v>4.17</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>243</v>
@@ -8532,8 +8533,8 @@
       <c r="B82" s="4">
         <v>4.1900000000000004</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>1141</v>
+      <c r="C82" s="32" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8696,7 +8697,7 @@
         <v>260</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="98" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8707,7 +8708,7 @@
         <v>4.25</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>266</v>
@@ -9122,7 +9123,7 @@
         <v>294</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="I126" s="4" t="s">
         <v>299</v>
@@ -9140,7 +9141,7 @@
         <v>294</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="I127" s="4" t="s">
         <v>300</v>
@@ -9158,10 +9159,10 @@
         <v>294</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="129" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9176,7 +9177,7 @@
         <v>294</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="I129" s="4" t="s">
         <v>301</v>
@@ -9194,7 +9195,7 @@
         <v>294</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="I130" s="4" t="s">
         <v>302</v>
@@ -9212,7 +9213,7 @@
         <v>294</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="I131" s="4" t="s">
         <v>303</v>
@@ -9230,7 +9231,7 @@
         <v>294</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="I132" s="4" t="s">
         <v>304</v>
@@ -9248,7 +9249,7 @@
         <v>294</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="I133" s="4" t="s">
         <v>305</v>
@@ -9256,7 +9257,7 @@
     </row>
     <row r="134" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E134" s="4" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="135" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9478,7 +9479,7 @@
     <row r="153" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="154" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B154" s="34" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C154" s="34"/>
       <c r="D154" s="34"/>
@@ -9701,8 +9702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
@@ -10022,7 +10023,7 @@
         <v>377</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>374</v>
@@ -10036,7 +10037,7 @@
         <v>378</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>374</v>
@@ -10050,7 +10051,7 @@
         <v>379</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>374</v>
@@ -10172,13 +10173,13 @@
         <v>277</v>
       </c>
       <c r="H33" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>1016</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>1017</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10192,7 +10193,7 @@
         <v>277</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10206,10 +10207,10 @@
         <v>277</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10223,7 +10224,7 @@
         <v>277</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10237,12 +10238,12 @@
         <v>277</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C38" s="4" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>397</v>
@@ -10251,7 +10252,7 @@
         <v>277</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10295,7 +10296,7 @@
   <dimension ref="A2:Q104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
@@ -10359,7 +10360,7 @@
         <v>367</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10373,7 +10374,7 @@
         <v>367</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10387,7 +10388,7 @@
         <v>367</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10401,7 +10402,7 @@
         <v>367</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10450,7 +10451,7 @@
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>353</v>
@@ -10459,7 +10460,7 @@
         <v>367</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10473,7 +10474,7 @@
         <v>367</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10487,7 +10488,7 @@
         <v>367</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10504,7 +10505,7 @@
         <v>414</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10512,7 +10513,7 @@
         <v>415</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10521,7 +10522,7 @@
         <v>6.4</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10869,7 +10870,7 @@
         <v>6.9</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E66" s="41"/>
     </row>
@@ -10907,7 +10908,7 @@
         <v>445</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10915,7 +10916,7 @@
         <v>446</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10923,7 +10924,7 @@
         <v>447</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10931,7 +10932,7 @@
         <v>442</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10939,7 +10940,7 @@
         <v>448</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10947,7 +10948,7 @@
         <v>449</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10955,7 +10956,7 @@
         <v>450</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10963,7 +10964,7 @@
         <v>451</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10971,7 +10972,7 @@
         <v>452</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="81" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10979,7 +10980,7 @@
         <v>453</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="82" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10987,7 +10988,7 @@
         <v>454</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="83" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10995,7 +10996,7 @@
         <v>455</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="84" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11003,7 +11004,7 @@
         <v>456</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="85" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11018,16 +11019,16 @@
         <v>411</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>481</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="87" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11038,13 +11039,13 @@
         <v>411</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="88" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11055,10 +11056,10 @@
         <v>411</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="89" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11069,31 +11070,31 @@
         <v>411</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="L89" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="M89" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="O89" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="M89" s="4" t="s">
-        <v>994</v>
-      </c>
-      <c r="N89" s="4" t="s">
+      <c r="P89" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="O89" s="4" t="s">
+      <c r="Q89" s="4" t="s">
         <v>997</v>
-      </c>
-      <c r="P89" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="Q89" s="4" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="90" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11104,25 +11105,25 @@
         <v>411</v>
       </c>
       <c r="F90" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="M90" s="4" t="s">
         <v>961</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>964</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>965</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>966</v>
-      </c>
-      <c r="K90" s="4" t="s">
-        <v>967</v>
-      </c>
-      <c r="L90" s="4" t="s">
-        <v>968</v>
-      </c>
-      <c r="M90" s="4" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11134,10 +11135,10 @@
         <v>411</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11149,28 +11150,28 @@
         <v>411</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C93" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
         <v>411</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11182,64 +11183,64 @@
         <v>411</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C95" s="4" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
         <v>411</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C96" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
         <v>411</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="I96" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="L96" s="4" t="s">
         <v>988</v>
       </c>
-      <c r="J96" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="K96" s="4" t="s">
+      <c r="M96" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="L96" s="4" t="s">
+      <c r="N96" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="M96" s="4" t="s">
-        <v>991</v>
-      </c>
-      <c r="N96" s="4" t="s">
-        <v>992</v>
-      </c>
       <c r="O96" s="4" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="97" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11251,10 +11252,10 @@
         <v>411</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="98" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11266,10 +11267,10 @@
         <v>411</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="99" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11281,10 +11282,10 @@
         <v>411</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="100" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11296,10 +11297,10 @@
         <v>411</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="101" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11311,10 +11312,10 @@
         <v>411</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="102" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11324,7 +11325,7 @@
     </row>
     <row r="103" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C103" s="25" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -11345,11 +11346,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D120" sqref="D120"/>
+      <selection pane="bottomRight" activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11390,7 +11391,7 @@
         <v>7.2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>277</v>
@@ -11401,7 +11402,7 @@
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>277</v>
@@ -11421,7 +11422,7 @@
         <v>399</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11435,7 +11436,7 @@
         <v>399</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11449,7 +11450,7 @@
         <v>399</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11463,13 +11464,13 @@
         <v>399</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11483,7 +11484,7 @@
         <v>399</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11508,7 +11509,7 @@
         <v>399</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11547,7 +11548,7 @@
         <v>492</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11603,10 +11604,10 @@
         <v>495</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11614,13 +11615,13 @@
         <v>496</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="H29" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>1011</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>1013</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>440</v>
@@ -11631,7 +11632,7 @@
         <v>497</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11669,10 +11670,10 @@
         <v>502</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11683,10 +11684,10 @@
         <v>503</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11701,10 +11702,10 @@
         <v>504</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11715,10 +11716,10 @@
         <v>506</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12028,7 +12029,7 @@
         <v>617</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>621</v>
@@ -12042,7 +12043,7 @@
         <v>618</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>621</v>
@@ -12056,7 +12057,7 @@
         <v>619</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>621</v>
@@ -12070,7 +12071,7 @@
         <v>620</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>621</v>
@@ -12091,7 +12092,7 @@
         <v>629</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12102,7 +12103,7 @@
         <v>629</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12113,7 +12114,7 @@
         <v>629</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="90" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12124,7 +12125,7 @@
         <v>629</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="91" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12135,7 +12136,7 @@
         <v>629</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="92" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12146,7 +12147,7 @@
         <v>629</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12155,7 +12156,7 @@
         <v>630</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12163,7 +12164,7 @@
         <v>631</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12171,7 +12172,7 @@
         <v>632</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12179,7 +12180,7 @@
         <v>633</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12187,7 +12188,7 @@
         <v>634</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12195,7 +12196,7 @@
         <v>635</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12203,7 +12204,7 @@
         <v>636</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12211,7 +12212,7 @@
         <v>637</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12219,23 +12220,23 @@
         <v>638</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C103" s="4" t="s">
-        <v>639</v>
+        <v>1142</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C104" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="105" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12244,24 +12245,24 @@
         <v>9.2200000000000006</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>277</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>539</v>
@@ -12270,119 +12271,119 @@
         <v>277</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B108" s="4" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>277</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>277</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>277</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B111" s="4" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>277</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C112" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>277</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="113" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>277</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="114" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>277</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="115" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>436</v>
@@ -12391,132 +12392,132 @@
         <v>277</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G115" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="I115" s="4" t="s">
         <v>937</v>
       </c>
-      <c r="H115" s="4" t="s">
+      <c r="J115" s="4" t="s">
         <v>938</v>
       </c>
-      <c r="I115" s="4" t="s">
+      <c r="K115" s="4" t="s">
         <v>939</v>
-      </c>
-      <c r="J115" s="4" t="s">
-        <v>940</v>
-      </c>
-      <c r="K115" s="4" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="116" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>277</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="117" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>277</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="118" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>277</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="119" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>277</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="120" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C120" s="5" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>277</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="121" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>277</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="122" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>277</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="123" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12525,79 +12526,79 @@
         <v>9.23</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>277</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="125" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C125" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>277</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="126" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C126" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>277</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="127" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C127" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>277</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="128" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C128" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>277</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="129" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C129" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>277</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="130" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C130" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>277</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="131" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12612,18 +12613,18 @@
         <v>277</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="133" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C133" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>277</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="134" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12643,7 +12644,7 @@
     </row>
     <row r="136" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E136" s="4" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>399</v>
@@ -12670,40 +12671,40 @@
         <v>13.5</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="140" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G140" s="4" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="141" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G141" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="142" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G142" s="4" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="143" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G143" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="144" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G144" s="4" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="145" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G145" s="4" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="146" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12866,10 +12867,10 @@
   <dimension ref="A2:G109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="L100" sqref="L100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13639,7 +13640,7 @@
     <row r="86" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="87" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C87" s="38" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13650,7 +13651,7 @@
         <v>602</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13658,7 +13659,7 @@
         <v>560</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13666,7 +13667,7 @@
         <v>603</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13674,7 +13675,7 @@
         <v>604</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13682,7 +13683,7 @@
         <v>541</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13722,7 +13723,7 @@
     </row>
     <row r="99" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="100" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A100" s="4">
+      <c r="A100" s="32">
         <v>9.16</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -13753,6 +13754,9 @@
       </c>
     </row>
     <row r="102" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A102" s="4">
+        <v>9.17</v>
+      </c>
       <c r="C102" s="4" t="s">
         <v>606</v>
       </c>
@@ -13781,10 +13785,10 @@
   <dimension ref="A2:P203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C158" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D163" sqref="D163"/>
+      <selection pane="bottomRight" activeCell="C131" sqref="C131:D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13804,7 +13808,7 @@
     </row>
     <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13813,10 +13817,10 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>343</v>
@@ -13825,7 +13829,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13833,10 +13837,10 @@
         <v>12.2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13844,10 +13848,10 @@
         <v>12.3</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>667</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>668</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>399</v>
@@ -13855,10 +13859,10 @@
     </row>
     <row r="8" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>399</v>
@@ -13866,10 +13870,10 @@
     </row>
     <row r="9" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>399</v>
@@ -13877,10 +13881,10 @@
     </row>
     <row r="10" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>399</v>
@@ -13892,46 +13896,46 @@
         <v>12.4</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C13" s="29" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C14" s="29" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C15" s="29" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -13940,10 +13944,10 @@
         <v>12.5</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>615</v>
@@ -13951,10 +13955,10 @@
     </row>
     <row r="18" spans="1:14" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C18" s="29" t="s">
+        <v>682</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>683</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>684</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>615</v>
@@ -13966,58 +13970,58 @@
         <v>12.6</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H20" s="44" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J20" s="44" t="s">
         <v>1048</v>
       </c>
-      <c r="I20" s="45" t="s">
+      <c r="K20" s="44" t="s">
         <v>1049</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="L20" s="44" t="s">
         <v>1050</v>
       </c>
-      <c r="K20" s="44" t="s">
+      <c r="M20" s="44" t="s">
         <v>1051</v>
       </c>
-      <c r="L20" s="44" t="s">
+      <c r="N20" s="44" t="s">
         <v>1052</v>
-      </c>
-      <c r="M20" s="44" t="s">
-        <v>1053</v>
-      </c>
-      <c r="N20" s="44" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D21" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D22" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D23" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="I23" s="44" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14025,10 +14029,10 @@
         <v>12.7</v>
       </c>
       <c r="C24" s="29" t="s">
+        <v>728</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>729</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>730</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>615</v>
@@ -14036,7 +14040,7 @@
     </row>
     <row r="25" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E25" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>615</v>
@@ -14044,7 +14048,7 @@
     </row>
     <row r="26" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E26" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>615</v>
@@ -14052,7 +14056,7 @@
     </row>
     <row r="27" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E27" s="4" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>615</v>
@@ -14060,7 +14064,7 @@
     </row>
     <row r="28" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E28" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G28" s="29" t="s">
         <v>615</v>
@@ -14068,7 +14072,7 @@
     </row>
     <row r="29" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E29" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>615</v>
@@ -14076,7 +14080,7 @@
     </row>
     <row r="30" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E30" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>615</v>
@@ -14084,7 +14088,7 @@
     </row>
     <row r="31" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E31" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>615</v>
@@ -14092,7 +14096,7 @@
     </row>
     <row r="32" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E32" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>615</v>
@@ -14100,7 +14104,7 @@
     </row>
     <row r="33" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E33" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>615</v>
@@ -14108,7 +14112,7 @@
     </row>
     <row r="34" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E34" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>615</v>
@@ -14116,7 +14120,7 @@
     </row>
     <row r="35" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E35" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G35" s="29" t="s">
         <v>615</v>
@@ -14124,7 +14128,7 @@
     </row>
     <row r="36" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E36" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>615</v>
@@ -14132,7 +14136,7 @@
     </row>
     <row r="37" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E37" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>615</v>
@@ -14140,7 +14144,7 @@
     </row>
     <row r="38" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E38" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G38" s="29" t="s">
         <v>615</v>
@@ -14148,7 +14152,7 @@
     </row>
     <row r="39" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E39" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>615</v>
@@ -14156,7 +14160,7 @@
     </row>
     <row r="40" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E40" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G40" s="29" t="s">
         <v>615</v>
@@ -14164,7 +14168,7 @@
     </row>
     <row r="41" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E41" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>615</v>
@@ -14172,7 +14176,7 @@
     </row>
     <row r="42" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E42" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>615</v>
@@ -14180,7 +14184,7 @@
     </row>
     <row r="43" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E43" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>615</v>
@@ -14188,7 +14192,7 @@
     </row>
     <row r="44" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E44" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>615</v>
@@ -14196,7 +14200,7 @@
     </row>
     <row r="45" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E45" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G45" s="29" t="s">
         <v>615</v>
@@ -14204,7 +14208,7 @@
     </row>
     <row r="46" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E46" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G46" s="29" t="s">
         <v>615</v>
@@ -14212,7 +14216,7 @@
     </row>
     <row r="47" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E47" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G47" s="29" t="s">
         <v>615</v>
@@ -14220,7 +14224,7 @@
     </row>
     <row r="48" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E48" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G48" s="29" t="s">
         <v>615</v>
@@ -14228,7 +14232,7 @@
     </row>
     <row r="49" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E49" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G49" s="29" t="s">
         <v>615</v>
@@ -14236,7 +14240,7 @@
     </row>
     <row r="50" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E50" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G50" s="29" t="s">
         <v>615</v>
@@ -14244,7 +14248,7 @@
     </row>
     <row r="51" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E51" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G51" s="29" t="s">
         <v>615</v>
@@ -14252,7 +14256,7 @@
     </row>
     <row r="52" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E52" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>615</v>
@@ -14260,7 +14264,7 @@
     </row>
     <row r="53" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E53" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G53" s="29" t="s">
         <v>615</v>
@@ -14271,7 +14275,7 @@
         <v>12.8</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>615</v>
@@ -14279,7 +14283,7 @@
     </row>
     <row r="55" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D55" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>615</v>
@@ -14287,7 +14291,7 @@
     </row>
     <row r="56" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D56" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G56" s="29" t="s">
         <v>615</v>
@@ -14295,7 +14299,7 @@
     </row>
     <row r="57" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D57" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G57" s="29" t="s">
         <v>615</v>
@@ -14303,7 +14307,7 @@
     </row>
     <row r="58" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D58" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G58" s="29" t="s">
         <v>615</v>
@@ -14311,7 +14315,7 @@
     </row>
     <row r="59" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D59" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>615</v>
@@ -14319,7 +14323,7 @@
     </row>
     <row r="60" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D60" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G60" s="29" t="s">
         <v>615</v>
@@ -14327,7 +14331,7 @@
     </row>
     <row r="61" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D61" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G61" s="29" t="s">
         <v>615</v>
@@ -14335,7 +14339,7 @@
     </row>
     <row r="62" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D62" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G62" s="29" t="s">
         <v>615</v>
@@ -14343,7 +14347,7 @@
     </row>
     <row r="63" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D63" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G63" s="29" t="s">
         <v>615</v>
@@ -14351,7 +14355,7 @@
     </row>
     <row r="64" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D64" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G64" s="29" t="s">
         <v>615</v>
@@ -14359,7 +14363,7 @@
     </row>
     <row r="65" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D65" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G65" s="29" t="s">
         <v>615</v>
@@ -14367,7 +14371,7 @@
     </row>
     <row r="66" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D66" s="4" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="G66" s="29" t="s">
         <v>615</v>
@@ -14375,7 +14379,7 @@
     </row>
     <row r="67" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D67" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G67" s="29" t="s">
         <v>615</v>
@@ -14384,7 +14388,7 @@
     <row r="68" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B69" s="30"/>
       <c r="C69" s="30">
@@ -14397,18 +14401,18 @@
         <v>11.3</v>
       </c>
       <c r="C71" s="29" t="s">
+        <v>731</v>
+      </c>
+      <c r="F71" s="29" t="s">
         <v>732</v>
       </c>
-      <c r="F71" s="29" t="s">
-        <v>733</v>
-      </c>
       <c r="H71" s="29" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C72" s="29" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F72" s="29" t="s">
         <v>303</v>
@@ -14422,55 +14426,55 @@
     </row>
     <row r="73" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C73" s="29" t="s">
+        <v>733</v>
+      </c>
+      <c r="F73" s="29" t="s">
         <v>734</v>
-      </c>
-      <c r="F73" s="29" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C74" s="29" t="s">
+        <v>735</v>
+      </c>
+      <c r="F74" s="29" t="s">
         <v>736</v>
       </c>
-      <c r="F74" s="29" t="s">
-        <v>737</v>
-      </c>
       <c r="H74" s="42" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I74" s="42" t="s">
+        <v>930</v>
+      </c>
+      <c r="J74" s="42" t="s">
+        <v>1043</v>
+      </c>
+      <c r="K74" s="42" t="s">
         <v>1044</v>
-      </c>
-      <c r="I74" s="42" t="s">
-        <v>932</v>
-      </c>
-      <c r="J74" s="42" t="s">
-        <v>1045</v>
-      </c>
-      <c r="K74" s="42" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C75" s="29" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H75" s="42" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I75" s="44" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J75" s="42" t="s">
         <v>1034</v>
-      </c>
-      <c r="I75" s="44" t="s">
-        <v>1035</v>
-      </c>
-      <c r="J75" s="42" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C76" s="29" t="s">
+        <v>738</v>
+      </c>
+      <c r="F76" s="29" t="s">
         <v>739</v>
-      </c>
-      <c r="F76" s="29" t="s">
-        <v>740</v>
       </c>
       <c r="H76" s="29">
         <v>5.0999999999999996</v>
@@ -14478,98 +14482,98 @@
     </row>
     <row r="77" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C77" s="29" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F77" s="29" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H77" s="42" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C78" s="29" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H78" s="44" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C79" s="29" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H79" s="44" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I79" s="42" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J79" s="43" t="s">
         <v>1040</v>
       </c>
-      <c r="I79" s="42" t="s">
+      <c r="K79" s="43" t="s">
         <v>1041</v>
-      </c>
-      <c r="J79" s="43" t="s">
-        <v>1042</v>
-      </c>
-      <c r="K79" s="43" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C80" s="29" t="s">
+        <v>743</v>
+      </c>
+      <c r="F80" s="29" t="s">
         <v>744</v>
-      </c>
-      <c r="F80" s="29" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C81" s="29" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C82" s="29" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I82" s="29" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C83" s="29" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H83" s="29" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C84" s="29" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C85" s="29" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -14578,32 +14582,32 @@
         <v>11.4</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E88" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E89" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E90" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E91" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E92" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14611,97 +14615,97 @@
         <v>11.5</v>
       </c>
       <c r="C93" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>757</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>758</v>
       </c>
       <c r="G93" s="29" t="s">
         <v>399</v>
       </c>
       <c r="H93" s="45" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="C94" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H94" s="45" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C95" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G95" s="29" t="s">
         <v>399</v>
       </c>
       <c r="H95" s="45" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="96" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C96" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G96" s="29" t="s">
         <v>399</v>
       </c>
       <c r="H96" s="45" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="97" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C97" s="6" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C98" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G98" s="29" t="s">
         <v>399</v>
       </c>
       <c r="H98" s="45" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C99" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G99" s="29" t="s">
         <v>399</v>
       </c>
       <c r="H99" s="45" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I99" s="45" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J99" s="45" t="s">
         <v>1060</v>
-      </c>
-      <c r="I99" s="45" t="s">
-        <v>1061</v>
-      </c>
-      <c r="J99" s="45" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="100" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -14710,30 +14714,30 @@
         <v>11.6</v>
       </c>
       <c r="C101" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="D101" s="4" t="s">
         <v>763</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>764</v>
       </c>
       <c r="G101" s="29" t="s">
         <v>399</v>
       </c>
       <c r="H101" s="45" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C102" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G102" s="29" t="s">
         <v>399</v>
       </c>
       <c r="H102" s="45" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -14742,30 +14746,30 @@
         <v>11.7</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G104" s="29" t="s">
         <v>399</v>
       </c>
       <c r="H104" s="45" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C105" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>765</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>766</v>
       </c>
       <c r="G105" s="29" t="s">
         <v>399</v>
       </c>
       <c r="H105" s="45" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14780,7 +14784,7 @@
         <v>263</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="108" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14788,22 +14792,22 @@
         <v>263</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G108" s="29" t="s">
         <v>399</v>
       </c>
       <c r="H108" s="45" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I108" s="45" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J108" s="45" t="s">
         <v>1065</v>
       </c>
-      <c r="I108" s="45" t="s">
+      <c r="K108" s="45" t="s">
         <v>1066</v>
-      </c>
-      <c r="J108" s="45" t="s">
-        <v>1067</v>
-      </c>
-      <c r="K108" s="45" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="109" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14811,13 +14815,13 @@
         <v>263</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G109" s="29" t="s">
         <v>399</v>
       </c>
       <c r="H109" s="45" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="110" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -14826,16 +14830,16 @@
         <v>11.9</v>
       </c>
       <c r="C111" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="D111" s="4" t="s">
         <v>770</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>771</v>
       </c>
       <c r="G111" s="29" t="s">
         <v>399</v>
       </c>
       <c r="H111" s="45" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="112" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14843,7 +14847,7 @@
         <v>378</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="113" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14851,13 +14855,13 @@
         <v>502</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G113" s="29" t="s">
         <v>399</v>
       </c>
       <c r="H113" s="45" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="114" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14873,140 +14877,152 @@
         <v>11.1</v>
       </c>
       <c r="C116" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>772</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>773</v>
+      <c r="G116" s="29" t="s">
+        <v>399</v>
       </c>
       <c r="H116" s="44" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="I116" s="44" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J116" s="44" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K116" s="44" t="s">
         <v>1072</v>
       </c>
-      <c r="J116" s="44" t="s">
+      <c r="L116" s="44" t="s">
         <v>1073</v>
-      </c>
-      <c r="K116" s="44" t="s">
-        <v>1074</v>
-      </c>
-      <c r="L116" s="44" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="117" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C117" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
+      </c>
+      <c r="G117" s="29" t="s">
+        <v>399</v>
       </c>
       <c r="H117" s="44" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="I117" s="44" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="118" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C118" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
+      </c>
+      <c r="G118" s="29" t="s">
+        <v>399</v>
       </c>
       <c r="H118" s="44" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="119" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C119" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
+      </c>
+      <c r="G119" s="29" t="s">
+        <v>399</v>
       </c>
       <c r="H119" s="44" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I119" s="44" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J119" s="44" t="s">
         <v>1080</v>
       </c>
-      <c r="I119" s="44" t="s">
+      <c r="K119" s="44" t="s">
         <v>1081</v>
       </c>
-      <c r="J119" s="44" t="s">
+      <c r="L119" s="44" t="s">
         <v>1082</v>
       </c>
-      <c r="K119" s="44" t="s">
+      <c r="M119" s="44" t="s">
         <v>1083</v>
       </c>
-      <c r="L119" s="44" t="s">
+      <c r="N119" s="44" t="s">
         <v>1084</v>
       </c>
-      <c r="M119" s="44" t="s">
+      <c r="O119" s="44" t="s">
         <v>1085</v>
       </c>
-      <c r="N119" s="44" t="s">
+      <c r="P119" s="44" t="s">
         <v>1086</v>
-      </c>
-      <c r="O119" s="44" t="s">
-        <v>1087</v>
-      </c>
-      <c r="P119" s="44" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="120" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="H120" s="44" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="I120" s="44" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J120" s="44" t="s">
+        <v>1088</v>
+      </c>
+      <c r="K120" s="44" t="s">
         <v>1089</v>
       </c>
-      <c r="J120" s="44" t="s">
+      <c r="L120" s="44" t="s">
         <v>1090</v>
       </c>
-      <c r="K120" s="44" t="s">
+      <c r="M120" s="44" t="s">
+        <v>962</v>
+      </c>
+      <c r="N120" s="44" t="s">
         <v>1091</v>
       </c>
-      <c r="L120" s="44" t="s">
+      <c r="O120" s="44" t="s">
         <v>1092</v>
       </c>
-      <c r="M120" s="44" t="s">
-        <v>964</v>
-      </c>
-      <c r="N120" s="44" t="s">
+      <c r="P120" s="44" t="s">
         <v>1093</v>
-      </c>
-      <c r="O120" s="44" t="s">
-        <v>1094</v>
-      </c>
-      <c r="P120" s="44" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="121" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="H121" s="44" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I121" s="44" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J121" s="44" t="s">
         <v>1096</v>
       </c>
-      <c r="I121" s="44" t="s">
+      <c r="K121" s="44" t="s">
         <v>1097</v>
       </c>
-      <c r="J121" s="44" t="s">
+      <c r="L121" s="44" t="s">
         <v>1098</v>
       </c>
-      <c r="K121" s="44" t="s">
+      <c r="M121" s="44" t="s">
         <v>1099</v>
       </c>
-      <c r="L121" s="44" t="s">
+      <c r="N121" s="44" t="s">
         <v>1100</v>
       </c>
-      <c r="M121" s="44" t="s">
+      <c r="O121" s="44" t="s">
         <v>1101</v>
-      </c>
-      <c r="N121" s="44" t="s">
-        <v>1102</v>
-      </c>
-      <c r="O121" s="44" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="122" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -15015,25 +15031,25 @@
         <v>11.11</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H123" s="44" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I123" s="44" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J123" s="44" t="s">
         <v>1104</v>
       </c>
-      <c r="I123" s="44" t="s">
+      <c r="K123" s="44" t="s">
         <v>1105</v>
       </c>
-      <c r="J123" s="44" t="s">
+      <c r="L123" s="44" t="s">
         <v>1106</v>
-      </c>
-      <c r="K123" s="44" t="s">
-        <v>1107</v>
-      </c>
-      <c r="L123" s="44" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="124" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15041,41 +15057,41 @@
         <v>11.12</v>
       </c>
       <c r="C124" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="D124" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="D124" s="4" t="s">
-        <v>778</v>
-      </c>
       <c r="H124" s="44" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="125" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C125" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H125" s="44" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I125" s="43" t="s">
+        <v>1108</v>
+      </c>
+      <c r="J125" s="43" t="s">
         <v>1109</v>
-      </c>
-      <c r="I125" s="43" t="s">
-        <v>1110</v>
-      </c>
-      <c r="J125" s="43" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="126" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C126" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H126" s="44" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="127" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -15084,127 +15100,127 @@
         <v>11.13</v>
       </c>
       <c r="C128" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="D128" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="D128" s="4" t="s">
-        <v>782</v>
-      </c>
       <c r="H128" s="44" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="I128" s="44" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="129" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C129" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>416</v>
       </c>
       <c r="H129" s="44" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I129" s="43" t="s">
+        <v>925</v>
+      </c>
+      <c r="J129" s="44" t="s">
+        <v>951</v>
+      </c>
+      <c r="K129" s="44" t="s">
+        <v>1115</v>
+      </c>
+      <c r="L129" s="43" t="s">
         <v>1116</v>
       </c>
-      <c r="I129" s="43" t="s">
-        <v>927</v>
-      </c>
-      <c r="J129" s="44" t="s">
-        <v>953</v>
-      </c>
-      <c r="K129" s="44" t="s">
-        <v>1117</v>
-      </c>
-      <c r="L129" s="43" t="s">
-        <v>1118</v>
-      </c>
       <c r="M129" s="29" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="130" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C130" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D130" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="H130" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I130" s="44" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C131" s="32" t="s">
+        <v>780</v>
+      </c>
+      <c r="D131" s="32" t="s">
         <v>783</v>
       </c>
-      <c r="H130" s="44" t="s">
+      <c r="H131" s="44" t="s">
         <v>1119</v>
       </c>
-      <c r="I130" s="44" t="s">
+      <c r="I131" s="44" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C131" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="H131" s="44" t="s">
+      <c r="J131" s="44" t="s">
         <v>1121</v>
-      </c>
-      <c r="I131" s="44" t="s">
-        <v>1122</v>
-      </c>
-      <c r="J131" s="44" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="132" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C132" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H132" s="44" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="I132" s="44" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="133" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C133" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H133" s="44" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="I133" s="44" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="134" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C134" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H134" s="46" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I134" s="46" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J134" s="46" t="s">
         <v>1126</v>
       </c>
-      <c r="I134" s="46" t="s">
+      <c r="K134" s="46" t="s">
         <v>1127</v>
       </c>
-      <c r="J134" s="46" t="s">
+      <c r="L134" s="43" t="s">
         <v>1128</v>
       </c>
-      <c r="K134" s="46" t="s">
+      <c r="M134" s="46" t="s">
         <v>1129</v>
-      </c>
-      <c r="L134" s="43" t="s">
-        <v>1130</v>
-      </c>
-      <c r="M134" s="46" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="135" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -15216,19 +15232,19 @@
         <v>300</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="137" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="138" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="139" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -15237,24 +15253,24 @@
         <v>11.15</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>416</v>
       </c>
       <c r="H140" s="44" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="141" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C141" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>416</v>
       </c>
       <c r="H141" s="44" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="142" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -15263,137 +15279,137 @@
         <v>11.16</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="144" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D144" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="145" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D145" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="146" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D146" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="147" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D147" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="148" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D148" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="149" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D149" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="150" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D150" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="151" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D151" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="152" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D152" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="153" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D153" s="4" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="154" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D154" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="155" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D155" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="156" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D156" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="157" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="D157" s="4" t="s">
-        <v>1134</v>
+      <c r="D157" s="32" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="158" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D158" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="159" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D159" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="160" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D160" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="161" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D161" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="162" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D162" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D163" s="32" t="s">
         <v>808</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="D163" s="4" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="164" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D164" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="165" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D165" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="166" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D166" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="167" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D167" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="168" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D168" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D169" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="171" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15401,127 +15417,127 @@
         <v>11.17</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="172" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E172" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="173" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E173" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="174" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E174" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="175" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E175" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="176" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E176" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="177" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E177" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="178" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E178" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="179" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E179" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="180" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E180" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="181" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E181" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="182" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E182" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="183" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E183" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="184" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E184" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="185" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E185" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="186" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E186" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="187" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E187" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="188" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E188" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="189" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E189" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="190" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E190" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="191" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E191" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="192" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E192" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="193" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E193" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="194" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E194" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="195" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E195" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="196" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15529,10 +15545,10 @@
         <v>11.18</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>841</v>
+        <v>1141</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="197" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15571,10 +15587,10 @@
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -15585,19 +15601,19 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>343</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15605,58 +15621,58 @@
         <v>16.2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>853</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>852</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15665,7 +15681,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15674,10 +15690,10 @@
         <v>16.5</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15685,7 +15701,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15694,18 +15710,18 @@
         <v>16.7</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>859</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15714,10 +15730,10 @@
         <v>16.8</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15725,10 +15741,10 @@
         <v>16.899999999999999</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>862</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15736,10 +15752,10 @@
         <v>16.899999999999999</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15747,7 +15763,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15755,7 +15771,7 @@
         <v>16.11</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15763,34 +15779,34 @@
         <v>16.12</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C26" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>870</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C28" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15799,18 +15815,18 @@
         <v>16.25</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>873</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C31" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15818,7 +15834,7 @@
         <v>489</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15827,35 +15843,35 @@
         <v>16.27</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C35" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>879</v>
-      </c>
       <c r="G35" s="4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>878</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>879</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15867,21 +15883,21 @@
         <v>351</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C39" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>881</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>882</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>

--- a/TS Jatai Working/prAtiSAkyam Rules.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Avagraha" sheetId="7" r:id="rId7"/>
     <sheet name="Special Anuswaram" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4180,8 +4180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L192"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7586,8 +7586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N218"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="B122" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9703,7 +9703,7 @@
   <dimension ref="A2:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
@@ -10296,7 +10296,7 @@
   <dimension ref="A2:Q104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
@@ -11347,10 +11347,10 @@
   <dimension ref="A3:L294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D131" sqref="D131"/>
+      <selection pane="bottomRight" activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12867,10 +12867,10 @@
   <dimension ref="A2:G109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L100" sqref="L100"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13785,10 +13785,10 @@
   <dimension ref="A2:P203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C131" sqref="C131:D131"/>
+      <selection pane="bottomRight" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TS Jatai Working/prAtiSAkyam Rules.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -9702,11 +9702,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10295,11 +10295,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11347,7 +11347,7 @@
   <dimension ref="A3:L294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="M68" sqref="M68"/>

--- a/TS Jatai Working/prAtiSAkyam Rules.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="1188">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -3330,9 +3330,6 @@
     <t>6.1.7.2</t>
   </si>
   <si>
-    <t>3.2?</t>
-  </si>
-  <si>
     <t>1.5.10.1</t>
   </si>
   <si>
@@ -3622,13 +3619,151 @@
   </si>
   <si>
     <t>poShAn</t>
+  </si>
+  <si>
+    <t>1.1.14</t>
+  </si>
+  <si>
+    <t>1.2.14</t>
+  </si>
+  <si>
+    <t>1.3.14</t>
+  </si>
+  <si>
+    <t>1.4.46</t>
+  </si>
+  <si>
+    <t>1.5.11</t>
+  </si>
+  <si>
+    <t>1.6.12</t>
+  </si>
+  <si>
+    <t>1.7.7</t>
+  </si>
+  <si>
+    <t>1.7.8</t>
+  </si>
+  <si>
+    <t>1.7.9</t>
+  </si>
+  <si>
+    <t>1.7.10</t>
+  </si>
+  <si>
+    <t>1.7.11</t>
+  </si>
+  <si>
+    <t>1.7.12</t>
+  </si>
+  <si>
+    <t>1.7.13</t>
+  </si>
+  <si>
+    <t>1.8.22</t>
+  </si>
+  <si>
+    <t>2.1.11</t>
+  </si>
+  <si>
+    <t>2.2.12</t>
+  </si>
+  <si>
+    <t>2.3.14</t>
+  </si>
+  <si>
+    <t>2.4.14</t>
+  </si>
+  <si>
+    <t>2.5.12</t>
+  </si>
+  <si>
+    <t>2.6.11</t>
+  </si>
+  <si>
+    <t>2.6.12</t>
+  </si>
+  <si>
+    <t>3.1.11</t>
+  </si>
+  <si>
+    <t>3.2.11</t>
+  </si>
+  <si>
+    <t>3.3.11</t>
+  </si>
+  <si>
+    <t>3.4.11</t>
+  </si>
+  <si>
+    <t>3.5.11</t>
+  </si>
+  <si>
+    <t>4.1.11</t>
+  </si>
+  <si>
+    <t>4.2.11</t>
+  </si>
+  <si>
+    <t>4.3.13</t>
+  </si>
+  <si>
+    <t>5.6.1</t>
+  </si>
+  <si>
+    <t>4.6.1</t>
+  </si>
+  <si>
+    <t>4.6.2</t>
+  </si>
+  <si>
+    <t>4.6.3</t>
+  </si>
+  <si>
+    <t>4.6.4</t>
+  </si>
+  <si>
+    <t>4.6.5</t>
+  </si>
+  <si>
+    <t>4.7.12</t>
+  </si>
+  <si>
+    <t>4.7.13</t>
+  </si>
+  <si>
+    <t>4.7.15</t>
+  </si>
+  <si>
+    <t>4.4.12</t>
+  </si>
+  <si>
+    <t>4.4.13</t>
+  </si>
+  <si>
+    <t>4.4.14</t>
+  </si>
+  <si>
+    <t>4.5.1</t>
+  </si>
+  <si>
+    <t>4.5.2</t>
+  </si>
+  <si>
+    <t>4.5.3</t>
+  </si>
+  <si>
+    <t>4.5.4</t>
+  </si>
+  <si>
+    <t>4.5.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3744,6 +3879,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -3822,7 +3962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3898,6 +4038,7 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7767,19 +7908,19 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="K14" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>1133</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>1134</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>598</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8242,7 +8383,7 @@
         <v>916</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8534,7 +8675,7 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9123,7 +9264,7 @@
         <v>294</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="I126" s="4" t="s">
         <v>299</v>
@@ -9141,7 +9282,7 @@
         <v>294</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="I127" s="4" t="s">
         <v>300</v>
@@ -9159,7 +9300,7 @@
         <v>294</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="I128" s="4" t="s">
         <v>903</v>
@@ -9177,7 +9318,7 @@
         <v>294</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="I129" s="4" t="s">
         <v>301</v>
@@ -9195,7 +9336,7 @@
         <v>294</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="I130" s="4" t="s">
         <v>302</v>
@@ -9213,7 +9354,7 @@
         <v>294</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="I131" s="4" t="s">
         <v>303</v>
@@ -9231,7 +9372,7 @@
         <v>294</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="I132" s="4" t="s">
         <v>304</v>
@@ -9249,7 +9390,7 @@
         <v>294</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="I133" s="4" t="s">
         <v>305</v>
@@ -9257,7 +9398,7 @@
     </row>
     <row r="134" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E134" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="135" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10295,7 +10436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -12225,7 +12366,7 @@
     </row>
     <row r="103" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C103" s="4" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>841</v>
@@ -13782,13 +13923,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P203"/>
+  <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C164" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="E69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D64" sqref="D64"/>
+      <selection pane="bottomRight" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13976,25 +14117,25 @@
         <v>684</v>
       </c>
       <c r="H20" s="44" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I20" s="45" t="s">
         <v>1046</v>
       </c>
-      <c r="I20" s="45" t="s">
+      <c r="J20" s="44" t="s">
         <v>1047</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="K20" s="44" t="s">
         <v>1048</v>
       </c>
-      <c r="K20" s="44" t="s">
+      <c r="L20" s="44" t="s">
         <v>1049</v>
       </c>
-      <c r="L20" s="44" t="s">
+      <c r="M20" s="44" t="s">
         <v>1050</v>
       </c>
-      <c r="M20" s="44" t="s">
+      <c r="N20" s="44" t="s">
         <v>1051</v>
-      </c>
-      <c r="N20" s="44" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14002,7 +14143,7 @@
         <v>685</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14010,7 +14151,7 @@
         <v>686</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14018,10 +14159,10 @@
         <v>687</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I23" s="44" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14361,7 +14502,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D65" s="4" t="s">
         <v>726</v>
       </c>
@@ -14369,7 +14510,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D66" s="4" t="s">
         <v>923</v>
       </c>
@@ -14377,7 +14518,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D67" s="4" t="s">
         <v>727</v>
       </c>
@@ -14385,8 +14526,8 @@
         <v>615</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
         <v>730</v>
       </c>
@@ -14395,8 +14536,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="29">
         <v>11.3</v>
       </c>
@@ -14410,7 +14551,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C72" s="29" t="s">
         <v>731</v>
       </c>
@@ -14424,15 +14565,33 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C73" s="29" t="s">
         <v>733</v>
       </c>
       <c r="F73" s="29" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H73" s="29" t="s">
+        <v>1148</v>
+      </c>
+      <c r="I73" s="29" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J73" s="29" t="s">
+        <v>1150</v>
+      </c>
+      <c r="K73" s="29" t="s">
+        <v>1151</v>
+      </c>
+      <c r="L73" s="29" t="s">
+        <v>1152</v>
+      </c>
+      <c r="M73" s="29" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C74" s="29" t="s">
         <v>735</v>
       </c>
@@ -14452,7 +14611,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C75" s="29" t="s">
         <v>735</v>
       </c>
@@ -14469,18 +14628,21 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C76" s="29" t="s">
         <v>738</v>
       </c>
       <c r="F76" s="29" t="s">
         <v>739</v>
       </c>
-      <c r="H76" s="29">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H76" s="49">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I76" s="29">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C77" s="29" t="s">
         <v>735</v>
       </c>
@@ -14491,7 +14653,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C78" s="29" t="s">
         <v>735</v>
       </c>
@@ -14502,7 +14664,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C79" s="29" t="s">
         <v>735</v>
       </c>
@@ -14522,7 +14684,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C80" s="29" t="s">
         <v>743</v>
       </c>
@@ -14530,26 +14692,50 @@
         <v>744</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C81" s="29" t="s">
         <v>733</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H81" s="29" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I81" s="29" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J81" s="29" t="s">
+        <v>1174</v>
+      </c>
+      <c r="K81" s="29" t="s">
+        <v>1175</v>
+      </c>
+      <c r="L81" s="29" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C82" s="29" t="s">
         <v>733</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>748</v>
       </c>
+      <c r="H82" s="29" t="s">
+        <v>1177</v>
+      </c>
       <c r="I82" s="29" t="s">
+        <v>1178</v>
+      </c>
+      <c r="J82" s="29" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K82" s="30" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C83" s="29" t="s">
         <v>733</v>
       </c>
@@ -14557,104 +14743,188 @@
         <v>746</v>
       </c>
       <c r="H83" s="29" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C84" s="29" t="s">
         <v>733</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C85" s="29" t="s">
+      <c r="H84" s="29" t="s">
+        <v>1142</v>
+      </c>
+      <c r="I84" s="29" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J84" s="29" t="s">
+        <v>1144</v>
+      </c>
+      <c r="K84" s="29" t="s">
+        <v>1145</v>
+      </c>
+      <c r="L84" s="29" t="s">
+        <v>1146</v>
+      </c>
+      <c r="M84" s="29" t="s">
+        <v>1147</v>
+      </c>
+      <c r="N84" s="29" t="s">
+        <v>1154</v>
+      </c>
+      <c r="O84" s="29" t="s">
+        <v>1155</v>
+      </c>
+      <c r="P84" s="29" t="s">
+        <v>1156</v>
+      </c>
+      <c r="Q84" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="R84" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="S84" s="29" t="s">
+        <v>1159</v>
+      </c>
+      <c r="T84" s="29" t="s">
+        <v>1160</v>
+      </c>
+      <c r="U84" s="29" t="s">
+        <v>1161</v>
+      </c>
+      <c r="V84" s="29" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="F85" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="H85" s="29" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I85" s="29" t="s">
+        <v>1164</v>
+      </c>
+      <c r="J85" s="29" t="s">
+        <v>1165</v>
+      </c>
+      <c r="K85" s="29" t="s">
+        <v>1166</v>
+      </c>
+      <c r="L85" s="29" t="s">
+        <v>1167</v>
+      </c>
+      <c r="M85" s="29" t="s">
+        <v>1168</v>
+      </c>
+      <c r="N85" s="29" t="s">
+        <v>1169</v>
+      </c>
+      <c r="O85" s="29" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C86" s="29" t="s">
         <v>733</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F86" s="4" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A87" s="29">
+      <c r="H86" s="29" t="s">
+        <v>1180</v>
+      </c>
+      <c r="I86" s="29" t="s">
+        <v>1181</v>
+      </c>
+      <c r="J86" s="29" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K86" s="29" t="s">
+        <v>1183</v>
+      </c>
+      <c r="L86" s="29" t="s">
+        <v>1184</v>
+      </c>
+      <c r="M86" s="29" t="s">
+        <v>1185</v>
+      </c>
+      <c r="N86" s="29" t="s">
+        <v>1186</v>
+      </c>
+      <c r="O86" s="29" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A88" s="29">
         <v>11.4</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E88" s="4" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E88" s="4" t="s">
+    <row r="89" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E89" s="4" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E89" s="4" t="s">
+    <row r="90" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E90" s="4" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E90" s="4" t="s">
+    <row r="91" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E91" s="4" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E91" s="4" t="s">
+    <row r="92" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E92" s="4" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E92" s="4" t="s">
+    <row r="93" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E93" s="4" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A93" s="29">
+    <row r="94" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A94" s="29">
         <v>11.5</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C94" s="4" t="s">
         <v>756</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="G93" s="29" t="s">
-        <v>399</v>
-      </c>
-      <c r="H93" s="45" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="C94" s="4" t="s">
-        <v>761</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>757</v>
       </c>
+      <c r="G94" s="29" t="s">
+        <v>399</v>
+      </c>
       <c r="H94" s="45" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="C95" s="4" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="G95" s="29" t="s">
-        <v>399</v>
-      </c>
       <c r="H95" s="45" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C96" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>757</v>
@@ -14663,34 +14933,34 @@
         <v>399</v>
       </c>
       <c r="H96" s="45" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="97" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="G97" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="H97" s="45" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C98" s="6" t="s">
         <v>906</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D98" s="6" t="s">
         <v>757</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C98" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="G98" s="29" t="s">
-        <v>399</v>
-      </c>
-      <c r="H98" s="45" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C99" s="4" t="s">
-        <v>907</v>
+        <v>760</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>757</v>
@@ -14699,115 +14969,106 @@
         <v>399</v>
       </c>
       <c r="H99" s="45" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C100" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="G100" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="H100" s="45" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I100" s="45" t="s">
         <v>1058</v>
       </c>
-      <c r="I99" s="45" t="s">
+      <c r="J100" s="45" t="s">
         <v>1059</v>
       </c>
-      <c r="J99" s="45" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A101" s="29">
+    </row>
+    <row r="101" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A102" s="29">
         <v>11.6</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="G101" s="29" t="s">
-        <v>399</v>
-      </c>
-      <c r="H101" s="45" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C102" s="4" t="s">
         <v>762</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G102" s="29" t="s">
         <v>399</v>
       </c>
       <c r="H102" s="45" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A104" s="29">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C103" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="G103" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="H103" s="45" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A105" s="29">
         <v>11.7</v>
       </c>
-      <c r="C104" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="G104" s="29" t="s">
-        <v>399</v>
-      </c>
-      <c r="H104" s="45" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C105" s="4" t="s">
         <v>764</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="G105" s="29" t="s">
         <v>399</v>
       </c>
       <c r="H105" s="45" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
+      <c r="C106" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="G106" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="H106" s="45" t="s">
+        <v>1061</v>
+      </c>
     </row>
     <row r="107" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A107" s="29">
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A108" s="29">
         <v>11.8</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C108" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D108" s="6" t="s">
         <v>766</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C108" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="G108" s="29" t="s">
-        <v>399</v>
-      </c>
-      <c r="H108" s="45" t="s">
-        <v>1063</v>
-      </c>
-      <c r="I108" s="45" t="s">
-        <v>1064</v>
-      </c>
-      <c r="J108" s="45" t="s">
-        <v>1065</v>
-      </c>
-      <c r="K108" s="45" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="109" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14815,107 +15076,113 @@
         <v>263</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G109" s="29" t="s">
         <v>399</v>
       </c>
       <c r="H109" s="45" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A111" s="29">
+        <v>1062</v>
+      </c>
+      <c r="I109" s="45" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J109" s="45" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K109" s="45" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C110" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="G110" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="H110" s="45" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A112" s="29">
         <v>11.9</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C112" s="4" t="s">
         <v>769</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="G111" s="29" t="s">
-        <v>399</v>
-      </c>
-      <c r="H111" s="45" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C112" s="4" t="s">
-        <v>378</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>770</v>
       </c>
+      <c r="G112" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="H112" s="45" t="s">
+        <v>1068</v>
+      </c>
     </row>
     <row r="113" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C113" s="3" t="s">
-        <v>502</v>
+      <c r="C113" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="G113" s="29" t="s">
+    </row>
+    <row r="114" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C114" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="G114" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="H113" s="45" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
+      <c r="H114" s="45" t="s">
+        <v>1067</v>
+      </c>
     </row>
     <row r="115" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:16" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A116" s="31">
+    <row r="116" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="1:16" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A117" s="31">
         <v>11.1</v>
       </c>
-      <c r="C116" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="G116" s="29" t="s">
-        <v>399</v>
-      </c>
-      <c r="H116" s="44" t="s">
-        <v>1074</v>
-      </c>
-      <c r="I116" s="44" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J116" s="44" t="s">
-        <v>1071</v>
-      </c>
-      <c r="K116" s="44" t="s">
-        <v>1072</v>
-      </c>
-      <c r="L116" s="44" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C117" s="4" t="s">
         <v>771</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G117" s="29" t="s">
         <v>399</v>
       </c>
       <c r="H117" s="44" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="I117" s="44" t="s">
-        <v>1076</v>
+        <v>1069</v>
+      </c>
+      <c r="J117" s="44" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K117" s="44" t="s">
+        <v>1071</v>
+      </c>
+      <c r="L117" s="44" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="118" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14923,13 +15190,16 @@
         <v>771</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G118" s="29" t="s">
         <v>399</v>
       </c>
       <c r="H118" s="44" t="s">
-        <v>1077</v>
+        <v>1074</v>
+      </c>
+      <c r="I118" s="44" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="119" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14937,149 +15207,146 @@
         <v>771</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G119" s="29" t="s">
         <v>399</v>
       </c>
       <c r="H119" s="44" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C120" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="G120" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="H120" s="44" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I120" s="44" t="s">
         <v>1078</v>
       </c>
-      <c r="I119" s="44" t="s">
+      <c r="J120" s="44" t="s">
         <v>1079</v>
       </c>
-      <c r="J119" s="44" t="s">
+      <c r="K120" s="44" t="s">
         <v>1080</v>
       </c>
-      <c r="K119" s="44" t="s">
+      <c r="L120" s="44" t="s">
         <v>1081</v>
       </c>
-      <c r="L119" s="44" t="s">
+      <c r="M120" s="44" t="s">
         <v>1082</v>
       </c>
-      <c r="M119" s="44" t="s">
+      <c r="N120" s="44" t="s">
         <v>1083</v>
       </c>
-      <c r="N119" s="44" t="s">
+      <c r="O120" s="44" t="s">
         <v>1084</v>
       </c>
-      <c r="O119" s="44" t="s">
+      <c r="P120" s="44" t="s">
         <v>1085</v>
-      </c>
-      <c r="P119" s="44" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="H120" s="44" t="s">
-        <v>1025</v>
-      </c>
-      <c r="I120" s="44" t="s">
-        <v>1087</v>
-      </c>
-      <c r="J120" s="44" t="s">
-        <v>1088</v>
-      </c>
-      <c r="K120" s="44" t="s">
-        <v>1089</v>
-      </c>
-      <c r="L120" s="44" t="s">
-        <v>1090</v>
-      </c>
-      <c r="M120" s="44" t="s">
-        <v>962</v>
-      </c>
-      <c r="N120" s="44" t="s">
-        <v>1091</v>
-      </c>
-      <c r="O120" s="44" t="s">
-        <v>1092</v>
-      </c>
-      <c r="P120" s="44" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="121" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="H121" s="44" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I121" s="44" t="s">
+        <v>1086</v>
+      </c>
+      <c r="J121" s="44" t="s">
+        <v>1087</v>
+      </c>
+      <c r="K121" s="44" t="s">
+        <v>1088</v>
+      </c>
+      <c r="L121" s="44" t="s">
+        <v>1089</v>
+      </c>
+      <c r="M121" s="44" t="s">
+        <v>962</v>
+      </c>
+      <c r="N121" s="44" t="s">
+        <v>1090</v>
+      </c>
+      <c r="O121" s="44" t="s">
+        <v>1091</v>
+      </c>
+      <c r="P121" s="44" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H122" s="44" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I122" s="44" t="s">
         <v>1094</v>
       </c>
-      <c r="I121" s="44" t="s">
+      <c r="J122" s="44" t="s">
         <v>1095</v>
       </c>
-      <c r="J121" s="44" t="s">
+      <c r="K122" s="44" t="s">
         <v>1096</v>
       </c>
-      <c r="K121" s="44" t="s">
+      <c r="L122" s="44" t="s">
         <v>1097</v>
       </c>
-      <c r="L121" s="44" t="s">
+      <c r="M122" s="44" t="s">
         <v>1098</v>
       </c>
-      <c r="M121" s="44" t="s">
+      <c r="N122" s="44" t="s">
         <v>1099</v>
       </c>
-      <c r="N121" s="44" t="s">
+      <c r="O122" s="44" t="s">
         <v>1100</v>
       </c>
-      <c r="O121" s="44" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A123" s="29">
-        <v>11.11</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="H123" s="44" t="s">
-        <v>1102</v>
-      </c>
-      <c r="I123" s="44" t="s">
-        <v>1103</v>
-      </c>
-      <c r="J123" s="44" t="s">
-        <v>1104</v>
-      </c>
-      <c r="K123" s="44" t="s">
-        <v>1105</v>
-      </c>
-      <c r="L123" s="44" t="s">
-        <v>1106</v>
-      </c>
-    </row>
+    </row>
+    <row r="123" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="124" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A124" s="29">
-        <v>11.12</v>
+        <v>11.11</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>776</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="H124" s="44" t="s">
-        <v>1110</v>
+        <v>1101</v>
+      </c>
+      <c r="I124" s="44" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J124" s="44" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K124" s="44" t="s">
+        <v>1104</v>
+      </c>
+      <c r="L124" s="44" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="125" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A125" s="29">
+        <v>11.12</v>
+      </c>
       <c r="C125" s="4" t="s">
         <v>776</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="H125" s="44" t="s">
-        <v>1107</v>
-      </c>
-      <c r="I125" s="43" t="s">
-        <v>1108</v>
-      </c>
-      <c r="J125" s="43" t="s">
         <v>1109</v>
       </c>
     </row>
@@ -15088,54 +15355,45 @@
         <v>776</v>
       </c>
       <c r="D126" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="H126" s="44" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I126" s="43" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J126" s="43" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C127" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="D127" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="H126" s="44" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A128" s="29">
+      <c r="H127" s="44" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A129" s="29">
         <v>11.13</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="H128" s="44" t="s">
-        <v>1112</v>
-      </c>
-      <c r="I128" s="44" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C129" s="4" t="s">
         <v>780</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>416</v>
+        <v>781</v>
       </c>
       <c r="H129" s="44" t="s">
-        <v>1114</v>
-      </c>
-      <c r="I129" s="43" t="s">
-        <v>925</v>
-      </c>
-      <c r="J129" s="44" t="s">
-        <v>951</v>
-      </c>
-      <c r="K129" s="44" t="s">
-        <v>1115</v>
-      </c>
-      <c r="L129" s="43" t="s">
-        <v>1116</v>
-      </c>
-      <c r="M129" s="29" t="s">
-        <v>988</v>
+        <v>1111</v>
+      </c>
+      <c r="I129" s="44" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="130" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15143,44 +15401,56 @@
         <v>780</v>
       </c>
       <c r="D130" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="H130" s="44" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I130" s="43" t="s">
+        <v>925</v>
+      </c>
+      <c r="J130" s="44" t="s">
+        <v>951</v>
+      </c>
+      <c r="K130" s="44" t="s">
+        <v>1114</v>
+      </c>
+      <c r="L130" s="43" t="s">
+        <v>1115</v>
+      </c>
+      <c r="M130" s="29" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C131" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="D131" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="H130" s="44" t="s">
+      <c r="H131" s="44" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I131" s="44" t="s">
         <v>1117</v>
       </c>
-      <c r="I130" s="44" t="s">
+    </row>
+    <row r="132" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C132" s="32" t="s">
+        <v>780</v>
+      </c>
+      <c r="D132" s="32" t="s">
+        <v>783</v>
+      </c>
+      <c r="H132" s="44" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C131" s="32" t="s">
-        <v>780</v>
-      </c>
-      <c r="D131" s="32" t="s">
-        <v>783</v>
-      </c>
-      <c r="H131" s="44" t="s">
+      <c r="I132" s="44" t="s">
         <v>1119</v>
       </c>
-      <c r="I131" s="44" t="s">
+      <c r="J132" s="44" t="s">
         <v>1120</v>
-      </c>
-      <c r="J131" s="44" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C132" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="H132" s="44" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I132" s="44" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="133" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15188,13 +15458,13 @@
         <v>780</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H133" s="44" t="s">
-        <v>953</v>
+        <v>1067</v>
       </c>
       <c r="I133" s="44" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="134" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15202,364 +15472,379 @@
         <v>780</v>
       </c>
       <c r="D134" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="H134" s="44" t="s">
+        <v>953</v>
+      </c>
+      <c r="I134" s="44" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C135" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="D135" s="4" t="s">
         <v>786</v>
       </c>
-      <c r="H134" s="46" t="s">
+      <c r="H135" s="46" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I135" s="46" t="s">
         <v>1124</v>
       </c>
-      <c r="I134" s="46" t="s">
+      <c r="J135" s="46" t="s">
         <v>1125</v>
       </c>
-      <c r="J134" s="46" t="s">
+      <c r="K135" s="46" t="s">
         <v>1126</v>
       </c>
-      <c r="K134" s="46" t="s">
+      <c r="L135" s="43" t="s">
         <v>1127</v>
       </c>
-      <c r="L134" s="43" t="s">
+      <c r="M135" s="46" t="s">
         <v>1128</v>
       </c>
-      <c r="M134" s="46" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A136" s="29">
+    </row>
+    <row r="136" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A137" s="29">
         <v>11.14</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C137" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="D137" s="4" t="s">
         <v>787</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C137" s="4"/>
-      <c r="D137" s="4" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="138" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C139" s="4"/>
+      <c r="D139" s="4" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="139" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A140" s="29">
+    <row r="140" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A141" s="29">
         <v>11.15</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C141" s="4" t="s">
         <v>790</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="H140" s="44" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C141" s="4" t="s">
-        <v>791</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>416</v>
       </c>
       <c r="H141" s="44" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A143" s="29">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C142" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="H142" s="44" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A144" s="29">
         <v>11.16</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="D144" s="4" t="s">
         <v>792</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="D144" s="4" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="145" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D145" s="4" t="s">
-        <v>793</v>
+        <v>813</v>
       </c>
     </row>
     <row r="146" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D146" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="147" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D147" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="148" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D148" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="149" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D149" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="150" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D150" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="151" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D151" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="152" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D152" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="153" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D153" s="4" t="s">
-        <v>908</v>
+        <v>800</v>
       </c>
     </row>
     <row r="154" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D154" s="4" t="s">
-        <v>801</v>
+        <v>908</v>
       </c>
     </row>
     <row r="155" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D155" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="156" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D156" s="4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="157" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D157" s="4" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="157" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="D157" s="32" t="s">
-        <v>1132</v>
-      </c>
-    </row>
     <row r="158" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="D158" s="4" t="s">
-        <v>804</v>
+      <c r="D158" s="32" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="159" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D159" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="160" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D160" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="161" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D161" s="4" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
     </row>
     <row r="162" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D162" s="4" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D163" s="4" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="163" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="D163" s="32" t="s">
+    <row r="164" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D164" s="32" t="s">
         <v>808</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="D164" s="4" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="165" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D165" s="4" t="s">
-        <v>815</v>
+        <v>892</v>
       </c>
     </row>
     <row r="166" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D166" s="4" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
     </row>
     <row r="167" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D167" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="168" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D168" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D169" s="4" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="D169" s="4" t="s">
+    <row r="170" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D170" s="4" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A171" s="4">
+    <row r="172" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A172" s="4">
         <v>11.17</v>
       </c>
-      <c r="E171" s="4" t="s">
+      <c r="E172" s="4" t="s">
         <v>816</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E172" s="4" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="173" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E173" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="174" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E174" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="175" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E175" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="176" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E176" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="177" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E177" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="178" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E178" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="179" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E179" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="180" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E180" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="181" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E181" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="182" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E182" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="183" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E183" s="4" t="s">
-        <v>893</v>
+        <v>827</v>
       </c>
     </row>
     <row r="184" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E184" s="4" t="s">
-        <v>828</v>
+        <v>893</v>
       </c>
     </row>
     <row r="185" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E185" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="186" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E186" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="187" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E187" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="188" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E188" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="189" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E189" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="190" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E190" s="4" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="191" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E191" s="4" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
     </row>
     <row r="192" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E192" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="193" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E193" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="194" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E194" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="195" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E195" s="4" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E196" s="4" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="196" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A196" s="4">
+    <row r="197" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A197" s="4">
         <v>11.18</v>
       </c>
-      <c r="C196" s="4" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F196" s="4" t="s">
+      <c r="C197" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F197" s="4" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="197" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="198" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="199" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="200" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="201" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="202" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="203" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="204" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TS Jatai Working/prAtiSAkyam Rules.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -11487,8 +11487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L294"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D75" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="M68" sqref="M68"/>
@@ -13925,7 +13925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="E69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>

--- a/TS Jatai Working/prAtiSAkyam Rules.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\texts\TS Jatai Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Avagraha" sheetId="7" r:id="rId7"/>
     <sheet name="Special Anuswaram" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511" iterate="1"/>
+  <calcPr calcId="162913" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="1188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="1190">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -3758,12 +3758,150 @@
   <si>
     <t>4.5.5</t>
   </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t>bÉÉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t>rÉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t>iÉ CirÉþ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t xml:space="preserve">bÉ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t>- rÉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t>iÉÈ ||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(TS 2.3.14.1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sUqktAqnIti#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> su</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - uqktAni# </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(TS 2.3.14.2)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3884,6 +4022,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BRH Devanagari Extra"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BRH Malayalam Extra"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BRH Devanagari Extra"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="BRH Devanagari Extra"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -3962,7 +4121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4039,6 +4198,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4321,25 +4486,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L192"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" customWidth="1"/>
-    <col min="5" max="5" width="35.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" customWidth="1"/>
+    <col min="5" max="5" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4349,7 +4514,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -4357,7 +4522,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
@@ -4365,7 +4530,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="5" t="s">
         <v>5</v>
@@ -4373,7 +4538,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
         <v>6</v>
@@ -4381,7 +4546,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>3.1</v>
       </c>
@@ -4391,7 +4556,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="8" t="s">
         <v>8</v>
@@ -4399,7 +4564,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
@@ -4419,7 +4584,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14">
@@ -4437,7 +4602,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>3.2</v>
       </c>
@@ -4457,7 +4622,7 @@
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>3.2</v>
       </c>
@@ -4478,7 +4643,7 @@
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>3.2</v>
       </c>
@@ -4499,7 +4664,7 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
     </row>
-    <row r="16" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>3.2</v>
       </c>
@@ -4520,7 +4685,7 @@
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>3.2</v>
       </c>
@@ -4541,7 +4706,7 @@
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>3.2</v>
       </c>
@@ -4562,7 +4727,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>3.2</v>
       </c>
@@ -4583,7 +4748,7 @@
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="36.75" x14ac:dyDescent="1">
       <c r="A20" s="16">
         <v>3.2</v>
       </c>
@@ -4595,7 +4760,9 @@
         <v>13</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="E20" s="50" t="s">
+        <v>1188</v>
+      </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -4604,7 +4771,7 @@
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>3.2</v>
       </c>
@@ -4625,7 +4792,7 @@
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
     </row>
-    <row r="22" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>3.2</v>
       </c>
@@ -4646,7 +4813,7 @@
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -4660,7 +4827,7 @@
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
     </row>
-    <row r="24" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>3.3</v>
       </c>
@@ -4684,7 +4851,7 @@
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
     </row>
-    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="15"/>
       <c r="C25" s="18"/>
@@ -4700,7 +4867,7 @@
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -4716,7 +4883,7 @@
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
     </row>
-    <row r="27" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -4730,7 +4897,7 @@
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
     </row>
-    <row r="28" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>3.4</v>
       </c>
@@ -4754,7 +4921,7 @@
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
     </row>
-    <row r="29" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -4768,7 +4935,7 @@
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
     </row>
-    <row r="30" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>3.5</v>
       </c>
@@ -4788,7 +4955,7 @@
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
     </row>
-    <row r="31" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="15">
         <f>+B30+1</f>
@@ -4807,7 +4974,7 @@
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
     </row>
-    <row r="32" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="15">
         <f t="shared" ref="B32:B50" si="1">+B31+1</f>
@@ -4826,7 +4993,7 @@
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="15">
         <f t="shared" si="1"/>
@@ -4845,7 +5012,7 @@
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="15">
         <f t="shared" si="1"/>
@@ -4864,7 +5031,7 @@
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="15">
         <f t="shared" si="1"/>
@@ -4883,7 +5050,7 @@
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
     </row>
-    <row r="36" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="15">
         <f t="shared" si="1"/>
@@ -4902,7 +5069,7 @@
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
     </row>
-    <row r="37" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="15">
         <f t="shared" si="1"/>
@@ -4921,7 +5088,7 @@
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
     </row>
-    <row r="38" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="15">
         <f t="shared" si="1"/>
@@ -4940,7 +5107,7 @@
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
     </row>
-    <row r="39" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="15">
         <f t="shared" si="1"/>
@@ -4959,7 +5126,7 @@
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
     </row>
-    <row r="40" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="15">
         <f t="shared" si="1"/>
@@ -4978,7 +5145,7 @@
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
     </row>
-    <row r="41" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="15">
         <f t="shared" si="1"/>
@@ -4997,7 +5164,7 @@
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
     </row>
-    <row r="42" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="15">
         <f t="shared" si="1"/>
@@ -5016,7 +5183,7 @@
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
     </row>
-    <row r="43" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="15">
         <f t="shared" si="1"/>
@@ -5035,7 +5202,7 @@
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
     </row>
-    <row r="44" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="15">
         <f t="shared" si="1"/>
@@ -5054,7 +5221,7 @@
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
     </row>
-    <row r="45" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="15">
         <f t="shared" si="1"/>
@@ -5073,7 +5240,7 @@
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
     </row>
-    <row r="46" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="15">
         <f t="shared" si="1"/>
@@ -5092,7 +5259,7 @@
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
     </row>
-    <row r="47" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="15">
         <f t="shared" si="1"/>
@@ -5111,7 +5278,7 @@
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
     </row>
-    <row r="48" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="15">
         <f t="shared" si="1"/>
@@ -5130,7 +5297,7 @@
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
     </row>
-    <row r="49" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="15">
         <f t="shared" si="1"/>
@@ -5149,7 +5316,7 @@
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
     </row>
-    <row r="50" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="15">
         <f t="shared" si="1"/>
@@ -5168,7 +5335,7 @@
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
     </row>
-    <row r="51" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -5182,7 +5349,7 @@
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
     </row>
-    <row r="52" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>3.6</v>
       </c>
@@ -5206,7 +5373,7 @@
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
     </row>
-    <row r="53" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -5222,7 +5389,7 @@
       <c r="K53" s="13"/>
       <c r="L53" s="13"/>
     </row>
-    <row r="54" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>3.7</v>
       </c>
@@ -5242,7 +5409,7 @@
       <c r="K54" s="13"/>
       <c r="L54" s="13"/>
     </row>
-    <row r="55" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="15">
         <f t="shared" ref="B55:B80" si="2">+B54+1</f>
@@ -5261,7 +5428,7 @@
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
     </row>
-    <row r="56" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="15">
         <f t="shared" si="2"/>
@@ -5280,7 +5447,7 @@
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
     </row>
-    <row r="57" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="15">
         <f t="shared" si="2"/>
@@ -5299,7 +5466,7 @@
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
     </row>
-    <row r="58" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="15">
         <f t="shared" si="2"/>
@@ -5318,7 +5485,7 @@
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
     </row>
-    <row r="59" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="15">
         <f t="shared" si="2"/>
@@ -5337,7 +5504,7 @@
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
     </row>
-    <row r="60" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="15">
         <f t="shared" si="2"/>
@@ -5356,7 +5523,7 @@
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
     </row>
-    <row r="61" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="B61" s="15">
         <f t="shared" si="2"/>
@@ -5375,7 +5542,7 @@
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
     </row>
-    <row r="62" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="B62" s="15">
         <f t="shared" si="2"/>
@@ -5394,7 +5561,7 @@
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
     </row>
-    <row r="63" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="15">
         <f t="shared" si="2"/>
@@ -5413,7 +5580,7 @@
       <c r="K63" s="13"/>
       <c r="L63" s="13"/>
     </row>
-    <row r="64" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="15">
         <f t="shared" si="2"/>
@@ -5432,7 +5599,7 @@
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
     </row>
-    <row r="65" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" s="15">
         <f t="shared" si="2"/>
@@ -5451,7 +5618,7 @@
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
     </row>
-    <row r="66" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="15">
         <f t="shared" si="2"/>
@@ -5470,7 +5637,7 @@
       <c r="K66" s="13"/>
       <c r="L66" s="13"/>
     </row>
-    <row r="67" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="15">
         <f t="shared" si="2"/>
@@ -5489,7 +5656,7 @@
       <c r="K67" s="13"/>
       <c r="L67" s="13"/>
     </row>
-    <row r="68" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="15">
         <f t="shared" si="2"/>
@@ -5508,7 +5675,7 @@
       <c r="K68" s="13"/>
       <c r="L68" s="13"/>
     </row>
-    <row r="69" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="15">
         <f t="shared" si="2"/>
@@ -5527,7 +5694,7 @@
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
     </row>
-    <row r="70" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="15">
         <f t="shared" si="2"/>
@@ -5546,7 +5713,7 @@
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
     </row>
-    <row r="71" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="15">
         <f t="shared" si="2"/>
@@ -5565,7 +5732,7 @@
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
     </row>
-    <row r="72" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
       <c r="B72" s="15">
         <f t="shared" si="2"/>
@@ -5584,7 +5751,7 @@
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
     </row>
-    <row r="73" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
       <c r="B73" s="15">
         <f t="shared" si="2"/>
@@ -5603,7 +5770,7 @@
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
     </row>
-    <row r="74" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="15">
         <f t="shared" si="2"/>
@@ -5622,7 +5789,7 @@
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
     </row>
-    <row r="75" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="B75" s="15">
         <f t="shared" si="2"/>
@@ -5641,7 +5808,7 @@
       <c r="K75" s="13"/>
       <c r="L75" s="13"/>
     </row>
-    <row r="76" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
       <c r="B76" s="15">
         <f t="shared" si="2"/>
@@ -5660,7 +5827,7 @@
       <c r="K76" s="13"/>
       <c r="L76" s="13"/>
     </row>
-    <row r="77" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="B77" s="15">
         <f t="shared" si="2"/>
@@ -5679,7 +5846,7 @@
       <c r="K77" s="13"/>
       <c r="L77" s="13"/>
     </row>
-    <row r="78" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
       <c r="B78" s="15">
         <f t="shared" si="2"/>
@@ -5698,7 +5865,7 @@
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
     </row>
-    <row r="79" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
       <c r="B79" s="15">
         <f t="shared" si="2"/>
@@ -5708,7 +5875,9 @@
         <v>80</v>
       </c>
       <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
+      <c r="E79" s="51" t="s">
+        <v>1189</v>
+      </c>
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
@@ -5717,7 +5886,7 @@
       <c r="K79" s="13"/>
       <c r="L79" s="13"/>
     </row>
-    <row r="80" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
       <c r="B80" s="15">
         <f t="shared" si="2"/>
@@ -5736,7 +5905,7 @@
       <c r="K80" s="13"/>
       <c r="L80" s="13"/>
     </row>
-    <row r="81" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -5750,7 +5919,7 @@
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
     </row>
-    <row r="82" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="15">
         <v>3.8</v>
       </c>
@@ -5770,7 +5939,7 @@
       <c r="K82" s="13"/>
       <c r="L82" s="13"/>
     </row>
-    <row r="83" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
       <c r="B83" s="15">
         <f t="shared" ref="B83:B111" si="3">+B82+1</f>
@@ -5789,7 +5958,7 @@
       <c r="K83" s="13"/>
       <c r="L83" s="13"/>
     </row>
-    <row r="84" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="15"/>
       <c r="B84" s="15">
         <f t="shared" si="3"/>
@@ -5808,7 +5977,7 @@
       <c r="K84" s="13"/>
       <c r="L84" s="13"/>
     </row>
-    <row r="85" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
       <c r="B85" s="15">
         <f t="shared" si="3"/>
@@ -5827,7 +5996,7 @@
       <c r="K85" s="13"/>
       <c r="L85" s="13"/>
     </row>
-    <row r="86" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="15"/>
       <c r="B86" s="15">
         <f t="shared" si="3"/>
@@ -5846,7 +6015,7 @@
       <c r="K86" s="13"/>
       <c r="L86" s="13"/>
     </row>
-    <row r="87" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
       <c r="B87" s="15">
         <f t="shared" si="3"/>
@@ -5865,7 +6034,7 @@
       <c r="K87" s="13"/>
       <c r="L87" s="13"/>
     </row>
-    <row r="88" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="15"/>
       <c r="B88" s="15">
         <f t="shared" si="3"/>
@@ -5884,7 +6053,7 @@
       <c r="K88" s="13"/>
       <c r="L88" s="13"/>
     </row>
-    <row r="89" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="15"/>
       <c r="B89" s="15">
         <f t="shared" si="3"/>
@@ -5903,7 +6072,7 @@
       <c r="K89" s="13"/>
       <c r="L89" s="13"/>
     </row>
-    <row r="90" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
       <c r="B90" s="15">
         <f t="shared" si="3"/>
@@ -5922,7 +6091,7 @@
       <c r="K90" s="13"/>
       <c r="L90" s="13"/>
     </row>
-    <row r="91" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
       <c r="B91" s="15">
         <f t="shared" si="3"/>
@@ -5941,7 +6110,7 @@
       <c r="K91" s="13"/>
       <c r="L91" s="13"/>
     </row>
-    <row r="92" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
       <c r="B92" s="15">
         <f t="shared" si="3"/>
@@ -5960,7 +6129,7 @@
       <c r="K92" s="13"/>
       <c r="L92" s="13"/>
     </row>
-    <row r="93" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
       <c r="B93" s="15">
         <f t="shared" si="3"/>
@@ -5979,7 +6148,7 @@
       <c r="K93" s="13"/>
       <c r="L93" s="13"/>
     </row>
-    <row r="94" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
       <c r="B94" s="15">
         <f t="shared" si="3"/>
@@ -5998,7 +6167,7 @@
       <c r="K94" s="13"/>
       <c r="L94" s="13"/>
     </row>
-    <row r="95" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
       <c r="B95" s="15">
         <f t="shared" si="3"/>
@@ -6017,7 +6186,7 @@
       <c r="K95" s="13"/>
       <c r="L95" s="13"/>
     </row>
-    <row r="96" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
       <c r="B96" s="15">
         <f t="shared" si="3"/>
@@ -6036,7 +6205,7 @@
       <c r="K96" s="13"/>
       <c r="L96" s="13"/>
     </row>
-    <row r="97" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="15">
         <f t="shared" si="3"/>
@@ -6055,7 +6224,7 @@
       <c r="K97" s="13"/>
       <c r="L97" s="13"/>
     </row>
-    <row r="98" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
       <c r="B98" s="15">
         <f t="shared" si="3"/>
@@ -6074,7 +6243,7 @@
       <c r="K98" s="13"/>
       <c r="L98" s="13"/>
     </row>
-    <row r="99" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
       <c r="B99" s="15">
         <f t="shared" si="3"/>
@@ -6093,7 +6262,7 @@
       <c r="K99" s="13"/>
       <c r="L99" s="13"/>
     </row>
-    <row r="100" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="B100" s="15">
         <f t="shared" si="3"/>
@@ -6112,7 +6281,7 @@
       <c r="K100" s="13"/>
       <c r="L100" s="13"/>
     </row>
-    <row r="101" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="15">
         <f t="shared" si="3"/>
@@ -6131,7 +6300,7 @@
       <c r="K101" s="13"/>
       <c r="L101" s="13"/>
     </row>
-    <row r="102" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
       <c r="B102" s="15">
         <f t="shared" si="3"/>
@@ -6150,7 +6319,7 @@
       <c r="K102" s="13"/>
       <c r="L102" s="13"/>
     </row>
-    <row r="103" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
       <c r="B103" s="15">
         <f t="shared" si="3"/>
@@ -6169,7 +6338,7 @@
       <c r="K103" s="13"/>
       <c r="L103" s="13"/>
     </row>
-    <row r="104" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="B104" s="15">
         <f t="shared" si="3"/>
@@ -6188,7 +6357,7 @@
       <c r="K104" s="13"/>
       <c r="L104" s="13"/>
     </row>
-    <row r="105" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="15">
         <f t="shared" si="3"/>
@@ -6207,7 +6376,7 @@
       <c r="K105" s="13"/>
       <c r="L105" s="13"/>
     </row>
-    <row r="106" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="15">
         <f t="shared" si="3"/>
@@ -6226,7 +6395,7 @@
       <c r="K106" s="13"/>
       <c r="L106" s="13"/>
     </row>
-    <row r="107" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
       <c r="B107" s="15">
         <f t="shared" si="3"/>
@@ -6245,7 +6414,7 @@
       <c r="K107" s="13"/>
       <c r="L107" s="13"/>
     </row>
-    <row r="108" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="15">
         <f t="shared" si="3"/>
@@ -6264,7 +6433,7 @@
       <c r="K108" s="13"/>
       <c r="L108" s="13"/>
     </row>
-    <row r="109" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="13"/>
       <c r="B109" s="15">
         <f t="shared" si="3"/>
@@ -6283,7 +6452,7 @@
       <c r="K109" s="13"/>
       <c r="L109" s="13"/>
     </row>
-    <row r="110" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
       <c r="B110" s="15">
         <f t="shared" si="3"/>
@@ -6302,7 +6471,7 @@
       <c r="K110" s="13"/>
       <c r="L110" s="13"/>
     </row>
-    <row r="111" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
       <c r="B111" s="15">
         <f t="shared" si="3"/>
@@ -6321,7 +6490,7 @@
       <c r="K111" s="13"/>
       <c r="L111" s="13"/>
     </row>
-    <row r="112" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A112" s="20">
         <v>3.9</v>
       </c>
@@ -6343,7 +6512,7 @@
       <c r="K112" s="13"/>
       <c r="L112" s="13"/>
     </row>
-    <row r="113" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
       <c r="B113" s="15"/>
       <c r="C113" s="15"/>
@@ -6357,7 +6526,7 @@
       <c r="K113" s="13"/>
       <c r="L113" s="13"/>
     </row>
-    <row r="114" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="22">
         <v>3.1</v>
       </c>
@@ -6377,7 +6546,7 @@
       <c r="K114" s="13"/>
       <c r="L114" s="13"/>
     </row>
-    <row r="115" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="15"/>
       <c r="B115" s="15">
         <f t="shared" ref="B115:B139" si="4">+B114+1</f>
@@ -6396,7 +6565,7 @@
       <c r="K115" s="13"/>
       <c r="L115" s="13"/>
     </row>
-    <row r="116" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="15"/>
       <c r="B116" s="15">
         <f t="shared" si="4"/>
@@ -6415,7 +6584,7 @@
       <c r="K116" s="13"/>
       <c r="L116" s="13"/>
     </row>
-    <row r="117" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A117" s="15"/>
       <c r="B117" s="15">
         <f t="shared" si="4"/>
@@ -6434,7 +6603,7 @@
       <c r="K117" s="13"/>
       <c r="L117" s="13"/>
     </row>
-    <row r="118" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
       <c r="B118" s="15">
         <f t="shared" si="4"/>
@@ -6453,7 +6622,7 @@
       <c r="K118" s="13"/>
       <c r="L118" s="13"/>
     </row>
-    <row r="119" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="15"/>
       <c r="B119" s="15">
         <f t="shared" si="4"/>
@@ -6472,7 +6641,7 @@
       <c r="K119" s="13"/>
       <c r="L119" s="13"/>
     </row>
-    <row r="120" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A120" s="15"/>
       <c r="B120" s="15">
         <f t="shared" si="4"/>
@@ -6491,7 +6660,7 @@
       <c r="K120" s="13"/>
       <c r="L120" s="13"/>
     </row>
-    <row r="121" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A121" s="15"/>
       <c r="B121" s="15">
         <f t="shared" si="4"/>
@@ -6510,7 +6679,7 @@
       <c r="K121" s="13"/>
       <c r="L121" s="13"/>
     </row>
-    <row r="122" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="15"/>
       <c r="B122" s="15">
         <f t="shared" si="4"/>
@@ -6529,7 +6698,7 @@
       <c r="K122" s="13"/>
       <c r="L122" s="13"/>
     </row>
-    <row r="123" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A123" s="15"/>
       <c r="B123" s="15">
         <f t="shared" si="4"/>
@@ -6548,7 +6717,7 @@
       <c r="K123" s="13"/>
       <c r="L123" s="13"/>
     </row>
-    <row r="124" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A124" s="15"/>
       <c r="B124" s="15">
         <f t="shared" si="4"/>
@@ -6567,7 +6736,7 @@
       <c r="K124" s="13"/>
       <c r="L124" s="13"/>
     </row>
-    <row r="125" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A125" s="15"/>
       <c r="B125" s="15">
         <f t="shared" si="4"/>
@@ -6586,7 +6755,7 @@
       <c r="K125" s="13"/>
       <c r="L125" s="13"/>
     </row>
-    <row r="126" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A126" s="15"/>
       <c r="B126" s="15">
         <f t="shared" si="4"/>
@@ -6605,7 +6774,7 @@
       <c r="K126" s="13"/>
       <c r="L126" s="13"/>
     </row>
-    <row r="127" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A127" s="15"/>
       <c r="B127" s="15">
         <f t="shared" si="4"/>
@@ -6624,7 +6793,7 @@
       <c r="K127" s="13"/>
       <c r="L127" s="13"/>
     </row>
-    <row r="128" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A128" s="15"/>
       <c r="B128" s="15">
         <f t="shared" si="4"/>
@@ -6643,7 +6812,7 @@
       <c r="K128" s="13"/>
       <c r="L128" s="13"/>
     </row>
-    <row r="129" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="15"/>
       <c r="B129" s="15">
         <f t="shared" si="4"/>
@@ -6662,7 +6831,7 @@
       <c r="K129" s="13"/>
       <c r="L129" s="13"/>
     </row>
-    <row r="130" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A130" s="15"/>
       <c r="B130" s="15">
         <f t="shared" si="4"/>
@@ -6681,7 +6850,7 @@
       <c r="K130" s="13"/>
       <c r="L130" s="13"/>
     </row>
-    <row r="131" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="15"/>
       <c r="B131" s="15">
         <f t="shared" si="4"/>
@@ -6700,7 +6869,7 @@
       <c r="K131" s="13"/>
       <c r="L131" s="13"/>
     </row>
-    <row r="132" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A132" s="15"/>
       <c r="B132" s="15">
         <f t="shared" si="4"/>
@@ -6719,7 +6888,7 @@
       <c r="K132" s="13"/>
       <c r="L132" s="13"/>
     </row>
-    <row r="133" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A133" s="15"/>
       <c r="B133" s="15">
         <f t="shared" si="4"/>
@@ -6738,7 +6907,7 @@
       <c r="K133" s="13"/>
       <c r="L133" s="13"/>
     </row>
-    <row r="134" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A134" s="15"/>
       <c r="B134" s="15">
         <f t="shared" si="4"/>
@@ -6757,7 +6926,7 @@
       <c r="K134" s="13"/>
       <c r="L134" s="13"/>
     </row>
-    <row r="135" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A135" s="15"/>
       <c r="B135" s="15">
         <f t="shared" si="4"/>
@@ -6776,7 +6945,7 @@
       <c r="K135" s="13"/>
       <c r="L135" s="13"/>
     </row>
-    <row r="136" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A136" s="15"/>
       <c r="B136" s="15">
         <f t="shared" si="4"/>
@@ -6795,7 +6964,7 @@
       <c r="K136" s="13"/>
       <c r="L136" s="13"/>
     </row>
-    <row r="137" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A137" s="15"/>
       <c r="B137" s="15">
         <f t="shared" si="4"/>
@@ -6814,7 +6983,7 @@
       <c r="K137" s="13"/>
       <c r="L137" s="13"/>
     </row>
-    <row r="138" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A138" s="15"/>
       <c r="B138" s="15">
         <f t="shared" si="4"/>
@@ -6833,7 +7002,7 @@
       <c r="K138" s="13"/>
       <c r="L138" s="13"/>
     </row>
-    <row r="139" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A139" s="15"/>
       <c r="B139" s="15">
         <f t="shared" si="4"/>
@@ -6852,7 +7021,7 @@
       <c r="K139" s="13"/>
       <c r="L139" s="13"/>
     </row>
-    <row r="140" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A140" s="15"/>
       <c r="B140" s="15"/>
       <c r="C140" s="15"/>
@@ -6866,7 +7035,7 @@
       <c r="K140" s="13"/>
       <c r="L140" s="13"/>
     </row>
-    <row r="141" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A141" s="15">
         <v>3.11</v>
       </c>
@@ -6890,7 +7059,7 @@
       <c r="K141" s="13"/>
       <c r="L141" s="13"/>
     </row>
-    <row r="142" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A142" s="15"/>
       <c r="B142" s="15"/>
       <c r="C142" s="15"/>
@@ -6904,7 +7073,7 @@
       <c r="K142" s="13"/>
       <c r="L142" s="13"/>
     </row>
-    <row r="143" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A143" s="15">
         <v>3.12</v>
       </c>
@@ -6924,7 +7093,7 @@
       <c r="K143" s="13"/>
       <c r="L143" s="13"/>
     </row>
-    <row r="144" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A144" s="15"/>
       <c r="B144" s="15">
         <f t="shared" ref="B144:B164" si="5">+B143+1</f>
@@ -6943,7 +7112,7 @@
       <c r="K144" s="13"/>
       <c r="L144" s="13"/>
     </row>
-    <row r="145" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A145" s="15"/>
       <c r="B145" s="15">
         <f t="shared" si="5"/>
@@ -6962,7 +7131,7 @@
       <c r="K145" s="15"/>
       <c r="L145" s="15"/>
     </row>
-    <row r="146" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="15"/>
       <c r="B146" s="15">
         <f t="shared" si="5"/>
@@ -6981,7 +7150,7 @@
       <c r="K146" s="15"/>
       <c r="L146" s="15"/>
     </row>
-    <row r="147" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="15"/>
       <c r="B147" s="15">
         <f t="shared" si="5"/>
@@ -7000,7 +7169,7 @@
       <c r="K147" s="15"/>
       <c r="L147" s="15"/>
     </row>
-    <row r="148" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A148" s="15"/>
       <c r="B148" s="15">
         <f t="shared" si="5"/>
@@ -7019,7 +7188,7 @@
       <c r="K148" s="15"/>
       <c r="L148" s="15"/>
     </row>
-    <row r="149" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A149" s="15"/>
       <c r="B149" s="15">
         <f t="shared" si="5"/>
@@ -7038,7 +7207,7 @@
       <c r="K149" s="15"/>
       <c r="L149" s="15"/>
     </row>
-    <row r="150" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="15"/>
       <c r="B150" s="15">
         <f t="shared" si="5"/>
@@ -7057,7 +7226,7 @@
       <c r="K150" s="15"/>
       <c r="L150" s="15"/>
     </row>
-    <row r="151" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A151" s="15"/>
       <c r="B151" s="15">
         <f t="shared" si="5"/>
@@ -7076,7 +7245,7 @@
       <c r="K151" s="15"/>
       <c r="L151" s="15"/>
     </row>
-    <row r="152" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A152" s="15"/>
       <c r="B152" s="15">
         <f t="shared" si="5"/>
@@ -7095,7 +7264,7 @@
       <c r="K152" s="15"/>
       <c r="L152" s="15"/>
     </row>
-    <row r="153" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A153" s="15"/>
       <c r="B153" s="15">
         <f t="shared" si="5"/>
@@ -7114,7 +7283,7 @@
       <c r="K153" s="15"/>
       <c r="L153" s="15"/>
     </row>
-    <row r="154" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A154" s="15"/>
       <c r="B154" s="15">
         <f t="shared" si="5"/>
@@ -7133,7 +7302,7 @@
       <c r="K154" s="15"/>
       <c r="L154" s="15"/>
     </row>
-    <row r="155" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="15"/>
       <c r="B155" s="15">
         <f t="shared" si="5"/>
@@ -7152,7 +7321,7 @@
       <c r="K155" s="15"/>
       <c r="L155" s="15"/>
     </row>
-    <row r="156" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="15"/>
       <c r="B156" s="15">
         <f t="shared" si="5"/>
@@ -7171,7 +7340,7 @@
       <c r="K156" s="15"/>
       <c r="L156" s="15"/>
     </row>
-    <row r="157" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A157" s="15"/>
       <c r="B157" s="15">
         <f t="shared" si="5"/>
@@ -7190,7 +7359,7 @@
       <c r="K157" s="15"/>
       <c r="L157" s="15"/>
     </row>
-    <row r="158" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A158" s="15"/>
       <c r="B158" s="15">
         <f t="shared" si="5"/>
@@ -7209,7 +7378,7 @@
       <c r="K158" s="15"/>
       <c r="L158" s="15"/>
     </row>
-    <row r="159" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A159" s="15"/>
       <c r="B159" s="15">
         <f t="shared" si="5"/>
@@ -7228,7 +7397,7 @@
       <c r="K159" s="15"/>
       <c r="L159" s="15"/>
     </row>
-    <row r="160" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A160" s="15"/>
       <c r="B160" s="15">
         <f t="shared" si="5"/>
@@ -7247,7 +7416,7 @@
       <c r="K160" s="15"/>
       <c r="L160" s="15"/>
     </row>
-    <row r="161" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A161" s="15"/>
       <c r="B161" s="15">
         <f t="shared" si="5"/>
@@ -7266,7 +7435,7 @@
       <c r="K161" s="15"/>
       <c r="L161" s="15"/>
     </row>
-    <row r="162" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="15"/>
       <c r="B162" s="15">
         <f t="shared" si="5"/>
@@ -7285,7 +7454,7 @@
       <c r="K162" s="15"/>
       <c r="L162" s="15"/>
     </row>
-    <row r="163" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="15"/>
       <c r="B163" s="15">
         <f t="shared" si="5"/>
@@ -7304,7 +7473,7 @@
       <c r="K163" s="15"/>
       <c r="L163" s="15"/>
     </row>
-    <row r="164" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="15"/>
       <c r="B164" s="15">
         <f t="shared" si="5"/>
@@ -7323,7 +7492,7 @@
       <c r="K164" s="15"/>
       <c r="L164" s="15"/>
     </row>
-    <row r="165" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="15"/>
       <c r="B165" s="15"/>
       <c r="C165" s="15"/>
@@ -7337,7 +7506,7 @@
       <c r="K165" s="15"/>
       <c r="L165" s="15"/>
     </row>
-    <row r="166" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="15">
         <v>3.13</v>
       </c>
@@ -7357,7 +7526,7 @@
       <c r="K166" s="15"/>
       <c r="L166" s="15"/>
     </row>
-    <row r="167" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="15"/>
       <c r="B167" s="15">
         <f>+B166+1</f>
@@ -7376,7 +7545,7 @@
       <c r="K167" s="15"/>
       <c r="L167" s="15"/>
     </row>
-    <row r="168" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="15"/>
       <c r="B168" s="15">
         <f>+B167+1</f>
@@ -7395,7 +7564,7 @@
       <c r="K168" s="15"/>
       <c r="L168" s="15"/>
     </row>
-    <row r="169" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="15"/>
       <c r="B169" s="15">
         <f>+B168+1</f>
@@ -7414,7 +7583,7 @@
       <c r="K169" s="15"/>
       <c r="L169" s="15"/>
     </row>
-    <row r="170" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A170" s="15"/>
       <c r="B170" s="15">
         <f>+B169+1</f>
@@ -7433,7 +7602,7 @@
       <c r="K170" s="15"/>
       <c r="L170" s="15"/>
     </row>
-    <row r="171" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="15"/>
       <c r="B171" s="15"/>
       <c r="C171" s="15"/>
@@ -7447,7 +7616,7 @@
       <c r="K171" s="15"/>
       <c r="L171" s="15"/>
     </row>
-    <row r="172" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A172" s="15">
         <v>3.14</v>
       </c>
@@ -7467,7 +7636,7 @@
       <c r="K172" s="15"/>
       <c r="L172" s="15"/>
     </row>
-    <row r="173" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A173" s="15"/>
       <c r="B173" s="15">
         <f>+B172+1</f>
@@ -7486,7 +7655,7 @@
       <c r="K173" s="15"/>
       <c r="L173" s="15"/>
     </row>
-    <row r="174" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A174" s="15"/>
       <c r="B174" s="15">
         <f>+B173+1</f>
@@ -7505,7 +7674,7 @@
       <c r="K174" s="15"/>
       <c r="L174" s="15"/>
     </row>
-    <row r="175" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A175" s="15"/>
       <c r="B175" s="15">
         <f>+B174+1</f>
@@ -7524,7 +7693,7 @@
       <c r="K175" s="15"/>
       <c r="L175" s="15"/>
     </row>
-    <row r="176" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A176" s="15"/>
       <c r="B176" s="15">
         <f>+B175+1</f>
@@ -7543,7 +7712,7 @@
       <c r="K176" s="15"/>
       <c r="L176" s="15"/>
     </row>
-    <row r="177" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A177" s="15"/>
       <c r="B177" s="15">
         <f>+B176+1</f>
@@ -7562,7 +7731,7 @@
       <c r="K177" s="15"/>
       <c r="L177" s="15"/>
     </row>
-    <row r="178" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A178" s="15"/>
       <c r="B178" s="15"/>
       <c r="C178" s="15"/>
@@ -7576,7 +7745,7 @@
       <c r="K178" s="15"/>
       <c r="L178" s="15"/>
     </row>
-    <row r="179" spans="1:12" s="4" customFormat="1" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" s="4" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="15">
         <v>3.15</v>
       </c>
@@ -7600,7 +7769,7 @@
       <c r="K179" s="15"/>
       <c r="L179" s="15"/>
     </row>
-    <row r="180" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A180" s="15"/>
       <c r="B180" s="15"/>
       <c r="C180" s="15"/>
@@ -7614,7 +7783,7 @@
       <c r="K180" s="15"/>
       <c r="L180" s="15"/>
     </row>
-    <row r="181" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A181" s="15"/>
       <c r="B181" s="15"/>
       <c r="C181" s="15"/>
@@ -7628,7 +7797,7 @@
       <c r="K181" s="15"/>
       <c r="L181" s="15"/>
     </row>
-    <row r="182" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A182" s="15"/>
       <c r="B182" s="15"/>
       <c r="C182" s="15"/>
@@ -7642,7 +7811,7 @@
       <c r="K182" s="15"/>
       <c r="L182" s="15"/>
     </row>
-    <row r="183" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A183" s="15"/>
       <c r="B183" s="15"/>
       <c r="C183" s="15"/>
@@ -7656,7 +7825,7 @@
       <c r="K183" s="15"/>
       <c r="L183" s="15"/>
     </row>
-    <row r="184" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A184" s="15"/>
       <c r="B184" s="15"/>
       <c r="C184" s="15"/>
@@ -7670,7 +7839,7 @@
       <c r="K184" s="15"/>
       <c r="L184" s="15"/>
     </row>
-    <row r="185" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A185" s="15"/>
       <c r="B185" s="15"/>
       <c r="C185" s="15"/>
@@ -7684,7 +7853,7 @@
       <c r="K185" s="15"/>
       <c r="L185" s="15"/>
     </row>
-    <row r="186" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A186" s="15"/>
       <c r="B186" s="15"/>
       <c r="C186" s="15"/>
@@ -7698,7 +7867,7 @@
       <c r="K186" s="15"/>
       <c r="L186" s="15"/>
     </row>
-    <row r="187" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A187" s="15"/>
       <c r="B187" s="15"/>
       <c r="C187" s="15"/>
@@ -7712,14 +7881,14 @@
       <c r="K187" s="15"/>
       <c r="L187" s="15"/>
     </row>
-    <row r="188" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="189" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="190" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="191" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="192" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="188" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7731,22 +7900,22 @@
       <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>173</v>
       </c>
@@ -7757,7 +7926,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="25" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="25" t="s">
         <v>175</v>
       </c>
@@ -7768,7 +7937,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="C5" s="25">
         <v>4.2</v>
       </c>
@@ -7784,7 +7953,7 @@
       <c r="K5" s="25"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="C6" s="25">
         <v>4.3</v>
       </c>
@@ -7800,7 +7969,7 @@
       <c r="K6" s="25"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="C7" s="25">
         <v>4.4000000000000004</v>
       </c>
@@ -7816,7 +7985,7 @@
       <c r="K7" s="25"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="C8" s="25">
         <v>4.5</v>
       </c>
@@ -7832,7 +8001,7 @@
       <c r="K8" s="25"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="C9" s="25">
         <v>4.5999999999999996</v>
       </c>
@@ -7848,7 +8017,7 @@
       <c r="K9" s="25"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="C10" s="25"/>
       <c r="D10" s="25" t="s">
         <v>184</v>
@@ -7862,7 +8031,7 @@
       <c r="K10" s="25"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="C11" s="25">
         <v>4.7</v>
       </c>
@@ -7878,7 +8047,7 @@
       <c r="K11" s="25"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="C12" s="25">
         <v>4.8</v>
       </c>
@@ -7894,7 +8063,7 @@
       <c r="K12" s="25"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <v>4.9000000000000004</v>
       </c>
@@ -7923,7 +8092,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="37">
         <v>4.0999999999999996</v>
       </c>
@@ -7937,7 +8106,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>4.1100000000000003</v>
       </c>
@@ -7951,7 +8120,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="17" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <f>+B16+1</f>
         <v>2</v>
@@ -7963,7 +8132,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="18" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <f t="shared" ref="B18:B51" si="0">+B17+1</f>
         <v>3</v>
@@ -7975,7 +8144,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7987,7 +8156,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="20" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7999,7 +8168,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="21" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8011,7 +8180,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="22" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8023,7 +8192,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="23" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8035,7 +8204,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="24" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8047,7 +8216,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="25" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8059,7 +8228,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="26" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8071,7 +8240,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="27" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8083,7 +8252,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="28" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -8095,7 +8264,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="29" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -8107,7 +8276,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="30" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -8119,7 +8288,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="31" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8131,7 +8300,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="32" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8143,7 +8312,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="33" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -8155,7 +8324,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="34" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -8167,7 +8336,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="35" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -8179,7 +8348,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="36" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -8191,7 +8360,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="37" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -8203,7 +8372,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="38" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -8215,7 +8384,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="39" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -8227,7 +8396,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="40" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -8239,7 +8408,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -8251,7 +8420,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="42" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -8263,7 +8432,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="43" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -8275,7 +8444,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="44" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -8287,7 +8456,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="45" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -8299,7 +8468,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="46" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -8311,7 +8480,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="47" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -8323,7 +8492,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="48" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B48" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -8335,7 +8504,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B49" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -8347,7 +8516,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B50" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -8359,7 +8528,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B51" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -8371,8 +8540,8 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>4.12</v>
       </c>
@@ -8386,7 +8555,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B54" s="4">
         <v>4.12</v>
       </c>
@@ -8397,7 +8566,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B55" s="4">
         <v>4.12</v>
       </c>
@@ -8408,7 +8577,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B56" s="4">
         <v>4.12</v>
       </c>
@@ -8419,7 +8588,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B57" s="4">
         <v>4.12</v>
       </c>
@@ -8430,7 +8599,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B58" s="4">
         <v>4.12</v>
       </c>
@@ -8441,7 +8610,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B59" s="4">
         <v>4.12</v>
       </c>
@@ -8452,7 +8621,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B60" s="4">
         <v>4.12</v>
       </c>
@@ -8463,7 +8632,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B61" s="4">
         <v>4.12</v>
       </c>
@@ -8474,7 +8643,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B62" s="4">
         <v>4.12</v>
       </c>
@@ -8485,7 +8654,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B63" s="4">
         <v>4.12</v>
       </c>
@@ -8496,7 +8665,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B64" s="4">
         <v>4.12</v>
       </c>
@@ -8507,7 +8676,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B65" s="4">
         <v>4.12</v>
       </c>
@@ -8518,7 +8687,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B66" s="4">
         <v>4.12</v>
       </c>
@@ -8529,7 +8698,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B67" s="4">
         <v>4.12</v>
       </c>
@@ -8540,7 +8709,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B68" s="4">
         <v>4.12</v>
       </c>
@@ -8551,8 +8720,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>4.1500000000000004</v>
       </c>
@@ -8566,7 +8735,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B71" s="4">
         <v>4.1500000000000004</v>
       </c>
@@ -8577,7 +8746,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B72" s="4">
         <v>4.1500000000000004</v>
       </c>
@@ -8588,7 +8757,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B73" s="4">
         <v>4.1500000000000004</v>
       </c>
@@ -8599,7 +8768,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B74" s="4">
         <v>4.1500000000000004</v>
       </c>
@@ -8610,7 +8779,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B75" s="4">
         <v>4.1500000000000004</v>
       </c>
@@ -8621,8 +8790,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>4.17</v>
       </c>
@@ -8636,7 +8805,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B78" s="4">
         <v>4.17</v>
       </c>
@@ -8647,7 +8816,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B79" s="4">
         <v>4.17</v>
       </c>
@@ -8658,8 +8827,8 @@
         <v>243</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="81" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>4.1900000000000004</v>
       </c>
@@ -8670,7 +8839,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B82" s="4">
         <v>4.1900000000000004</v>
       </c>
@@ -8678,7 +8847,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
         <v>4.1900000000000004</v>
       </c>
@@ -8686,8 +8855,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="27">
         <v>4.2</v>
       </c>
@@ -8701,7 +8870,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B86" s="27">
         <v>4.2</v>
       </c>
@@ -8709,7 +8878,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B87" s="27">
         <v>4.2</v>
       </c>
@@ -8717,7 +8886,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B88" s="27">
         <v>4.2</v>
       </c>
@@ -8725,7 +8894,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B89" s="27">
         <v>4.2</v>
       </c>
@@ -8733,7 +8902,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B90" s="27">
         <v>4.2</v>
       </c>
@@ -8741,7 +8910,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B91" s="27">
         <v>4.2</v>
       </c>
@@ -8749,8 +8918,8 @@
         <v>252</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>4.22</v>
       </c>
@@ -8770,7 +8939,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>4.2300000000000004</v>
       </c>
@@ -8790,7 +8959,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>4.24</v>
       </c>
@@ -8807,7 +8976,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>4.24</v>
       </c>
@@ -8824,7 +8993,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>4.24</v>
       </c>
@@ -8841,7 +9010,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>4.25</v>
       </c>
@@ -8855,7 +9024,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>4.25</v>
       </c>
@@ -8869,7 +9038,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="100" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>4.25</v>
       </c>
@@ -8883,7 +9052,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="101" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>4.25</v>
       </c>
@@ -8897,7 +9066,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>4.26</v>
       </c>
@@ -8908,7 +9077,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>4.2699999999999996</v>
       </c>
@@ -8919,7 +9088,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>4.28</v>
       </c>
@@ -8936,7 +9105,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>4.28</v>
       </c>
@@ -8953,7 +9122,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>4.29</v>
       </c>
@@ -8970,7 +9139,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>4.3099999999999996</v>
       </c>
@@ -8987,7 +9156,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>4.33</v>
       </c>
@@ -9007,7 +9176,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>4.33</v>
       </c>
@@ -9027,7 +9196,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>4.34</v>
       </c>
@@ -9041,7 +9210,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>4.3499999999999996</v>
       </c>
@@ -9052,7 +9221,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>4.3600000000000003</v>
       </c>
@@ -9069,7 +9238,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="113" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>4.38</v>
       </c>
@@ -9086,7 +9255,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="114" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B114" s="4">
         <v>4.38</v>
       </c>
@@ -9100,7 +9269,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="115" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B115" s="4">
         <v>4.38</v>
       </c>
@@ -9114,7 +9283,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="116" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B116" s="4">
         <v>4.38</v>
       </c>
@@ -9128,7 +9297,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B117" s="4">
         <v>4.38</v>
       </c>
@@ -9142,7 +9311,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="118" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>4.38</v>
       </c>
@@ -9159,7 +9328,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B119" s="4">
         <v>4.38</v>
       </c>
@@ -9173,7 +9342,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B120" s="4">
         <v>4.38</v>
       </c>
@@ -9187,7 +9356,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B121" s="4">
         <v>4.38</v>
       </c>
@@ -9201,7 +9370,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="122" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B122" s="4">
         <v>4.38</v>
       </c>
@@ -9215,7 +9384,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A123" s="27">
         <v>4.4000000000000004</v>
       </c>
@@ -9235,7 +9404,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="124" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B124" s="27">
         <v>4.4000000000000004</v>
       </c>
@@ -9252,8 +9421,8 @@
         <v>298</v>
       </c>
     </row>
-    <row r="125" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="126" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>4.42</v>
       </c>
@@ -9270,7 +9439,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="127" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>4.42</v>
       </c>
@@ -9288,7 +9457,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="128" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>4.42</v>
       </c>
@@ -9306,7 +9475,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>4.42</v>
       </c>
@@ -9324,7 +9493,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>4.42</v>
       </c>
@@ -9342,7 +9511,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>4.42</v>
       </c>
@@ -9360,7 +9529,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>4.42</v>
       </c>
@@ -9378,7 +9547,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>4.42</v>
       </c>
@@ -9396,12 +9565,12 @@
         <v>305</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E134" s="4" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -9418,7 +9587,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -9435,7 +9604,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -9452,7 +9621,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -9469,7 +9638,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -9486,7 +9655,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -9503,7 +9672,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -9520,8 +9689,8 @@
         <v>312</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="143" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>4.45</v>
       </c>
@@ -9532,8 +9701,8 @@
         <v>313</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="145" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="145" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>4.46</v>
       </c>
@@ -9547,7 +9716,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="146" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>4.47</v>
       </c>
@@ -9558,7 +9727,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="147" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>4.4800000000000004</v>
       </c>
@@ -9572,7 +9741,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="148" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>4.49</v>
       </c>
@@ -9583,7 +9752,7 @@
         <v>4.49</v>
       </c>
     </row>
-    <row r="149" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A149" s="27">
         <v>4.5</v>
       </c>
@@ -9594,7 +9763,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="150" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>4.51</v>
       </c>
@@ -9605,8 +9774,8 @@
         <v>321</v>
       </c>
     </row>
-    <row r="151" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="152" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>4.5199999999999996</v>
       </c>
@@ -9617,16 +9786,16 @@
         <v>322</v>
       </c>
     </row>
-    <row r="153" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B154" s="34" t="s">
         <v>897</v>
       </c>
       <c r="C154" s="34"/>
       <c r="D154" s="34"/>
     </row>
-    <row r="155" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>4.1399999999999997</v>
       </c>
@@ -9637,7 +9806,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="157" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>4.21</v>
       </c>
@@ -9648,7 +9817,7 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="158" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>4.3899999999999997</v>
       </c>
@@ -9659,7 +9828,7 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="159" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>4.3899999999999997</v>
       </c>
@@ -9670,7 +9839,7 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="160" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>4.41</v>
       </c>
@@ -9681,7 +9850,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="161" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>4.53</v>
       </c>
@@ -9695,7 +9864,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="162" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B162" s="4">
         <f>+B161+1</f>
         <v>2</v>
@@ -9707,7 +9876,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="163" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B163" s="4">
         <f>+B162+1</f>
         <v>3</v>
@@ -9719,7 +9888,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="164" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B164" s="4">
         <f>+B163+1</f>
         <v>4</v>
@@ -9731,7 +9900,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="165" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B165" s="4">
         <f>+B164+1</f>
         <v>5</v>
@@ -9743,7 +9912,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="166" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B166" s="4">
         <f>+B165+1</f>
         <v>6</v>
@@ -9755,7 +9924,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>4.54</v>
       </c>
@@ -9769,7 +9938,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="168" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>4.54</v>
       </c>
@@ -9783,56 +9952,56 @@
         <v>336</v>
       </c>
     </row>
-    <row r="169" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="171" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="172" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="173" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="174" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="175" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="176" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="177" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="178" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="179" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="180" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="181" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="182" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="183" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="184" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="185" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="186" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="187" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="188" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="189" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="190" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="191" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="192" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="193" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="194" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="195" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="196" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="197" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="198" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="199" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="200" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="201" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="202" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="203" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="204" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="205" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="206" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="207" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="208" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="209" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="210" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="211" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="212" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="213" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="214" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="215" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="216" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="217" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="218" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="169" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="172" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="177" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="178" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="179" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="180" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="181" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="182" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="183" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="184" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="185" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="186" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="187" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="188" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="189" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="190" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="191" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="192" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="193" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="194" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="195" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="196" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="197" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="198" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="199" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="200" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="201" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="202" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="203" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="204" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="205" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="206" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="207" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="208" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="209" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="210" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="211" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="212" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="213" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="214" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="215" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="216" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="217" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="218" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9850,28 +10019,28 @@
       <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="C3" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>340</v>
       </c>
@@ -9889,7 +10058,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5.4</v>
       </c>
@@ -9906,7 +10075,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5.4</v>
       </c>
@@ -9923,7 +10092,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5.5</v>
       </c>
@@ -9940,7 +10109,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>5.6</v>
       </c>
@@ -9957,7 +10126,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5.7</v>
       </c>
@@ -9971,7 +10140,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>5.8</v>
       </c>
@@ -9988,7 +10157,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>5.9</v>
       </c>
@@ -10005,7 +10174,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>5.0999999999999996</v>
       </c>
@@ -10028,7 +10197,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>5.0999999999999996</v>
       </c>
@@ -10051,7 +10220,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>5.0999999999999996</v>
       </c>
@@ -10074,7 +10243,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>5.1100000000000003</v>
       </c>
@@ -10082,7 +10251,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>5.12</v>
       </c>
@@ -10096,7 +10265,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>5.13</v>
       </c>
@@ -10116,7 +10285,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>5.13</v>
       </c>
@@ -10136,7 +10305,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>5.14</v>
       </c>
@@ -10156,7 +10325,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>5.15</v>
       </c>
@@ -10170,7 +10339,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>5.15</v>
       </c>
@@ -10184,7 +10353,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>5.15</v>
       </c>
@@ -10198,7 +10367,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>5.16</v>
       </c>
@@ -10209,7 +10378,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>5.17</v>
       </c>
@@ -10220,7 +10389,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>5.17</v>
       </c>
@@ -10231,7 +10400,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>5.17</v>
       </c>
@@ -10242,7 +10411,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>5.17</v>
       </c>
@@ -10253,7 +10422,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>5.17</v>
       </c>
@@ -10264,7 +10433,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>5.18</v>
       </c>
@@ -10275,7 +10444,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>5.19</v>
       </c>
@@ -10286,7 +10455,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>5.2</v>
       </c>
@@ -10300,7 +10469,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>5.21</v>
       </c>
@@ -10323,7 +10492,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C34" s="4" t="s">
         <v>392</v>
       </c>
@@ -10337,7 +10506,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C35" s="4" t="s">
         <v>393</v>
       </c>
@@ -10354,7 +10523,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C36" s="4" t="s">
         <v>394</v>
       </c>
@@ -10368,7 +10537,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C37" s="4" t="s">
         <v>395</v>
       </c>
@@ -10382,7 +10551,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C38" s="4" t="s">
         <v>1021</v>
       </c>
@@ -10396,7 +10565,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C39" s="4" t="s">
         <v>396</v>
       </c>
@@ -10407,7 +10576,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>5.24</v>
       </c>
@@ -10421,11 +10590,11 @@
         <v>399</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10443,25 +10612,25 @@
       <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>400</v>
       </c>
@@ -10469,7 +10638,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -10487,7 +10656,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>6.2</v>
       </c>
@@ -10504,7 +10673,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>403</v>
       </c>
@@ -10518,7 +10687,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>404</v>
       </c>
@@ -10532,7 +10701,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>405</v>
       </c>
@@ -10546,7 +10715,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
         <v>606</v>
       </c>
@@ -10557,7 +10726,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>406</v>
       </c>
@@ -10568,7 +10737,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
         <v>407</v>
       </c>
@@ -10579,7 +10748,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
         <v>408</v>
       </c>
@@ -10590,7 +10759,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
         <v>1026</v>
       </c>
@@ -10604,7 +10773,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
         <v>409</v>
       </c>
@@ -10618,7 +10787,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
         <v>410</v>
       </c>
@@ -10632,13 +10801,13 @@
         <v>987</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>6.3</v>
       </c>
@@ -10649,7 +10818,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C20" s="4" t="s">
         <v>415</v>
       </c>
@@ -10657,8 +10826,8 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>6.4</v>
       </c>
@@ -10666,8 +10835,8 @@
         <v>975</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>6.5</v>
       </c>
@@ -10684,7 +10853,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>6.5</v>
       </c>
@@ -10701,7 +10870,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>6.5</v>
       </c>
@@ -10715,7 +10884,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>6.5</v>
       </c>
@@ -10729,7 +10898,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>6.5</v>
       </c>
@@ -10743,7 +10912,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>6.5</v>
       </c>
@@ -10757,7 +10926,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>6.5</v>
       </c>
@@ -10771,7 +10940,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>6.5</v>
       </c>
@@ -10785,7 +10954,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>6.5</v>
       </c>
@@ -10799,7 +10968,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>6.5</v>
       </c>
@@ -10813,7 +10982,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>6.5</v>
       </c>
@@ -10827,7 +10996,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>6.5</v>
       </c>
@@ -10841,7 +11010,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>6.5</v>
       </c>
@@ -10855,7 +11024,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>6.5</v>
       </c>
@@ -10869,8 +11038,8 @@
         <v>367</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>6.13</v>
       </c>
@@ -10878,37 +11047,37 @@
         <v>457</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C40" s="4" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C41" s="4" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C42" s="4" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C43" s="4" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C44" s="4" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C45" s="4" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C46" s="4" t="s">
         <v>464</v>
       </c>
@@ -10916,7 +11085,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C47" s="4" t="s">
         <v>464</v>
       </c>
@@ -10924,7 +11093,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C48" s="4" t="s">
         <v>464</v>
       </c>
@@ -10932,11 +11101,11 @@
         <v>467</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="28">
         <v>6.6</v>
       </c>
@@ -10945,8 +11114,8 @@
         <v>431</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>6.7</v>
       </c>
@@ -10954,42 +11123,42 @@
         <v>432</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C56" s="4" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C57" s="4" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C58" s="4" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C59" s="4" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C60" s="4" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C61" s="4" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="4" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" s="4" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="4" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>6.8</v>
       </c>
@@ -10997,7 +11166,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>6.8</v>
       </c>
@@ -11005,8 +11174,8 @@
         <v>360</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>6.9</v>
       </c>
@@ -11015,8 +11184,8 @@
       </c>
       <c r="E66" s="41"/>
     </row>
-    <row r="67" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="27">
         <v>6.1</v>
       </c>
@@ -11024,12 +11193,12 @@
         <v>441</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C69" s="4" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>6.11</v>
       </c>
@@ -11040,8 +11209,8 @@
         <v>444</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>6.12</v>
       </c>
@@ -11052,7 +11221,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C73" s="4" t="s">
         <v>446</v>
       </c>
@@ -11060,7 +11229,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C74" s="4" t="s">
         <v>447</v>
       </c>
@@ -11068,7 +11237,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C75" s="4" t="s">
         <v>442</v>
       </c>
@@ -11076,7 +11245,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C76" s="4" t="s">
         <v>448</v>
       </c>
@@ -11084,7 +11253,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C77" s="4" t="s">
         <v>449</v>
       </c>
@@ -11092,7 +11261,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C78" s="4" t="s">
         <v>450</v>
       </c>
@@ -11100,7 +11269,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C79" s="4" t="s">
         <v>451</v>
       </c>
@@ -11108,7 +11277,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C80" s="4" t="s">
         <v>452</v>
       </c>
@@ -11116,7 +11285,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="81" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C81" s="4" t="s">
         <v>453</v>
       </c>
@@ -11124,7 +11293,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="82" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C82" s="4" t="s">
         <v>454</v>
       </c>
@@ -11132,7 +11301,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="83" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C83" s="4" t="s">
         <v>455</v>
       </c>
@@ -11140,7 +11309,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="84" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C84" s="4" t="s">
         <v>456</v>
       </c>
@@ -11148,8 +11317,8 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="85" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="86" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>6.14</v>
       </c>
@@ -11172,7 +11341,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="87" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C87" s="4" t="s">
         <v>469</v>
       </c>
@@ -11189,7 +11358,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="88" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C88" s="39" t="s">
         <v>470</v>
       </c>
@@ -11203,7 +11372,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="89" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C89" s="4" t="s">
         <v>471</v>
       </c>
@@ -11238,7 +11407,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="90" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C90" s="4" t="s">
         <v>472</v>
       </c>
@@ -11267,7 +11436,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="C91" s="4" t="s">
         <v>473</v>
       </c>
@@ -11282,7 +11451,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="C92" s="5" t="s">
         <v>474</v>
       </c>
@@ -11300,7 +11469,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="C93" s="5" t="s">
         <v>983</v>
       </c>
@@ -11315,7 +11484,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="C94" s="4" t="s">
         <v>475</v>
       </c>
@@ -11330,7 +11499,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="C95" s="4" t="s">
         <v>971</v>
       </c>
@@ -11351,7 +11520,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="C96" s="5" t="s">
         <v>768</v>
       </c>
@@ -11384,7 +11553,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="97" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C97" s="4" t="s">
         <v>476</v>
       </c>
@@ -11399,7 +11568,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="98" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C98" s="4" t="s">
         <v>477</v>
       </c>
@@ -11414,7 +11583,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="99" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C99" s="4" t="s">
         <v>478</v>
       </c>
@@ -11429,7 +11598,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="100" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C100" s="4" t="s">
         <v>479</v>
       </c>
@@ -11444,7 +11613,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="101" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C101" s="4" t="s">
         <v>480</v>
       </c>
@@ -11459,12 +11628,12 @@
         <v>974</v>
       </c>
     </row>
-    <row r="102" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:8" ht="18" x14ac:dyDescent="0.25">
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C103" s="25" t="s">
         <v>904</v>
       </c>
@@ -11472,7 +11641,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C104" s="25" t="s">
         <v>482</v>
       </c>
@@ -11487,28 +11656,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="F3" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -11526,8 +11695,8 @@
         <v>412</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>7.2</v>
       </c>
@@ -11541,7 +11710,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>910</v>
       </c>
@@ -11552,7 +11721,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>483</v>
       </c>
@@ -11566,7 +11735,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
         <v>484</v>
       </c>
@@ -11580,7 +11749,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>485</v>
       </c>
@@ -11594,7 +11763,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
         <v>486</v>
       </c>
@@ -11614,7 +11783,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
         <v>487</v>
       </c>
@@ -11628,7 +11797,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
         <v>488</v>
       </c>
@@ -11639,7 +11808,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
         <v>489</v>
       </c>
@@ -11653,7 +11822,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
         <v>490</v>
       </c>
@@ -11664,7 +11833,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
         <v>419</v>
       </c>
@@ -11675,8 +11844,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>7.3</v>
       </c>
@@ -11684,7 +11853,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C20" s="4" t="s">
         <v>492</v>
       </c>
@@ -11692,8 +11861,8 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>7.4</v>
       </c>
@@ -11704,7 +11873,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
         <v>493</v>
       </c>
@@ -11712,7 +11881,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
         <v>71</v>
       </c>
@@ -11720,7 +11889,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
         <v>281</v>
       </c>
@@ -11728,7 +11897,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>7.5</v>
       </c>
@@ -11736,8 +11905,8 @@
         <v>494</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>7.6</v>
       </c>
@@ -11751,7 +11920,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C29" s="4" t="s">
         <v>496</v>
       </c>
@@ -11768,7 +11937,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C30" s="4" t="s">
         <v>497</v>
       </c>
@@ -11776,22 +11945,22 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C32" s="4" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C33" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>7.7</v>
       </c>
@@ -11799,8 +11968,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>7.8</v>
       </c>
@@ -11817,7 +11986,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C37" s="4" t="s">
         <v>501</v>
       </c>
@@ -11831,8 +12000,8 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>7.9</v>
       </c>
@@ -11849,7 +12018,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C40" s="4" t="s">
         <v>505</v>
       </c>
@@ -11863,8 +12032,8 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>507</v>
       </c>
@@ -11872,33 +12041,33 @@
         <v>508</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C43" s="4" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C44" s="4" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C45" s="4" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C46" s="4" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C47" s="4" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>7.11</v>
       </c>
@@ -11909,7 +12078,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C50" s="4" t="s">
         <v>326</v>
       </c>
@@ -11917,7 +12086,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C51" s="4" t="s">
         <v>515</v>
       </c>
@@ -11925,7 +12094,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C52" s="4" t="s">
         <v>514</v>
       </c>
@@ -11933,7 +12102,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C53" s="4" t="s">
         <v>326</v>
       </c>
@@ -11941,7 +12110,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C54" s="4" t="s">
         <v>515</v>
       </c>
@@ -11949,8 +12118,8 @@
         <v>378</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>7.12</v>
       </c>
@@ -11961,7 +12130,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C57" s="4" t="s">
         <v>517</v>
       </c>
@@ -11969,8 +12138,8 @@
         <v>518</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>7.13</v>
       </c>
@@ -11984,7 +12153,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C60" s="4" t="s">
         <v>347</v>
       </c>
@@ -11995,8 +12164,8 @@
         <v>520</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>7.14</v>
       </c>
@@ -12010,7 +12179,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C63" s="4" t="s">
         <v>347</v>
       </c>
@@ -12021,8 +12190,8 @@
         <v>522</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>7.15</v>
       </c>
@@ -12031,12 +12200,12 @@
       </c>
       <c r="D65" s="28"/>
     </row>
-    <row r="66" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C66" s="4" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>7.16</v>
       </c>
@@ -12047,7 +12216,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>7.16</v>
       </c>
@@ -12058,7 +12227,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>7.16</v>
       </c>
@@ -12069,7 +12238,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>7.16</v>
       </c>
@@ -12080,7 +12249,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>7.16</v>
       </c>
@@ -12091,7 +12260,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>7.16</v>
       </c>
@@ -12102,15 +12271,15 @@
         <v>277</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C74" s="28" t="s">
         <v>530</v>
       </c>
       <c r="D74" s="28"/>
     </row>
-    <row r="75" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="27">
         <v>9.1999999999999993</v>
       </c>
@@ -12118,8 +12287,8 @@
         <v>612</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C78" s="4" t="s">
         <v>277</v>
       </c>
@@ -12133,7 +12302,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C79" s="4" t="s">
         <v>277</v>
       </c>
@@ -12147,7 +12316,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C80" s="4" t="s">
         <v>277</v>
       </c>
@@ -12161,8 +12330,8 @@
         <v>616</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>9.2100000000000009</v>
       </c>
@@ -12179,7 +12348,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C83" s="4" t="s">
         <v>618</v>
       </c>
@@ -12193,7 +12362,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C84" s="4" t="s">
         <v>619</v>
       </c>
@@ -12207,7 +12376,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C85" s="4" t="s">
         <v>620</v>
       </c>
@@ -12221,8 +12390,8 @@
         <v>622</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>9.2100000000000009</v>
       </c>
@@ -12236,7 +12405,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C88" s="4" t="s">
         <v>624</v>
       </c>
@@ -12247,7 +12416,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C89" s="4" t="s">
         <v>625</v>
       </c>
@@ -12258,7 +12427,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C90" s="4" t="s">
         <v>626</v>
       </c>
@@ -12269,7 +12438,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C91" s="4" t="s">
         <v>627</v>
       </c>
@@ -12280,7 +12449,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C92" s="4" t="s">
         <v>628</v>
       </c>
@@ -12291,8 +12460,8 @@
         <v>841</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C94" s="4" t="s">
         <v>630</v>
       </c>
@@ -12300,7 +12469,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C95" s="4" t="s">
         <v>631</v>
       </c>
@@ -12308,7 +12477,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C96" s="4" t="s">
         <v>632</v>
       </c>
@@ -12316,7 +12485,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C97" s="4" t="s">
         <v>633</v>
       </c>
@@ -12324,7 +12493,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C98" s="4" t="s">
         <v>634</v>
       </c>
@@ -12332,7 +12501,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C99" s="4" t="s">
         <v>635</v>
       </c>
@@ -12340,7 +12509,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C100" s="4" t="s">
         <v>636</v>
       </c>
@@ -12348,7 +12517,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C101" s="4" t="s">
         <v>637</v>
       </c>
@@ -12356,7 +12525,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C102" s="4" t="s">
         <v>638</v>
       </c>
@@ -12364,7 +12533,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C103" s="4" t="s">
         <v>1141</v>
       </c>
@@ -12372,7 +12541,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C104" s="4" t="s">
         <v>639</v>
       </c>
@@ -12380,8 +12549,8 @@
         <v>841</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>9.2200000000000006</v>
       </c>
@@ -12401,7 +12570,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>947</v>
       </c>
@@ -12415,7 +12584,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B108" s="4" t="s">
         <v>924</v>
       </c>
@@ -12429,7 +12598,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B109" s="4" t="s">
         <v>925</v>
       </c>
@@ -12443,7 +12612,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>929</v>
       </c>
@@ -12460,7 +12629,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B111" s="4" t="s">
         <v>926</v>
       </c>
@@ -12474,7 +12643,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C112" s="4" t="s">
         <v>645</v>
       </c>
@@ -12485,7 +12654,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="113" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>928</v>
       </c>
@@ -12502,7 +12671,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="114" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>931</v>
       </c>
@@ -12519,7 +12688,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="115" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>933</v>
       </c>
@@ -12551,7 +12720,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="116" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>940</v>
       </c>
@@ -12565,7 +12734,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="117" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>941</v>
       </c>
@@ -12579,7 +12748,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="118" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>942</v>
       </c>
@@ -12596,7 +12765,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="119" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>944</v>
       </c>
@@ -12610,7 +12779,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="120" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C120" s="5" t="s">
         <v>949</v>
       </c>
@@ -12621,7 +12790,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="121" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>945</v>
       </c>
@@ -12647,7 +12816,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="122" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>946</v>
       </c>
@@ -12661,8 +12830,8 @@
         <v>841</v>
       </c>
     </row>
-    <row r="123" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="124" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>9.23</v>
       </c>
@@ -12676,7 +12845,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="125" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C125" s="4" t="s">
         <v>656</v>
       </c>
@@ -12687,7 +12856,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="126" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C126" s="4" t="s">
         <v>657</v>
       </c>
@@ -12698,7 +12867,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="127" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C127" s="4" t="s">
         <v>658</v>
       </c>
@@ -12709,7 +12878,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="128" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C128" s="4" t="s">
         <v>659</v>
       </c>
@@ -12720,7 +12889,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="129" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C129" s="4" t="s">
         <v>660</v>
       </c>
@@ -12731,7 +12900,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="130" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C130" s="4" t="s">
         <v>661</v>
       </c>
@@ -12742,8 +12911,8 @@
         <v>654</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="132" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>9.24</v>
       </c>
@@ -12757,7 +12926,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="133" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C133" s="4" t="s">
         <v>662</v>
       </c>
@@ -12768,8 +12937,8 @@
         <v>654</v>
       </c>
     </row>
-    <row r="134" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="135" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>13.6</v>
       </c>
@@ -12783,7 +12952,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E136" s="4" t="s">
         <v>882</v>
       </c>
@@ -12791,7 +12960,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E137" s="4" t="s">
         <v>367</v>
       </c>
@@ -12799,7 +12968,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="138" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E138" s="4" t="s">
         <v>360</v>
       </c>
@@ -12807,7 +12976,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="139" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>13.5</v>
       </c>
@@ -12818,185 +12987,185 @@
         <v>884</v>
       </c>
     </row>
-    <row r="140" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="G140" s="4" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="141" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="G141" s="4" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="142" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="G142" s="4" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="143" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="G143" s="4" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="144" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="G144" s="4" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="145" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="145" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="G145" s="4" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="146" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="147" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="148" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="149" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="150" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="151" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="152" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="153" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="157" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="159" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="160" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="161" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="162" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="163" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="164" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="165" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="166" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="167" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="168" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="169" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="170" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="171" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="172" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="173" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="174" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="175" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="176" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="177" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="178" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="179" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="180" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="181" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="182" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="183" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="184" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="185" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="186" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="187" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="188" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="189" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="190" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="191" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="192" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="193" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="194" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="195" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="196" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="197" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="198" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="199" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="200" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="201" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="202" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="203" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="204" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="205" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="206" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="207" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="208" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="209" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="210" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="211" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="212" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="213" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="214" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="215" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="216" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="217" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="218" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="219" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="220" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="221" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="222" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="223" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="224" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="225" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="226" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="227" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="228" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="229" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="230" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="231" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="232" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="233" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="234" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="235" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="236" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="237" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="238" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="239" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="240" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="241" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="242" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="243" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="244" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="245" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="246" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="247" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="248" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="249" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="250" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="251" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="252" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="253" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="254" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="255" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="256" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="257" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="258" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="259" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="260" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="261" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="262" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="263" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="264" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="265" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="266" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="267" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="268" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="269" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="270" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="271" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="272" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="273" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="274" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="275" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="276" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="277" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="278" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="279" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="280" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="281" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="282" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="283" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="284" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="285" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="286" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="287" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="288" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="289" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="290" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="291" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="292" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="293" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="294" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="146" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="147" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="149" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="150" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="161" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="162" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="163" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="164" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="165" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="166" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="167" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="168" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="169" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="170" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="171" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="172" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="173" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="174" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="175" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="176" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="177" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="178" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="179" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="180" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="181" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="182" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="183" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="184" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="185" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="186" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="187" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="188" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="189" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="190" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="191" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="192" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="193" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="194" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="195" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="196" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="197" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="198" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="199" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="200" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="201" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="202" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="203" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="204" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="205" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="206" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="207" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="208" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="209" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="210" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="211" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="212" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="213" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="214" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="215" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="216" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="217" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="218" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="219" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="220" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="221" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="222" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="223" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="224" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="225" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="226" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="227" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="228" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="229" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="230" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="231" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="232" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="233" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="234" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="235" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="236" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="237" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="238" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="239" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="240" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="241" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="242" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="243" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="244" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="245" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="246" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="247" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="248" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="249" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="250" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="251" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="252" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="253" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="254" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="255" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="256" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="257" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="258" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="259" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="260" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="261" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="262" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="263" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="264" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="265" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="266" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="267" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="268" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="269" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="270" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="271" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="272" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="273" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="274" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="275" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="276" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="277" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="278" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="279" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="280" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="281" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="282" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="283" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="284" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="285" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="286" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="287" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="288" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="289" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="290" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="291" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="292" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="293" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="294" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13014,28 +13183,28 @@
       <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>531</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -13053,7 +13222,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>8.8000000000000007</v>
       </c>
@@ -13067,7 +13236,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <f>+B6+1</f>
         <v>2</v>
@@ -13079,7 +13248,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <f t="shared" ref="B8:B32" si="0">+B7+1</f>
         <v>3</v>
@@ -13091,7 +13260,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -13103,7 +13272,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -13115,7 +13284,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -13127,7 +13296,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -13139,7 +13308,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -13151,7 +13320,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -13163,7 +13332,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -13175,7 +13344,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -13187,7 +13356,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -13199,7 +13368,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -13211,7 +13380,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -13223,7 +13392,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="20" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -13235,7 +13404,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -13247,7 +13416,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -13259,7 +13428,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="23" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -13271,7 +13440,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="24" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -13283,7 +13452,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -13295,7 +13464,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="26" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -13307,7 +13476,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="27" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -13319,7 +13488,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="28" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -13331,7 +13500,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="29" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -13343,7 +13512,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="30" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -13355,7 +13524,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="31" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -13367,7 +13536,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -13379,8 +13548,8 @@
         <v>360</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>8.9</v>
       </c>
@@ -13394,7 +13563,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>8.9</v>
       </c>
@@ -13408,8 +13577,8 @@
         <v>559</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="27">
         <v>8.1</v>
       </c>
@@ -13423,8 +13592,8 @@
         <v>561</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>8.11</v>
       </c>
@@ -13438,8 +13607,8 @@
         <v>563</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>8.1199999999999992</v>
       </c>
@@ -13453,8 +13622,8 @@
         <v>565</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>8.1300000000000008</v>
       </c>
@@ -13468,7 +13637,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C44" s="4" t="s">
         <v>535</v>
       </c>
@@ -13479,7 +13648,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C45" s="4" t="s">
         <v>363</v>
       </c>
@@ -13490,8 +13659,8 @@
         <v>567</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>8.14</v>
       </c>
@@ -13505,7 +13674,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C48" s="4" t="s">
         <v>569</v>
       </c>
@@ -13516,8 +13685,8 @@
         <v>570</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>8.15</v>
       </c>
@@ -13528,9 +13697,9 @@
         <v>570</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>8.23</v>
       </c>
@@ -13544,7 +13713,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E54" s="4" t="s">
         <v>575</v>
       </c>
@@ -13552,7 +13721,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E55" s="4" t="s">
         <v>272</v>
       </c>
@@ -13560,8 +13729,8 @@
         <v>576</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>8.24</v>
       </c>
@@ -13569,58 +13738,58 @@
         <v>577</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C58" s="4" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C59" s="4" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C60" s="4" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C61" s="4" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C62" s="4" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C63" s="4" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C64" s="4" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C65" s="4" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C66" s="4" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C67" s="4" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>8.25</v>
       </c>
@@ -13631,7 +13800,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E70" s="4" t="s">
         <v>589</v>
       </c>
@@ -13639,7 +13808,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E71" s="4" t="s">
         <v>590</v>
       </c>
@@ -13647,7 +13816,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>8.26</v>
       </c>
@@ -13658,7 +13827,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="E73" s="4" t="s">
         <v>592</v>
       </c>
@@ -13666,7 +13835,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="E74" s="4" t="s">
         <v>590</v>
       </c>
@@ -13674,7 +13843,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="E75" s="4" t="s">
         <v>593</v>
       </c>
@@ -13682,7 +13851,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="E76" s="4" t="s">
         <v>592</v>
       </c>
@@ -13690,7 +13859,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="E77" s="4" t="s">
         <v>594</v>
       </c>
@@ -13698,8 +13867,8 @@
         <v>353</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>8.27</v>
       </c>
@@ -13713,7 +13882,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C80" s="4" t="s">
         <v>596</v>
       </c>
@@ -13724,8 +13893,8 @@
         <v>353</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>8.2799999999999994</v>
       </c>
@@ -13739,7 +13908,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>8.2899999999999991</v>
       </c>
@@ -13753,7 +13922,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="27">
         <v>8.3000000000000007</v>
       </c>
@@ -13767,7 +13936,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>8.31</v>
       </c>
@@ -13778,13 +13947,13 @@
         <v>574</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C87" s="38" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>8.32</v>
       </c>
@@ -13795,7 +13964,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C89" s="4" t="s">
         <v>560</v>
       </c>
@@ -13803,7 +13972,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C90" s="4" t="s">
         <v>603</v>
       </c>
@@ -13811,7 +13980,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C91" s="4" t="s">
         <v>604</v>
       </c>
@@ -13819,7 +13988,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C92" s="4" t="s">
         <v>541</v>
       </c>
@@ -13827,7 +13996,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>8.33</v>
       </c>
@@ -13835,13 +14004,13 @@
         <v>605</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E94" s="4" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>8.34</v>
       </c>
@@ -13849,12 +14018,12 @@
         <v>493</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E97" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="27">
         <v>8.35</v>
       </c>
@@ -13862,8 +14031,8 @@
         <v>419</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="32">
         <v>9.16</v>
       </c>
@@ -13880,7 +14049,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>9.17</v>
       </c>
@@ -13894,7 +14063,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>9.17</v>
       </c>
@@ -13908,13 +14077,13 @@
         <v>611</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="104" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="105" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="107" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="108" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -13932,27 +14101,26 @@
       <selection pane="bottomRight" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="1" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -13973,7 +14141,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>12.2</v>
       </c>
@@ -13984,7 +14152,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>12.3</v>
       </c>
@@ -13998,7 +14166,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>666</v>
       </c>
@@ -14009,7 +14177,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>666</v>
       </c>
@@ -14020,7 +14188,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
         <v>666</v>
       </c>
@@ -14031,8 +14199,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <v>12.4</v>
       </c>
@@ -14046,7 +14214,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C13" s="29" t="s">
         <v>674</v>
       </c>
@@ -14057,7 +14225,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C14" s="29" t="s">
         <v>675</v>
       </c>
@@ -14068,7 +14236,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C15" s="29" t="s">
         <v>676</v>
       </c>
@@ -14079,8 +14247,8 @@
         <v>672</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:14" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <v>12.5</v>
       </c>
@@ -14094,7 +14262,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C18" s="29" t="s">
         <v>682</v>
       </c>
@@ -14105,8 +14273,8 @@
         <v>615</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>12.6</v>
       </c>
@@ -14138,7 +14306,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D21" s="4" t="s">
         <v>685</v>
       </c>
@@ -14146,7 +14314,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D22" s="4" t="s">
         <v>686</v>
       </c>
@@ -14154,7 +14322,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D23" s="4" t="s">
         <v>687</v>
       </c>
@@ -14165,7 +14333,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <v>12.7</v>
       </c>
@@ -14179,7 +14347,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E25" s="4" t="s">
         <v>688</v>
       </c>
@@ -14187,7 +14355,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E26" s="4" t="s">
         <v>689</v>
       </c>
@@ -14195,7 +14363,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E27" s="4" t="s">
         <v>905</v>
       </c>
@@ -14203,7 +14371,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E28" s="4" t="s">
         <v>690</v>
       </c>
@@ -14211,7 +14379,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E29" s="4" t="s">
         <v>691</v>
       </c>
@@ -14219,7 +14387,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E30" s="4" t="s">
         <v>692</v>
       </c>
@@ -14227,7 +14395,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E31" s="4" t="s">
         <v>693</v>
       </c>
@@ -14235,7 +14403,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E32" s="4" t="s">
         <v>694</v>
       </c>
@@ -14243,7 +14411,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="33" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E33" s="4" t="s">
         <v>695</v>
       </c>
@@ -14251,7 +14419,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="34" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E34" s="4" t="s">
         <v>696</v>
       </c>
@@ -14259,7 +14427,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="35" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E35" s="4" t="s">
         <v>697</v>
       </c>
@@ -14267,7 +14435,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="36" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E36" s="4" t="s">
         <v>698</v>
       </c>
@@ -14275,7 +14443,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="37" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E37" s="4" t="s">
         <v>699</v>
       </c>
@@ -14283,7 +14451,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="38" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E38" s="4" t="s">
         <v>700</v>
       </c>
@@ -14291,7 +14459,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="39" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E39" s="4" t="s">
         <v>701</v>
       </c>
@@ -14299,7 +14467,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="40" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E40" s="4" t="s">
         <v>702</v>
       </c>
@@ -14307,7 +14475,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="41" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E41" s="4" t="s">
         <v>703</v>
       </c>
@@ -14315,7 +14483,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="42" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E42" s="4" t="s">
         <v>704</v>
       </c>
@@ -14323,7 +14491,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="43" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E43" s="4" t="s">
         <v>705</v>
       </c>
@@ -14331,7 +14499,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="44" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E44" s="4" t="s">
         <v>706</v>
       </c>
@@ -14339,7 +14507,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="45" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E45" s="4" t="s">
         <v>707</v>
       </c>
@@ -14347,7 +14515,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="46" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E46" s="4" t="s">
         <v>708</v>
       </c>
@@ -14355,7 +14523,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="47" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E47" s="4" t="s">
         <v>709</v>
       </c>
@@ -14363,7 +14531,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="48" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E48" s="4" t="s">
         <v>710</v>
       </c>
@@ -14371,7 +14539,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E49" s="4" t="s">
         <v>711</v>
       </c>
@@ -14379,7 +14547,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E50" s="4" t="s">
         <v>712</v>
       </c>
@@ -14387,7 +14555,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E51" s="4" t="s">
         <v>713</v>
       </c>
@@ -14395,7 +14563,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E52" s="4" t="s">
         <v>714</v>
       </c>
@@ -14403,7 +14571,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
         <v>715</v>
       </c>
@@ -14411,7 +14579,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="29">
         <v>12.8</v>
       </c>
@@ -14422,7 +14590,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D55" s="4" t="s">
         <v>725</v>
       </c>
@@ -14430,7 +14598,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D56" s="4" t="s">
         <v>716</v>
       </c>
@@ -14438,7 +14606,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D57" s="4" t="s">
         <v>717</v>
       </c>
@@ -14446,7 +14614,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D58" s="4" t="s">
         <v>718</v>
       </c>
@@ -14454,7 +14622,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D59" s="4" t="s">
         <v>719</v>
       </c>
@@ -14462,7 +14630,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D60" s="4" t="s">
         <v>720</v>
       </c>
@@ -14470,7 +14638,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D61" s="4" t="s">
         <v>721</v>
       </c>
@@ -14478,7 +14646,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D62" s="4" t="s">
         <v>722</v>
       </c>
@@ -14486,7 +14654,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D63" s="4" t="s">
         <v>723</v>
       </c>
@@ -14494,7 +14662,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D64" s="4" t="s">
         <v>692</v>
       </c>
@@ -14502,7 +14670,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D65" s="4" t="s">
         <v>726</v>
       </c>
@@ -14510,7 +14678,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D66" s="4" t="s">
         <v>923</v>
       </c>
@@ -14518,7 +14686,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D67" s="4" t="s">
         <v>727</v>
       </c>
@@ -14526,8 +14694,8 @@
         <v>615</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="30" t="s">
         <v>730</v>
       </c>
@@ -14536,8 +14704,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="29">
         <v>11.3</v>
       </c>
@@ -14551,7 +14719,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C72" s="29" t="s">
         <v>731</v>
       </c>
@@ -14565,7 +14733,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C73" s="29" t="s">
         <v>733</v>
       </c>
@@ -14591,7 +14759,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C74" s="29" t="s">
         <v>735</v>
       </c>
@@ -14611,7 +14779,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C75" s="29" t="s">
         <v>735</v>
       </c>
@@ -14628,7 +14796,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C76" s="29" t="s">
         <v>738</v>
       </c>
@@ -14642,7 +14810,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C77" s="29" t="s">
         <v>735</v>
       </c>
@@ -14653,7 +14821,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C78" s="29" t="s">
         <v>735</v>
       </c>
@@ -14664,7 +14832,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C79" s="29" t="s">
         <v>735</v>
       </c>
@@ -14684,7 +14852,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="80" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C80" s="29" t="s">
         <v>743</v>
       </c>
@@ -14692,7 +14860,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="81" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C81" s="29" t="s">
         <v>733</v>
       </c>
@@ -14715,7 +14883,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="82" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C82" s="29" t="s">
         <v>733</v>
       </c>
@@ -14735,7 +14903,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="83" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C83" s="29" t="s">
         <v>733</v>
       </c>
@@ -14746,7 +14914,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="84" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C84" s="29" t="s">
         <v>733</v>
       </c>
@@ -14799,7 +14967,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="85" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="F85" s="4" t="s">
         <v>749</v>
       </c>
@@ -14828,7 +14996,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="86" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C86" s="29" t="s">
         <v>733</v>
       </c>
@@ -14860,8 +15028,8 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="87" spans="1:22" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="29">
         <v>11.4</v>
       </c>
@@ -14869,32 +15037,32 @@
         <v>755</v>
       </c>
     </row>
-    <row r="89" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E89" s="4" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="90" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E90" s="4" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="91" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E91" s="4" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="92" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E92" s="4" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="93" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E93" s="4" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="94" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="29">
         <v>11.5</v>
       </c>
@@ -14911,7 +15079,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="95" spans="1:22" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:22" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C95" s="4" t="s">
         <v>761</v>
       </c>
@@ -14922,7 +15090,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="96" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C96" s="4" t="s">
         <v>758</v>
       </c>
@@ -14936,7 +15104,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C97" s="4" t="s">
         <v>759</v>
       </c>
@@ -14950,7 +15118,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C98" s="6" t="s">
         <v>906</v>
       </c>
@@ -14958,7 +15126,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C99" s="4" t="s">
         <v>760</v>
       </c>
@@ -14972,7 +15140,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C100" s="4" t="s">
         <v>907</v>
       </c>
@@ -14992,8 +15160,8 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="29">
         <v>11.6</v>
       </c>
@@ -15010,7 +15178,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C103" s="4" t="s">
         <v>762</v>
       </c>
@@ -15024,8 +15192,8 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="29">
         <v>11.7</v>
       </c>
@@ -15042,7 +15210,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C106" s="4" t="s">
         <v>764</v>
       </c>
@@ -15056,11 +15224,11 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="29">
         <v>11.8</v>
       </c>
@@ -15071,7 +15239,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C109" s="4" t="s">
         <v>263</v>
       </c>
@@ -15094,7 +15262,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C110" s="4" t="s">
         <v>263</v>
       </c>
@@ -15108,8 +15276,8 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="111" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="29">
         <v>11.9</v>
       </c>
@@ -15126,7 +15294,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="113" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C113" s="4" t="s">
         <v>378</v>
       </c>
@@ -15134,7 +15302,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="114" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C114" s="3" t="s">
         <v>502</v>
       </c>
@@ -15148,15 +15316,15 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="115" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:16" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:16" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A117" s="31">
         <v>11.1</v>
       </c>
@@ -15185,7 +15353,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="118" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C118" s="4" t="s">
         <v>771</v>
       </c>
@@ -15202,7 +15370,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="119" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C119" s="4" t="s">
         <v>771</v>
       </c>
@@ -15216,7 +15384,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="120" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C120" s="4" t="s">
         <v>771</v>
       </c>
@@ -15254,7 +15422,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="121" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H121" s="44" t="s">
         <v>1025</v>
       </c>
@@ -15283,7 +15451,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="122" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H122" s="44" t="s">
         <v>1093</v>
       </c>
@@ -15309,8 +15477,8 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="123" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A124" s="29">
         <v>11.11</v>
       </c>
@@ -15336,7 +15504,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="125" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A125" s="29">
         <v>11.12</v>
       </c>
@@ -15350,7 +15518,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="126" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C126" s="4" t="s">
         <v>776</v>
       </c>
@@ -15367,7 +15535,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="127" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C127" s="4" t="s">
         <v>776</v>
       </c>
@@ -15378,8 +15546,8 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="128" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="29">
         <v>11.13</v>
       </c>
@@ -15396,7 +15564,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="130" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C130" s="4" t="s">
         <v>780</v>
       </c>
@@ -15422,7 +15590,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="131" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C131" s="4" t="s">
         <v>780</v>
       </c>
@@ -15436,7 +15604,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="132" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C132" s="32" t="s">
         <v>780</v>
       </c>
@@ -15453,7 +15621,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="133" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C133" s="4" t="s">
         <v>780</v>
       </c>
@@ -15467,7 +15635,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="134" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C134" s="4" t="s">
         <v>780</v>
       </c>
@@ -15481,7 +15649,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="135" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C135" s="4" t="s">
         <v>780</v>
       </c>
@@ -15507,8 +15675,8 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="136" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A137" s="29">
         <v>11.14</v>
       </c>
@@ -15519,20 +15687,20 @@
         <v>787</v>
       </c>
     </row>
-    <row r="138" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="139" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="140" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A141" s="29">
         <v>11.15</v>
       </c>
@@ -15546,7 +15714,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="142" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C142" s="4" t="s">
         <v>791</v>
       </c>
@@ -15557,8 +15725,8 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="143" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A144" s="29">
         <v>11.16</v>
       </c>
@@ -15566,137 +15734,137 @@
         <v>792</v>
       </c>
     </row>
-    <row r="145" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D145" s="4" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="146" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D146" s="4" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="147" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D147" s="4" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="148" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D148" s="4" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="149" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D149" s="4" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="150" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D150" s="4" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="151" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D151" s="4" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="152" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D152" s="4" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="153" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D153" s="4" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="154" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D154" s="4" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="155" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D155" s="4" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="156" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D156" s="4" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="157" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D157" s="4" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="158" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D158" s="32" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="159" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D159" s="4" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="160" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D160" s="4" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="161" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D161" s="4" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="162" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D162" s="4" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="163" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D163" s="4" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="164" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D164" s="32" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="165" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D165" s="4" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="166" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D166" s="4" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D167" s="4" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="168" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D168" s="4" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="169" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D169" s="4" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="D170" s="4" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>11.17</v>
       </c>
@@ -15704,127 +15872,127 @@
         <v>816</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E173" s="4" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="174" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E174" s="4" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="175" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E175" s="4" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="176" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E176" s="4" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="177" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="177" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E177" s="4" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="178" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="178" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E178" s="4" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="179" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="179" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E179" s="4" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="180" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="180" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E180" s="4" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="181" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="181" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E181" s="4" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="182" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="182" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E182" s="4" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="183" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E183" s="4" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="184" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E184" s="4" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="185" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="185" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E185" s="4" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="186" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="186" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E186" s="4" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="187" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="187" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E187" s="4" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="188" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="188" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E188" s="4" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="189" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="189" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E189" s="4" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="190" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="190" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E190" s="4" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="191" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="191" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E191" s="4" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="192" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="192" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E192" s="4" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="193" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E193" s="4" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="194" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E194" s="4" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="195" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E195" s="4" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="196" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E196" s="4" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="197" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>11.18</v>
       </c>
@@ -15835,13 +16003,13 @@
         <v>840</v>
       </c>
     </row>
-    <row r="198" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="199" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="200" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="201" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="202" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="203" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="204" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="198" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="199" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="203" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15856,21 +16024,21 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>842</v>
       </c>
@@ -15880,7 +16048,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -15901,7 +16069,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>16.2</v>
       </c>
@@ -15918,7 +16086,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>848</v>
       </c>
@@ -15932,7 +16100,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>849</v>
       </c>
@@ -15946,7 +16114,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
         <v>850</v>
       </c>
@@ -15960,8 +16128,8 @@
         <v>852</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>16.399999999999999</v>
       </c>
@@ -15969,8 +16137,8 @@
         <v>853</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>16.5</v>
       </c>
@@ -15981,7 +16149,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>16.600000000000001</v>
       </c>
@@ -15989,8 +16157,8 @@
         <v>856</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16.7</v>
       </c>
@@ -16001,7 +16169,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
         <v>858</v>
       </c>
@@ -16009,8 +16177,8 @@
         <v>859</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>16.8</v>
       </c>
@@ -16021,7 +16189,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>16.899999999999999</v>
       </c>
@@ -16032,7 +16200,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>16.899999999999999</v>
       </c>
@@ -16043,7 +16211,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>16.100000000000001</v>
       </c>
@@ -16051,7 +16219,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>16.11</v>
       </c>
@@ -16059,7 +16227,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>16.12</v>
       </c>
@@ -16070,7 +16238,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C26" s="4" t="s">
         <v>867</v>
       </c>
@@ -16078,7 +16246,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C27" s="4" t="s">
         <v>868</v>
       </c>
@@ -16086,7 +16254,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C28" s="4" t="s">
         <v>869</v>
       </c>
@@ -16094,8 +16262,8 @@
         <v>870</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>16.25</v>
       </c>
@@ -16106,7 +16274,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
         <v>872</v>
       </c>
@@ -16114,7 +16282,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C32" s="4" t="s">
         <v>489</v>
       </c>
@@ -16122,8 +16290,8 @@
         <v>873</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>16.27</v>
       </c>
@@ -16137,7 +16305,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C35" s="4" t="s">
         <v>875</v>
       </c>
@@ -16148,7 +16316,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C36" s="4" t="s">
         <v>876</v>
       </c>
@@ -16159,8 +16327,8 @@
         <v>878</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>13.4</v>
       </c>
@@ -16174,7 +16342,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C39" s="4" t="s">
         <v>879</v>
       </c>
@@ -16185,80 +16353,80 @@
         <v>881</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="49" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="50" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="51" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="52" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="53" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="54" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="55" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="56" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="57" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="58" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="59" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="60" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="61" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="62" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="63" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="64" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="65" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="66" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="67" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="68" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="69" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="70" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="71" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="72" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="73" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="74" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="75" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="76" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="77" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="78" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="79" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="80" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="81" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="82" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="83" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="84" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="85" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="86" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="87" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="88" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="89" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="90" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="91" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="92" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="93" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="94" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="95" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="96" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="97" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="98" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="99" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="100" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="101" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="102" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="103" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="104" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="105" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="106" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="107" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="108" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="109" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="110" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="111" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="112" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="113" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="49" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="50" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="51" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="52" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="53" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="54" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="55" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="56" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="57" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="58" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="59" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="60" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="61" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="62" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="63" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="64" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="65" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="66" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="67" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="68" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="69" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="70" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="71" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="72" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="73" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="74" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="75" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="76" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="77" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="78" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="79" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="80" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="81" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="82" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="83" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="84" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="85" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="86" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="87" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="88" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="89" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="90" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="91" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="92" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="93" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="94" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="95" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="96" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="97" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="98" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="99" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="100" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="101" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="102" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="103" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="104" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="105" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="106" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="107" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="108" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="109" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="110" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="111" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="112" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="113" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
